--- a/scripts/Report_Templates/QP_Bistro_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/QP_Bistro_Sales_Report_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1294DE-B921-4726-B2E8-3C26EBFE9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2279C7-853C-4FF7-B210-AEE64AE79766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="732" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="732" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MON" sheetId="1" r:id="rId1"/>
@@ -2664,6 +2664,164 @@
     <xf numFmtId="165" fontId="38" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="38" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2699,164 +2857,6 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4236,8 +4236,8 @@
   </sheetPr>
   <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4267,49 +4267,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="402"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
-      <c r="L1" s="402"/>
-      <c r="M1" s="402"/>
-      <c r="N1" s="402"/>
-      <c r="O1" s="402"/>
-      <c r="P1" s="402"/>
-      <c r="Q1" s="402"/>
-      <c r="R1" s="402"/>
-      <c r="S1" s="402"/>
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="400"/>
+      <c r="S1" s="400"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="403" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="405" t="s">
+      <c r="A2" s="401" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="403" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="406"/>
-      <c r="R2" s="407"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="405"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4320,14 +4320,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="406" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -4351,12 +4351,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="408"/>
+      <c r="H4" s="406"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="410"/>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
+      <c r="J4" s="408"/>
+      <c r="K4" s="408"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="408"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -4432,29 +4432,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="411" t="s">
+      <c r="C7" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="414"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="411" t="s">
+      <c r="D7" s="412"/>
+      <c r="E7" s="410"/>
+      <c r="F7" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="412"/>
+      <c r="G7" s="410"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="411" t="s">
+      <c r="I7" s="409" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="412"/>
+      <c r="J7" s="410"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="411" t="s">
+      <c r="L7" s="409" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="413"/>
+      <c r="M7" s="411"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -4474,10 +4474,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="415" t="s">
+      <c r="D8" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="416"/>
+      <c r="E8" s="414"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -4487,15 +4487,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="431"/>
-      <c r="J8" s="432"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="388"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="421" t="s">
+      <c r="L8" s="372" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="423" t="s">
+      <c r="M8" s="374" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -4518,27 +4518,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="417">
+      <c r="C9" s="389">
         <v>40100</v>
       </c>
-      <c r="D9" s="419"/>
-      <c r="E9" s="418"/>
-      <c r="F9" s="417">
+      <c r="D9" s="415"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="389">
         <v>40200</v>
       </c>
-      <c r="G9" s="418"/>
+      <c r="G9" s="390"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="417">
+      <c r="I9" s="389">
         <v>40900</v>
       </c>
-      <c r="J9" s="418"/>
+      <c r="J9" s="390"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="422"/>
-      <c r="M9" s="424"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="375"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -4558,13 +4558,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="375"/>
-      <c r="E10" s="376"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="428"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="377"/>
-      <c r="J10" s="378"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="430"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -4587,13 +4587,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="374"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="426"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
+      <c r="I11" s="431"/>
+      <c r="J11" s="432"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -4625,13 +4625,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="372"/>
+      <c r="D12" s="423"/>
+      <c r="E12" s="424"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="371"/>
-      <c r="J12" s="372"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="424"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -4660,11 +4660,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="425">
+      <c r="D13" s="381">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="426">
+      <c r="E13" s="382">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4680,11 +4680,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="425">
+      <c r="I13" s="381">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="426">
+      <c r="J13" s="382">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4717,13 +4717,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="427"/>
-      <c r="E14" s="428"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="384"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="427"/>
-      <c r="J14" s="428"/>
+      <c r="I14" s="383"/>
+      <c r="J14" s="384"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4753,11 +4753,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="429">
+      <c r="D15" s="385">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="430"/>
+      <c r="E15" s="386"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4770,11 +4770,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="429">
+      <c r="I15" s="385">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="430"/>
+      <c r="J15" s="386"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4842,22 +4842,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="387">
+      <c r="C17" s="379">
         <v>40200</v>
       </c>
-      <c r="D17" s="388"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="387">
+      <c r="D17" s="419"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="379">
         <v>40300</v>
       </c>
-      <c r="G17" s="389"/>
+      <c r="G17" s="380"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="387">
+      <c r="I17" s="379">
         <v>40600</v>
       </c>
-      <c r="J17" s="389"/>
+      <c r="J17" s="380"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4942,23 +4942,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="381" t="s">
+      <c r="A20" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="382"/>
-      <c r="C20" s="383"/>
+      <c r="B20" s="377"/>
+      <c r="C20" s="378"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="381" t="s">
+      <c r="E20" s="376" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="382"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="383"/>
-      <c r="J20" s="381" t="s">
+      <c r="F20" s="377"/>
+      <c r="G20" s="377"/>
+      <c r="H20" s="378"/>
+      <c r="J20" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="382"/>
-      <c r="L20" s="383"/>
+      <c r="K20" s="377"/>
+      <c r="L20" s="378"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4978,9 +4978,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="386"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="399"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -5011,9 +5011,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="385"/>
-      <c r="G22" s="386"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="399"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -5044,9 +5044,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="386"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="399"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -5085,9 +5085,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="384"/>
-      <c r="F24" s="385"/>
-      <c r="G24" s="386"/>
+      <c r="E24" s="397"/>
+      <c r="F24" s="398"/>
+      <c r="G24" s="399"/>
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -5118,9 +5118,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="390"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="392"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="396"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -5230,12 +5230,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="381" t="s">
+      <c r="E28" s="376" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="382"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="378"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -5268,9 +5268,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="384"/>
-      <c r="F29" s="385"/>
-      <c r="G29" s="386"/>
+      <c r="E29" s="397"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="399"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -5291,9 +5291,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="385"/>
-      <c r="G30" s="386"/>
+      <c r="E30" s="397"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="399"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -5318,15 +5318,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="393" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="395"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="391"/>
-      <c r="G31" s="392"/>
+      <c r="E31" s="394"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="396"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -5361,9 +5361,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="391"/>
-      <c r="G32" s="392"/>
+      <c r="E32" s="394"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="396"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -5386,9 +5386,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="391"/>
-      <c r="G33" s="392"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="396"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -5397,14 +5397,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="397" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="397"/>
-      <c r="P33" s="397"/>
-      <c r="Q33" s="397"/>
-      <c r="R33" s="397"/>
-      <c r="S33" s="397"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -5432,11 +5432,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="390"/>
-      <c r="O34" s="391"/>
-      <c r="P34" s="391"/>
-      <c r="Q34" s="391"/>
-      <c r="R34" s="392"/>
+      <c r="N34" s="394"/>
+      <c r="O34" s="395"/>
+      <c r="P34" s="395"/>
+      <c r="Q34" s="395"/>
+      <c r="R34" s="396"/>
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -5463,11 +5463,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="396"/>
-      <c r="O35" s="396"/>
-      <c r="P35" s="396"/>
-      <c r="Q35" s="396"/>
-      <c r="R35" s="396"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -5475,12 +5475,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="381" t="s">
+      <c r="E36" s="376" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="382"/>
-      <c r="G36" s="382"/>
-      <c r="H36" s="383"/>
+      <c r="F36" s="377"/>
+      <c r="G36" s="377"/>
+      <c r="H36" s="378"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -5494,20 +5494,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="396"/>
-      <c r="O36" s="396"/>
-      <c r="P36" s="396"/>
-      <c r="Q36" s="396"/>
-      <c r="R36" s="396"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="399"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="401"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="74"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -5522,23 +5522,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="396"/>
-      <c r="O37" s="396"/>
-      <c r="P37" s="396"/>
-      <c r="Q37" s="396"/>
-      <c r="R37" s="396"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="398" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="398"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="384"/>
-      <c r="F38" s="385"/>
-      <c r="G38" s="386"/>
+      <c r="E38" s="397"/>
+      <c r="F38" s="398"/>
+      <c r="G38" s="399"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -5550,11 +5550,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="396"/>
-      <c r="O38" s="396"/>
-      <c r="P38" s="396"/>
-      <c r="Q38" s="396"/>
-      <c r="R38" s="396"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5567,9 +5567,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="399"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="401"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -5602,9 +5602,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="399"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="401"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -5635,9 +5635,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="399"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="401"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5652,14 +5652,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="397" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="397"/>
-      <c r="P41" s="397"/>
-      <c r="Q41" s="397"/>
-      <c r="R41" s="397"/>
-      <c r="S41" s="397"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -5685,11 +5685,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="396"/>
-      <c r="O42" s="396"/>
-      <c r="P42" s="396"/>
-      <c r="Q42" s="396"/>
-      <c r="R42" s="396"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -5712,11 +5712,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="396"/>
-      <c r="O43" s="396"/>
-      <c r="P43" s="396"/>
-      <c r="Q43" s="396"/>
-      <c r="R43" s="396"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -5740,11 +5740,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="396"/>
-      <c r="O44" s="396"/>
-      <c r="P44" s="396"/>
-      <c r="Q44" s="396"/>
-      <c r="R44" s="396"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -5771,11 +5771,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="396"/>
-      <c r="O45" s="396"/>
-      <c r="P45" s="396"/>
-      <c r="Q45" s="396"/>
-      <c r="R45" s="396"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -5795,11 +5795,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="396"/>
-      <c r="O46" s="396"/>
-      <c r="P46" s="396"/>
-      <c r="Q46" s="396"/>
-      <c r="R46" s="396"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -5916,20 +5916,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="420">
+      <c r="E51" s="371">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="420"/>
-      <c r="G51" s="420"/>
-      <c r="H51" s="420"/>
-      <c r="J51" s="420">
+      <c r="F51" s="371"/>
+      <c r="G51" s="371"/>
+      <c r="H51" s="371"/>
+      <c r="J51" s="371">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="420"/>
-      <c r="L51" s="420"/>
-      <c r="M51" s="420"/>
+      <c r="K51" s="371"/>
+      <c r="L51" s="371"/>
+      <c r="M51" s="371"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7296,6 +7296,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="L8:L9"/>
@@ -7312,57 +7363,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7384,8 +7384,8 @@
   </sheetPr>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7415,49 +7415,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="402"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
-      <c r="L1" s="402"/>
-      <c r="M1" s="402"/>
-      <c r="N1" s="402"/>
-      <c r="O1" s="402"/>
-      <c r="P1" s="402"/>
-      <c r="Q1" s="402"/>
-      <c r="R1" s="402"/>
-      <c r="S1" s="402"/>
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="400"/>
+      <c r="S1" s="400"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="403" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="405" t="s">
+      <c r="A2" s="401" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="403" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="406"/>
-      <c r="R2" s="407"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="405"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7468,14 +7468,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="406" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -7499,12 +7499,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="408"/>
+      <c r="H4" s="406"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="410"/>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
+      <c r="J4" s="408"/>
+      <c r="K4" s="408"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="408"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -7580,29 +7580,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="411" t="s">
+      <c r="C7" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="414"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="411" t="s">
+      <c r="D7" s="412"/>
+      <c r="E7" s="410"/>
+      <c r="F7" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="412"/>
+      <c r="G7" s="410"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="411" t="s">
+      <c r="I7" s="409" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="412"/>
+      <c r="J7" s="410"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="411" t="s">
+      <c r="L7" s="409" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="413"/>
+      <c r="M7" s="411"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -7622,10 +7622,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="415" t="s">
+      <c r="D8" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="416"/>
+      <c r="E8" s="414"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -7635,15 +7635,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="431"/>
-      <c r="J8" s="432"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="388"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="421" t="s">
+      <c r="L8" s="372" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="423" t="s">
+      <c r="M8" s="374" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -7666,27 +7666,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="417">
+      <c r="C9" s="389">
         <v>40100</v>
       </c>
-      <c r="D9" s="419"/>
-      <c r="E9" s="418"/>
-      <c r="F9" s="417">
+      <c r="D9" s="415"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="389">
         <v>40200</v>
       </c>
-      <c r="G9" s="418"/>
+      <c r="G9" s="390"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="417">
+      <c r="I9" s="389">
         <v>40900</v>
       </c>
-      <c r="J9" s="418"/>
+      <c r="J9" s="390"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="422"/>
-      <c r="M9" s="424"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="375"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -7706,13 +7706,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="375"/>
-      <c r="E10" s="376"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="428"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="377"/>
-      <c r="J10" s="378"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="430"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -7735,13 +7735,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="374"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="426"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
+      <c r="I11" s="431"/>
+      <c r="J11" s="432"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -7773,13 +7773,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="372"/>
+      <c r="D12" s="423"/>
+      <c r="E12" s="424"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="371"/>
-      <c r="J12" s="372"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="424"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -7808,11 +7808,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="425">
+      <c r="D13" s="381">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="426">
+      <c r="E13" s="382">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7828,11 +7828,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="425">
+      <c r="I13" s="381">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="426">
+      <c r="J13" s="382">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -7865,13 +7865,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="427"/>
-      <c r="E14" s="428"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="384"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="427"/>
-      <c r="J14" s="428"/>
+      <c r="I14" s="383"/>
+      <c r="J14" s="384"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -7901,11 +7901,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="429">
+      <c r="D15" s="385">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="430"/>
+      <c r="E15" s="386"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -7918,11 +7918,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="429">
+      <c r="I15" s="385">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="430"/>
+      <c r="J15" s="386"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7990,22 +7990,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="387">
+      <c r="C17" s="379">
         <v>40200</v>
       </c>
-      <c r="D17" s="388"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="387">
+      <c r="D17" s="419"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="379">
         <v>40300</v>
       </c>
-      <c r="G17" s="389"/>
+      <c r="G17" s="380"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="387">
+      <c r="I17" s="379">
         <v>40600</v>
       </c>
-      <c r="J17" s="389"/>
+      <c r="J17" s="380"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -8090,23 +8090,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="381" t="s">
+      <c r="A20" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="382"/>
-      <c r="C20" s="383"/>
+      <c r="B20" s="377"/>
+      <c r="C20" s="378"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="381" t="s">
+      <c r="E20" s="376" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="382"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="383"/>
-      <c r="J20" s="381" t="s">
+      <c r="F20" s="377"/>
+      <c r="G20" s="377"/>
+      <c r="H20" s="378"/>
+      <c r="J20" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="382"/>
-      <c r="L20" s="383"/>
+      <c r="K20" s="377"/>
+      <c r="L20" s="378"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -8123,9 +8123,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="386"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="399"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -8156,9 +8156,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="385"/>
-      <c r="G22" s="386"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="399"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -8189,9 +8189,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="386"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="399"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -8230,9 +8230,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="390"/>
-      <c r="F24" s="391"/>
-      <c r="G24" s="392"/>
+      <c r="E24" s="394"/>
+      <c r="F24" s="395"/>
+      <c r="G24" s="396"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -8263,9 +8263,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="390"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="392"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="396"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -8378,12 +8378,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="381" t="s">
+      <c r="E28" s="376" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="382"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="378"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -8416,9 +8416,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="384"/>
-      <c r="F29" s="385"/>
-      <c r="G29" s="386"/>
+      <c r="E29" s="397"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="399"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -8439,9 +8439,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="385"/>
-      <c r="G30" s="386"/>
+      <c r="E30" s="397"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="399"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -8466,15 +8466,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="393" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="395"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="391"/>
-      <c r="G31" s="392"/>
+      <c r="E31" s="394"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="396"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -8509,9 +8509,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="391"/>
-      <c r="G32" s="392"/>
+      <c r="E32" s="394"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="396"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -8534,9 +8534,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="391"/>
-      <c r="G33" s="392"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="396"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -8545,14 +8545,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="397" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="397"/>
-      <c r="P33" s="397"/>
-      <c r="Q33" s="397"/>
-      <c r="R33" s="397"/>
-      <c r="S33" s="397"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -8623,12 +8623,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="381" t="s">
+      <c r="E36" s="376" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="382"/>
-      <c r="G36" s="382"/>
-      <c r="H36" s="383"/>
+      <c r="F36" s="377"/>
+      <c r="G36" s="377"/>
+      <c r="H36" s="378"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -8642,20 +8642,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="396"/>
-      <c r="O36" s="396"/>
-      <c r="P36" s="396"/>
-      <c r="Q36" s="396"/>
-      <c r="R36" s="396"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="399"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="401"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="74"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -8670,23 +8670,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="396"/>
-      <c r="O37" s="396"/>
-      <c r="P37" s="396"/>
-      <c r="Q37" s="396"/>
-      <c r="R37" s="396"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="398" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="398"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="399"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="401"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -8698,11 +8698,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="396"/>
-      <c r="O38" s="396"/>
-      <c r="P38" s="396"/>
-      <c r="Q38" s="396"/>
-      <c r="R38" s="396"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8715,9 +8715,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="399"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="401"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -8750,9 +8750,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="399"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="401"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -8783,9 +8783,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="399"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="401"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -8800,14 +8800,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="397" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="397"/>
-      <c r="P41" s="397"/>
-      <c r="Q41" s="397"/>
-      <c r="R41" s="397"/>
-      <c r="S41" s="397"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -8833,11 +8833,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="396"/>
-      <c r="O42" s="396"/>
-      <c r="P42" s="396"/>
-      <c r="Q42" s="396"/>
-      <c r="R42" s="396"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -8860,11 +8860,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="396"/>
-      <c r="O43" s="396"/>
-      <c r="P43" s="396"/>
-      <c r="Q43" s="396"/>
-      <c r="R43" s="396"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -8888,11 +8888,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="396"/>
-      <c r="O44" s="396"/>
-      <c r="P44" s="396"/>
-      <c r="Q44" s="396"/>
-      <c r="R44" s="396"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -8919,11 +8919,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="396"/>
-      <c r="O45" s="396"/>
-      <c r="P45" s="396"/>
-      <c r="Q45" s="396"/>
-      <c r="R45" s="396"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -8943,11 +8943,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="396"/>
-      <c r="O46" s="396"/>
-      <c r="P46" s="396"/>
-      <c r="Q46" s="396"/>
-      <c r="R46" s="396"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -9062,20 +9062,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="420">
+      <c r="E51" s="371">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="420"/>
-      <c r="G51" s="420"/>
-      <c r="H51" s="420"/>
-      <c r="J51" s="420">
+      <c r="F51" s="371"/>
+      <c r="G51" s="371"/>
+      <c r="H51" s="371"/>
+      <c r="J51" s="371">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="420"/>
-      <c r="L51" s="420"/>
-      <c r="M51" s="420"/>
+      <c r="K51" s="371"/>
+      <c r="L51" s="371"/>
+      <c r="M51" s="371"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -10580,57 +10580,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -10647,6 +10596,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10666,8 +10666,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -10697,49 +10697,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="402"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
-      <c r="L1" s="402"/>
-      <c r="M1" s="402"/>
-      <c r="N1" s="402"/>
-      <c r="O1" s="402"/>
-      <c r="P1" s="402"/>
-      <c r="Q1" s="402"/>
-      <c r="R1" s="402"/>
-      <c r="S1" s="402"/>
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="400"/>
+      <c r="S1" s="400"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="403" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="405" t="s">
+      <c r="A2" s="401" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="403" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="406"/>
-      <c r="R2" s="407"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="405"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10750,14 +10750,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="406" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -10781,12 +10781,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="408"/>
+      <c r="H4" s="406"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="410"/>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
+      <c r="J4" s="408"/>
+      <c r="K4" s="408"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="408"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -10862,29 +10862,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="411" t="s">
+      <c r="C7" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="414"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="411" t="s">
+      <c r="D7" s="412"/>
+      <c r="E7" s="410"/>
+      <c r="F7" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="412"/>
+      <c r="G7" s="410"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="411" t="s">
+      <c r="I7" s="409" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="412"/>
+      <c r="J7" s="410"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="411" t="s">
+      <c r="L7" s="409" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="413"/>
+      <c r="M7" s="411"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -10904,10 +10904,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="415" t="s">
+      <c r="D8" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="416"/>
+      <c r="E8" s="414"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -10917,15 +10917,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="431"/>
-      <c r="J8" s="432"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="388"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="421" t="s">
+      <c r="L8" s="372" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="423" t="s">
+      <c r="M8" s="374" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -10948,27 +10948,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="417">
+      <c r="C9" s="389">
         <v>40100</v>
       </c>
-      <c r="D9" s="419"/>
-      <c r="E9" s="418"/>
-      <c r="F9" s="417">
+      <c r="D9" s="415"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="389">
         <v>40200</v>
       </c>
-      <c r="G9" s="418"/>
+      <c r="G9" s="390"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="417">
+      <c r="I9" s="389">
         <v>40900</v>
       </c>
-      <c r="J9" s="418"/>
+      <c r="J9" s="390"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="422"/>
-      <c r="M9" s="424"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="375"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -10988,13 +10988,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="375"/>
-      <c r="E10" s="376"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="428"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="377"/>
-      <c r="J10" s="378"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="430"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -11017,13 +11017,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="374"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="426"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
+      <c r="I11" s="431"/>
+      <c r="J11" s="432"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -11055,13 +11055,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="372"/>
+      <c r="D12" s="423"/>
+      <c r="E12" s="424"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="371"/>
-      <c r="J12" s="372"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="424"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -11090,11 +11090,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="425">
+      <c r="D13" s="381">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="426">
+      <c r="E13" s="382">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11110,11 +11110,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="425">
+      <c r="I13" s="381">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="426">
+      <c r="J13" s="382">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -11147,13 +11147,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="427"/>
-      <c r="E14" s="428"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="384"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="427"/>
-      <c r="J14" s="428"/>
+      <c r="I14" s="383"/>
+      <c r="J14" s="384"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -11183,11 +11183,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="429">
+      <c r="D15" s="385">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="430"/>
+      <c r="E15" s="386"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -11200,11 +11200,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="429">
+      <c r="I15" s="385">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="430"/>
+      <c r="J15" s="386"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -11272,22 +11272,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="387">
+      <c r="C17" s="379">
         <v>40200</v>
       </c>
-      <c r="D17" s="388"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="387">
+      <c r="D17" s="419"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="379">
         <v>40300</v>
       </c>
-      <c r="G17" s="389"/>
+      <c r="G17" s="380"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="387">
+      <c r="I17" s="379">
         <v>40600</v>
       </c>
-      <c r="J17" s="389"/>
+      <c r="J17" s="380"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -11372,23 +11372,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="381" t="s">
+      <c r="A20" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="382"/>
-      <c r="C20" s="383"/>
+      <c r="B20" s="377"/>
+      <c r="C20" s="378"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="381" t="s">
+      <c r="E20" s="376" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="382"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="383"/>
-      <c r="J20" s="381" t="s">
+      <c r="F20" s="377"/>
+      <c r="G20" s="377"/>
+      <c r="H20" s="378"/>
+      <c r="J20" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="382"/>
-      <c r="L20" s="383"/>
+      <c r="K20" s="377"/>
+      <c r="L20" s="378"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -11408,9 +11408,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="386"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="399"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -11441,9 +11441,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="385"/>
-      <c r="G22" s="386"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="399"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -11474,9 +11474,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="386"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="399"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -11515,9 +11515,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="390"/>
-      <c r="F24" s="391"/>
-      <c r="G24" s="392"/>
+      <c r="E24" s="394"/>
+      <c r="F24" s="395"/>
+      <c r="G24" s="396"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -11548,9 +11548,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="390"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="392"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="396"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -11663,12 +11663,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="381" t="s">
+      <c r="E28" s="376" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="382"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="378"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -11701,9 +11701,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="384"/>
-      <c r="F29" s="385"/>
-      <c r="G29" s="386"/>
+      <c r="E29" s="397"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="399"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -11724,9 +11724,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="385"/>
-      <c r="G30" s="386"/>
+      <c r="E30" s="397"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="399"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -11751,15 +11751,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="393" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="395"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="391"/>
-      <c r="G31" s="392"/>
+      <c r="E31" s="394"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="396"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -11794,9 +11794,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="391"/>
-      <c r="G32" s="392"/>
+      <c r="E32" s="394"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="396"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -11819,9 +11819,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="391"/>
-      <c r="G33" s="392"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="396"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -11830,14 +11830,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="397" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="397"/>
-      <c r="P33" s="397"/>
-      <c r="Q33" s="397"/>
-      <c r="R33" s="397"/>
-      <c r="S33" s="397"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -11865,11 +11865,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="396"/>
-      <c r="O34" s="396"/>
-      <c r="P34" s="396"/>
-      <c r="Q34" s="396"/>
-      <c r="R34" s="396"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="55"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -11896,11 +11896,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="396"/>
-      <c r="O35" s="396"/>
-      <c r="P35" s="396"/>
-      <c r="Q35" s="396"/>
-      <c r="R35" s="396"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -11908,12 +11908,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="381" t="s">
+      <c r="E36" s="376" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="382"/>
-      <c r="G36" s="382"/>
-      <c r="H36" s="383"/>
+      <c r="F36" s="377"/>
+      <c r="G36" s="377"/>
+      <c r="H36" s="378"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -11927,20 +11927,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="396"/>
-      <c r="O36" s="396"/>
-      <c r="P36" s="396"/>
-      <c r="Q36" s="396"/>
-      <c r="R36" s="396"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="399"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="401"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="74"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -11955,23 +11955,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="396"/>
-      <c r="O37" s="396"/>
-      <c r="P37" s="396"/>
-      <c r="Q37" s="396"/>
-      <c r="R37" s="396"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="398" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="398"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="399"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="401"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -11983,11 +11983,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="396"/>
-      <c r="O38" s="396"/>
-      <c r="P38" s="396"/>
-      <c r="Q38" s="396"/>
-      <c r="R38" s="396"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12000,9 +12000,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="399"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="401"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -12035,9 +12035,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="399"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="401"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -12068,9 +12068,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="399"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="401"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -12085,14 +12085,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="397" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="397"/>
-      <c r="P41" s="397"/>
-      <c r="Q41" s="397"/>
-      <c r="R41" s="397"/>
-      <c r="S41" s="397"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -12118,11 +12118,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="396"/>
-      <c r="O42" s="396"/>
-      <c r="P42" s="396"/>
-      <c r="Q42" s="396"/>
-      <c r="R42" s="396"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -12145,11 +12145,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="396"/>
-      <c r="O43" s="396"/>
-      <c r="P43" s="396"/>
-      <c r="Q43" s="396"/>
-      <c r="R43" s="396"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -12173,11 +12173,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="396"/>
-      <c r="O44" s="396"/>
-      <c r="P44" s="396"/>
-      <c r="Q44" s="396"/>
-      <c r="R44" s="396"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -12204,11 +12204,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="396"/>
-      <c r="O45" s="396"/>
-      <c r="P45" s="396"/>
-      <c r="Q45" s="396"/>
-      <c r="R45" s="396"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -12228,11 +12228,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="396"/>
-      <c r="O46" s="396"/>
-      <c r="P46" s="396"/>
-      <c r="Q46" s="396"/>
-      <c r="R46" s="396"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -12346,20 +12346,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="420">
+      <c r="E51" s="371">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="420"/>
-      <c r="G51" s="420"/>
-      <c r="H51" s="420"/>
-      <c r="J51" s="420">
+      <c r="F51" s="371"/>
+      <c r="G51" s="371"/>
+      <c r="H51" s="371"/>
+      <c r="J51" s="371">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="420"/>
-      <c r="L51" s="420"/>
-      <c r="M51" s="420"/>
+      <c r="K51" s="371"/>
+      <c r="L51" s="371"/>
+      <c r="M51" s="371"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -13849,6 +13849,60 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -13862,60 +13916,6 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13936,7 +13936,7 @@
   <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -13965,49 +13965,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="402"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
-      <c r="L1" s="402"/>
-      <c r="M1" s="402"/>
-      <c r="N1" s="402"/>
-      <c r="O1" s="402"/>
-      <c r="P1" s="402"/>
-      <c r="Q1" s="402"/>
-      <c r="R1" s="402"/>
-      <c r="S1" s="402"/>
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="400"/>
+      <c r="S1" s="400"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="403" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="405" t="s">
+      <c r="A2" s="401" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="403" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="406"/>
-      <c r="R2" s="407"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="405"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14018,14 +14018,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="406" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -14049,12 +14049,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="408"/>
+      <c r="H4" s="406"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="410"/>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
+      <c r="J4" s="408"/>
+      <c r="K4" s="408"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="408"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -14130,29 +14130,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="411" t="s">
+      <c r="C7" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="414"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="411" t="s">
+      <c r="D7" s="412"/>
+      <c r="E7" s="410"/>
+      <c r="F7" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="412"/>
+      <c r="G7" s="410"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="411" t="s">
+      <c r="I7" s="409" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="412"/>
+      <c r="J7" s="410"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="411" t="s">
+      <c r="L7" s="409" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="413"/>
+      <c r="M7" s="411"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -14172,10 +14172,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="415" t="s">
+      <c r="D8" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="416"/>
+      <c r="E8" s="414"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -14185,15 +14185,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="431"/>
-      <c r="J8" s="432"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="388"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="421" t="s">
+      <c r="L8" s="372" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="423" t="s">
+      <c r="M8" s="374" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -14216,27 +14216,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="417">
+      <c r="C9" s="389">
         <v>40100</v>
       </c>
-      <c r="D9" s="419"/>
-      <c r="E9" s="418"/>
-      <c r="F9" s="417">
+      <c r="D9" s="415"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="389">
         <v>40200</v>
       </c>
-      <c r="G9" s="418"/>
+      <c r="G9" s="390"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="417">
+      <c r="I9" s="389">
         <v>40900</v>
       </c>
-      <c r="J9" s="418"/>
+      <c r="J9" s="390"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="422"/>
-      <c r="M9" s="424"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="375"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -14256,13 +14256,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="375"/>
-      <c r="E10" s="376"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="428"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="377"/>
-      <c r="J10" s="378"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="430"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -14285,13 +14285,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="374"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="426"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
+      <c r="I11" s="431"/>
+      <c r="J11" s="432"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -14323,13 +14323,13 @@
       </c>
       <c r="B12" s="313"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="373"/>
-      <c r="E12" s="374"/>
+      <c r="D12" s="425"/>
+      <c r="E12" s="426"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="371"/>
-      <c r="J12" s="372"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="424"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -14358,11 +14358,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="425">
+      <c r="D13" s="381">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="426">
+      <c r="E13" s="382">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14378,11 +14378,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="425">
+      <c r="I13" s="381">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="426">
+      <c r="J13" s="382">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -14415,13 +14415,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="427"/>
-      <c r="E14" s="428"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="384"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="427"/>
-      <c r="J14" s="428"/>
+      <c r="I14" s="383"/>
+      <c r="J14" s="384"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -14451,11 +14451,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="429">
+      <c r="D15" s="385">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="430"/>
+      <c r="E15" s="386"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -14468,11 +14468,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="429">
+      <c r="I15" s="385">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="430"/>
+      <c r="J15" s="386"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -14540,22 +14540,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="387">
+      <c r="C17" s="379">
         <v>40200</v>
       </c>
-      <c r="D17" s="388"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="387">
+      <c r="D17" s="419"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="379">
         <v>40300</v>
       </c>
-      <c r="G17" s="389"/>
+      <c r="G17" s="380"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="387">
+      <c r="I17" s="379">
         <v>40600</v>
       </c>
-      <c r="J17" s="389"/>
+      <c r="J17" s="380"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -14640,23 +14640,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="381" t="s">
+      <c r="A20" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="382"/>
-      <c r="C20" s="383"/>
+      <c r="B20" s="377"/>
+      <c r="C20" s="378"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="381" t="s">
+      <c r="E20" s="376" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="382"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="383"/>
-      <c r="J20" s="381" t="s">
+      <c r="F20" s="377"/>
+      <c r="G20" s="377"/>
+      <c r="H20" s="378"/>
+      <c r="J20" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="382"/>
-      <c r="L20" s="383"/>
+      <c r="K20" s="377"/>
+      <c r="L20" s="378"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -14676,9 +14676,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="386"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="399"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -14709,9 +14709,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="385"/>
-      <c r="G22" s="386"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="399"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -14742,9 +14742,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="386"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="399"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -14783,9 +14783,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="390"/>
-      <c r="F24" s="391"/>
-      <c r="G24" s="392"/>
+      <c r="E24" s="394"/>
+      <c r="F24" s="395"/>
+      <c r="G24" s="396"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -14816,9 +14816,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="390"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="392"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="396"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -14932,12 +14932,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="381" t="s">
+      <c r="E28" s="376" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="382"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="378"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -14970,9 +14970,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="384"/>
-      <c r="F29" s="385"/>
-      <c r="G29" s="386"/>
+      <c r="E29" s="397"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="399"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -14993,9 +14993,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="385"/>
-      <c r="G30" s="386"/>
+      <c r="E30" s="397"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="399"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -15020,15 +15020,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="393" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="395"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="391"/>
-      <c r="G31" s="392"/>
+      <c r="E31" s="394"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="396"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -15063,9 +15063,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="391"/>
-      <c r="G32" s="392"/>
+      <c r="E32" s="394"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="396"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -15088,9 +15088,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="391"/>
-      <c r="G33" s="392"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="396"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -15099,14 +15099,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="397" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="397"/>
-      <c r="P33" s="397"/>
-      <c r="Q33" s="397"/>
-      <c r="R33" s="397"/>
-      <c r="S33" s="397"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -15160,11 +15160,11 @@
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="396"/>
-      <c r="O35" s="396"/>
-      <c r="P35" s="396"/>
-      <c r="Q35" s="396"/>
-      <c r="R35" s="396"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -15172,12 +15172,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="49"/>
-      <c r="E36" s="381" t="s">
+      <c r="E36" s="376" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="382"/>
-      <c r="G36" s="382"/>
-      <c r="H36" s="383"/>
+      <c r="F36" s="377"/>
+      <c r="G36" s="377"/>
+      <c r="H36" s="378"/>
       <c r="I36" s="30"/>
       <c r="J36" s="51" t="s">
         <v>40</v>
@@ -15188,11 +15188,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="396"/>
-      <c r="O36" s="396"/>
-      <c r="P36" s="396"/>
-      <c r="Q36" s="396"/>
-      <c r="R36" s="396"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -15200,9 +15200,9 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="399"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="401"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="253"/>
       <c r="I37" s="54"/>
       <c r="J37" s="43" t="s">
@@ -15217,22 +15217,22 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="396"/>
-      <c r="O37" s="396"/>
-      <c r="P37" s="396"/>
-      <c r="Q37" s="396"/>
-      <c r="R37" s="396"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="398" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="398"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
-      <c r="E38" s="399"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="401"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="26"/>
       <c r="J38" s="43" t="s">
@@ -15247,11 +15247,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="25"/>
-      <c r="N38" s="396"/>
-      <c r="O38" s="396"/>
-      <c r="P38" s="396"/>
-      <c r="Q38" s="396"/>
-      <c r="R38" s="396"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -15264,9 +15264,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="399"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="401"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -15278,11 +15278,11 @@
         <v>0</v>
       </c>
       <c r="M39" s="56"/>
-      <c r="N39" s="396"/>
-      <c r="O39" s="396"/>
-      <c r="P39" s="396"/>
-      <c r="Q39" s="396"/>
-      <c r="R39" s="396"/>
+      <c r="N39" s="416"/>
+      <c r="O39" s="416"/>
+      <c r="P39" s="416"/>
+      <c r="Q39" s="416"/>
+      <c r="R39" s="416"/>
       <c r="S39" s="77"/>
     </row>
     <row r="40" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15295,9 +15295,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="399"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="401"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -15327,9 +15327,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="399"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="401"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -15378,14 +15378,14 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="397" t="s">
+      <c r="N42" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O42" s="397"/>
-      <c r="P42" s="397"/>
-      <c r="Q42" s="397"/>
-      <c r="R42" s="397"/>
-      <c r="S42" s="397"/>
+      <c r="O42" s="417"/>
+      <c r="P42" s="417"/>
+      <c r="Q42" s="417"/>
+      <c r="R42" s="417"/>
+      <c r="S42" s="417"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
     </row>
@@ -15407,11 +15407,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="396"/>
-      <c r="O43" s="396"/>
-      <c r="P43" s="396"/>
-      <c r="Q43" s="396"/>
-      <c r="R43" s="396"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -15437,11 +15437,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="396"/>
-      <c r="O44" s="396"/>
-      <c r="P44" s="396"/>
-      <c r="Q44" s="396"/>
-      <c r="R44" s="396"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -15468,11 +15468,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="396"/>
-      <c r="O45" s="396"/>
-      <c r="P45" s="396"/>
-      <c r="Q45" s="396"/>
-      <c r="R45" s="396"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -15496,11 +15496,11 @@
         <v>0</v>
       </c>
       <c r="M46" s="25"/>
-      <c r="N46" s="396"/>
-      <c r="O46" s="396"/>
-      <c r="P46" s="396"/>
-      <c r="Q46" s="396"/>
-      <c r="R46" s="396"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -15523,11 +15523,11 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="M47" s="25"/>
-      <c r="N47" s="396"/>
-      <c r="O47" s="396"/>
-      <c r="P47" s="396"/>
-      <c r="Q47" s="396"/>
-      <c r="R47" s="396"/>
+      <c r="N47" s="416"/>
+      <c r="O47" s="416"/>
+      <c r="P47" s="416"/>
+      <c r="Q47" s="416"/>
+      <c r="R47" s="416"/>
       <c r="S47" s="77"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -15609,13 +15609,13 @@
       </c>
       <c r="B51" s="68"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="420">
+      <c r="E51" s="371">
         <f>+J52</f>
         <v>0</v>
       </c>
-      <c r="F51" s="420"/>
-      <c r="G51" s="420"/>
-      <c r="H51" s="420"/>
+      <c r="F51" s="371"/>
+      <c r="G51" s="371"/>
+      <c r="H51" s="371"/>
       <c r="I51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -15631,13 +15631,13 @@
       <c r="F52" s="235"/>
       <c r="G52" s="235"/>
       <c r="H52" s="188"/>
-      <c r="J52" s="420">
+      <c r="J52" s="371">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K52" s="420"/>
-      <c r="L52" s="420"/>
-      <c r="M52" s="420"/>
+      <c r="K52" s="371"/>
+      <c r="L52" s="371"/>
+      <c r="M52" s="371"/>
       <c r="S52" s="69"/>
     </row>
     <row r="53" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -17218,57 +17218,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J52:M52"/>
     <mergeCell ref="C7:E7"/>
@@ -17285,6 +17234,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="portrait" verticalDpi="598" r:id="rId1"/>
@@ -17305,8 +17305,8 @@
   </sheetPr>
   <dimension ref="A1:W127"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -17335,49 +17335,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="402"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
-      <c r="L1" s="402"/>
-      <c r="M1" s="402"/>
-      <c r="N1" s="402"/>
-      <c r="O1" s="402"/>
-      <c r="P1" s="402"/>
-      <c r="Q1" s="402"/>
-      <c r="R1" s="402"/>
-      <c r="S1" s="402"/>
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="400"/>
+      <c r="S1" s="400"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="403" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="405" t="s">
+      <c r="A2" s="401" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="403" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="406"/>
-      <c r="R2" s="407"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="405"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17388,14 +17388,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="406" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -17419,12 +17419,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="408"/>
+      <c r="H4" s="406"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="410"/>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
+      <c r="J4" s="408"/>
+      <c r="K4" s="408"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="408"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -17500,29 +17500,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="411" t="s">
+      <c r="C7" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="414"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="411" t="s">
+      <c r="D7" s="412"/>
+      <c r="E7" s="410"/>
+      <c r="F7" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="412"/>
+      <c r="G7" s="410"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="411" t="s">
+      <c r="I7" s="409" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="412"/>
+      <c r="J7" s="410"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="411" t="s">
+      <c r="L7" s="409" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="413"/>
+      <c r="M7" s="411"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -17542,10 +17542,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="415" t="s">
+      <c r="D8" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="416"/>
+      <c r="E8" s="414"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -17555,15 +17555,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="431"/>
-      <c r="J8" s="432"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="388"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="421" t="s">
+      <c r="L8" s="372" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="423" t="s">
+      <c r="M8" s="374" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -17586,27 +17586,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="417">
+      <c r="C9" s="389">
         <v>40100</v>
       </c>
-      <c r="D9" s="419"/>
-      <c r="E9" s="418"/>
-      <c r="F9" s="417">
+      <c r="D9" s="415"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="389">
         <v>40200</v>
       </c>
-      <c r="G9" s="418"/>
+      <c r="G9" s="390"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="417">
+      <c r="I9" s="389">
         <v>40900</v>
       </c>
-      <c r="J9" s="418"/>
+      <c r="J9" s="390"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="422"/>
-      <c r="M9" s="424"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="375"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -17626,13 +17626,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="375"/>
-      <c r="E10" s="376"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="428"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="377"/>
-      <c r="J10" s="378"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="430"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -17655,13 +17655,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="374"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="426"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
+      <c r="I11" s="431"/>
+      <c r="J11" s="432"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -17693,13 +17693,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="372"/>
+      <c r="D12" s="423"/>
+      <c r="E12" s="424"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="371"/>
-      <c r="J12" s="372"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="424"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -17728,11 +17728,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="425">
+      <c r="D13" s="381">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="426">
+      <c r="E13" s="382">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17748,11 +17748,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="425">
+      <c r="I13" s="381">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="426">
+      <c r="J13" s="382">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -17785,13 +17785,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="427"/>
-      <c r="E14" s="428"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="384"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="427"/>
-      <c r="J14" s="428"/>
+      <c r="I14" s="383"/>
+      <c r="J14" s="384"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -17821,11 +17821,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="429">
+      <c r="D15" s="385">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="430"/>
+      <c r="E15" s="386"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -17838,11 +17838,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="429">
+      <c r="I15" s="385">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="430"/>
+      <c r="J15" s="386"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -17910,22 +17910,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="387">
+      <c r="C17" s="379">
         <v>40200</v>
       </c>
-      <c r="D17" s="388"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="387">
+      <c r="D17" s="419"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="379">
         <v>40300</v>
       </c>
-      <c r="G17" s="389"/>
+      <c r="G17" s="380"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="387">
+      <c r="I17" s="379">
         <v>40600</v>
       </c>
-      <c r="J17" s="389"/>
+      <c r="J17" s="380"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -18010,23 +18010,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="381" t="s">
+      <c r="A20" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="382"/>
-      <c r="C20" s="383"/>
+      <c r="B20" s="377"/>
+      <c r="C20" s="378"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="381" t="s">
+      <c r="E20" s="376" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="382"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="383"/>
-      <c r="J20" s="381" t="s">
+      <c r="F20" s="377"/>
+      <c r="G20" s="377"/>
+      <c r="H20" s="378"/>
+      <c r="J20" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="382"/>
-      <c r="L20" s="383"/>
+      <c r="K20" s="377"/>
+      <c r="L20" s="378"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -18046,9 +18046,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="386"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="399"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -18079,9 +18079,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="385"/>
-      <c r="G22" s="386"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="399"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -18112,9 +18112,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="386"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="399"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -18153,9 +18153,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="384"/>
-      <c r="F24" s="385"/>
-      <c r="G24" s="386"/>
+      <c r="E24" s="397"/>
+      <c r="F24" s="398"/>
+      <c r="G24" s="399"/>
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -18186,9 +18186,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="390"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="392"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="396"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -18301,12 +18301,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="381" t="s">
+      <c r="E28" s="376" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="382"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="378"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -18339,9 +18339,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="384"/>
-      <c r="F29" s="385"/>
-      <c r="G29" s="386"/>
+      <c r="E29" s="397"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="399"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -18362,9 +18362,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="385"/>
-      <c r="G30" s="386"/>
+      <c r="E30" s="397"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="399"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -18389,15 +18389,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="393" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="395"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="391"/>
-      <c r="G31" s="392"/>
+      <c r="E31" s="394"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="396"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -18432,9 +18432,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="391"/>
-      <c r="G32" s="392"/>
+      <c r="E32" s="394"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="396"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -18457,9 +18457,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="391"/>
-      <c r="G33" s="392"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="396"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -18468,14 +18468,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="397" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="397"/>
-      <c r="P33" s="397"/>
-      <c r="Q33" s="397"/>
-      <c r="R33" s="397"/>
-      <c r="S33" s="397"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -18534,11 +18534,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="396"/>
-      <c r="O35" s="396"/>
-      <c r="P35" s="396"/>
-      <c r="Q35" s="396"/>
-      <c r="R35" s="396"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -18546,12 +18546,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="381" t="s">
+      <c r="E36" s="376" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="382"/>
-      <c r="G36" s="382"/>
-      <c r="H36" s="383"/>
+      <c r="F36" s="377"/>
+      <c r="G36" s="377"/>
+      <c r="H36" s="378"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -18565,22 +18565,22 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="396"/>
-      <c r="O36" s="396"/>
-      <c r="P36" s="396"/>
-      <c r="Q36" s="396"/>
-      <c r="R36" s="396"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="384" t="s">
+      <c r="E37" s="397" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="385"/>
-      <c r="G37" s="386"/>
+      <c r="F37" s="398"/>
+      <c r="G37" s="399"/>
       <c r="H37" s="253"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -18595,23 +18595,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="396"/>
-      <c r="O37" s="396"/>
-      <c r="P37" s="396"/>
-      <c r="Q37" s="396"/>
-      <c r="R37" s="396"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="398" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="398"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="399"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="401"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -18623,11 +18623,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="396"/>
-      <c r="O38" s="396"/>
-      <c r="P38" s="396"/>
-      <c r="Q38" s="396"/>
-      <c r="R38" s="396"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18640,9 +18640,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="399"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="401"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -18675,9 +18675,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="399"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="401"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -18708,9 +18708,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="399"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="401"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -18725,14 +18725,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="397" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="397"/>
-      <c r="P41" s="397"/>
-      <c r="Q41" s="397"/>
-      <c r="R41" s="397"/>
-      <c r="S41" s="397"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -18758,11 +18758,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="396"/>
-      <c r="O42" s="396"/>
-      <c r="P42" s="396"/>
-      <c r="Q42" s="396"/>
-      <c r="R42" s="396"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -18785,11 +18785,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="396"/>
-      <c r="O43" s="396"/>
-      <c r="P43" s="396"/>
-      <c r="Q43" s="396"/>
-      <c r="R43" s="396"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -18813,11 +18813,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="396"/>
-      <c r="O44" s="396"/>
-      <c r="P44" s="396"/>
-      <c r="Q44" s="396"/>
-      <c r="R44" s="396"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -18845,11 +18845,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="396"/>
-      <c r="O45" s="396"/>
-      <c r="P45" s="396"/>
-      <c r="Q45" s="396"/>
-      <c r="R45" s="396"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -18869,11 +18869,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="396"/>
-      <c r="O46" s="396"/>
-      <c r="P46" s="396"/>
-      <c r="Q46" s="396"/>
-      <c r="R46" s="396"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -18988,20 +18988,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="420">
+      <c r="E51" s="371">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="420"/>
-      <c r="G51" s="420"/>
-      <c r="H51" s="420"/>
-      <c r="J51" s="420">
+      <c r="F51" s="371"/>
+      <c r="G51" s="371"/>
+      <c r="H51" s="371"/>
+      <c r="J51" s="371">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="420"/>
-      <c r="L51" s="420"/>
-      <c r="M51" s="420"/>
+      <c r="K51" s="371"/>
+      <c r="L51" s="371"/>
+      <c r="M51" s="371"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -20544,57 +20544,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -20611,6 +20560,57 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20632,8 +20632,8 @@
   </sheetPr>
   <dimension ref="A1:W127"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -20663,49 +20663,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="402"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
-      <c r="L1" s="402"/>
-      <c r="M1" s="402"/>
-      <c r="N1" s="402"/>
-      <c r="O1" s="402"/>
-      <c r="P1" s="402"/>
-      <c r="Q1" s="402"/>
-      <c r="R1" s="402"/>
-      <c r="S1" s="402"/>
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="400"/>
+      <c r="S1" s="400"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="403" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="405" t="s">
+      <c r="A2" s="401" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="403" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="406"/>
-      <c r="R2" s="407"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="405"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20716,14 +20716,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="406" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -20747,12 +20747,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="408"/>
+      <c r="H4" s="406"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="410"/>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
+      <c r="J4" s="408"/>
+      <c r="K4" s="408"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="408"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -20828,29 +20828,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="411" t="s">
+      <c r="C7" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="414"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="411" t="s">
+      <c r="D7" s="412"/>
+      <c r="E7" s="410"/>
+      <c r="F7" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="412"/>
+      <c r="G7" s="410"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="411" t="s">
+      <c r="I7" s="409" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="412"/>
+      <c r="J7" s="410"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="411" t="s">
+      <c r="L7" s="409" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="413"/>
+      <c r="M7" s="411"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -20870,10 +20870,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="415" t="s">
+      <c r="D8" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="416"/>
+      <c r="E8" s="414"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -20883,15 +20883,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="431"/>
-      <c r="J8" s="432"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="388"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="421" t="s">
+      <c r="L8" s="372" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="423" t="s">
+      <c r="M8" s="374" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -20914,27 +20914,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="417">
+      <c r="C9" s="389">
         <v>40100</v>
       </c>
-      <c r="D9" s="419"/>
-      <c r="E9" s="418"/>
-      <c r="F9" s="417">
+      <c r="D9" s="415"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="389">
         <v>40200</v>
       </c>
-      <c r="G9" s="418"/>
+      <c r="G9" s="390"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="417">
+      <c r="I9" s="389">
         <v>40900</v>
       </c>
-      <c r="J9" s="418"/>
+      <c r="J9" s="390"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="422"/>
-      <c r="M9" s="424"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="375"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -20954,13 +20954,13 @@
       </c>
       <c r="B10" s="270"/>
       <c r="C10" s="271"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="378"/>
+      <c r="D10" s="429"/>
+      <c r="E10" s="430"/>
       <c r="F10" s="271"/>
       <c r="G10" s="271"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="377"/>
-      <c r="J10" s="378"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="430"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -20983,13 +20983,13 @@
       </c>
       <c r="B11" s="272"/>
       <c r="C11" s="273"/>
-      <c r="D11" s="379"/>
-      <c r="E11" s="380"/>
+      <c r="D11" s="431"/>
+      <c r="E11" s="432"/>
       <c r="F11" s="273"/>
       <c r="G11" s="273"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
+      <c r="I11" s="431"/>
+      <c r="J11" s="432"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -21021,13 +21021,13 @@
       </c>
       <c r="B12" s="272"/>
       <c r="C12" s="273"/>
-      <c r="D12" s="379"/>
-      <c r="E12" s="380"/>
+      <c r="D12" s="431"/>
+      <c r="E12" s="432"/>
       <c r="F12" s="269"/>
       <c r="G12" s="273"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="371"/>
-      <c r="J12" s="372"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="424"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -21056,11 +21056,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="425">
+      <c r="D13" s="381">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="426">
+      <c r="E13" s="382">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21076,11 +21076,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="425">
+      <c r="I13" s="381">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="426">
+      <c r="J13" s="382">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -21113,13 +21113,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="427"/>
-      <c r="E14" s="428"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="384"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="427"/>
-      <c r="J14" s="428"/>
+      <c r="I14" s="383"/>
+      <c r="J14" s="384"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -21149,11 +21149,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="429">
+      <c r="D15" s="385">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="430"/>
+      <c r="E15" s="386"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -21166,11 +21166,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="429">
+      <c r="I15" s="385">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="430"/>
+      <c r="J15" s="386"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -21238,22 +21238,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="387">
+      <c r="C17" s="379">
         <v>40200</v>
       </c>
-      <c r="D17" s="388"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="387">
+      <c r="D17" s="419"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="379">
         <v>40300</v>
       </c>
-      <c r="G17" s="389"/>
+      <c r="G17" s="380"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="387">
+      <c r="I17" s="379">
         <v>40600</v>
       </c>
-      <c r="J17" s="389"/>
+      <c r="J17" s="380"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -21338,23 +21338,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="381" t="s">
+      <c r="A20" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="382"/>
-      <c r="C20" s="383"/>
+      <c r="B20" s="377"/>
+      <c r="C20" s="378"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="381" t="s">
+      <c r="E20" s="376" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="382"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="383"/>
-      <c r="J20" s="381" t="s">
+      <c r="F20" s="377"/>
+      <c r="G20" s="377"/>
+      <c r="H20" s="378"/>
+      <c r="J20" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="382"/>
-      <c r="L20" s="383"/>
+      <c r="K20" s="377"/>
+      <c r="L20" s="378"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -21376,9 +21376,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="386"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="399"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -21409,9 +21409,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="385"/>
-      <c r="G22" s="386"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="399"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -21442,9 +21442,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="386"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="399"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -21483,9 +21483,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="390"/>
-      <c r="F24" s="391"/>
-      <c r="G24" s="392"/>
+      <c r="E24" s="394"/>
+      <c r="F24" s="395"/>
+      <c r="G24" s="396"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -21516,9 +21516,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="390"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="392"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="396"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -21632,12 +21632,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="381" t="s">
+      <c r="E28" s="376" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="382"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="378"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -21672,9 +21672,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="384"/>
-      <c r="F29" s="385"/>
-      <c r="G29" s="386"/>
+      <c r="E29" s="397"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="399"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -21695,9 +21695,9 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="385"/>
-      <c r="G30" s="386"/>
+      <c r="E30" s="397"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="399"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -21722,15 +21722,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="393" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="395"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="391"/>
-      <c r="G31" s="392"/>
+      <c r="E31" s="394"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="396"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -21765,9 +21765,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="391"/>
-      <c r="G32" s="392"/>
+      <c r="E32" s="394"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="396"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -21790,9 +21790,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="391"/>
-      <c r="G33" s="392"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="396"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -21801,14 +21801,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="397" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="397"/>
-      <c r="P33" s="397"/>
-      <c r="Q33" s="397"/>
-      <c r="R33" s="397"/>
-      <c r="S33" s="397"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -21836,11 +21836,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="396"/>
-      <c r="O34" s="396"/>
-      <c r="P34" s="396"/>
-      <c r="Q34" s="396"/>
-      <c r="R34" s="396"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -21867,11 +21867,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="396"/>
-      <c r="O35" s="396"/>
-      <c r="P35" s="396"/>
-      <c r="Q35" s="396"/>
-      <c r="R35" s="396"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="77"/>
       <c r="W35" s="206"/>
     </row>
@@ -21880,12 +21880,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="381" t="s">
+      <c r="E36" s="376" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="382"/>
-      <c r="G36" s="382"/>
-      <c r="H36" s="383"/>
+      <c r="F36" s="377"/>
+      <c r="G36" s="377"/>
+      <c r="H36" s="378"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -21899,20 +21899,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="396"/>
-      <c r="O36" s="396"/>
-      <c r="P36" s="396"/>
-      <c r="Q36" s="396"/>
-      <c r="R36" s="396"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="399"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="401"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="253"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -21927,23 +21927,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="396"/>
-      <c r="O37" s="396"/>
-      <c r="P37" s="396"/>
-      <c r="Q37" s="396"/>
-      <c r="R37" s="396"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="398" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="398"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="399"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="401"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -21955,11 +21955,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="396"/>
-      <c r="O38" s="396"/>
-      <c r="P38" s="396"/>
-      <c r="Q38" s="396"/>
-      <c r="R38" s="396"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21972,9 +21972,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="399"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="401"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -22004,9 +22004,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="399"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="401"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -22037,9 +22037,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="399"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="401"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -22054,14 +22054,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="397" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="397"/>
-      <c r="P41" s="397"/>
-      <c r="Q41" s="397"/>
-      <c r="R41" s="397"/>
-      <c r="S41" s="397"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -22087,11 +22087,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="396"/>
-      <c r="O42" s="396"/>
-      <c r="P42" s="396"/>
-      <c r="Q42" s="396"/>
-      <c r="R42" s="396"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -22114,11 +22114,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="396"/>
-      <c r="O43" s="396"/>
-      <c r="P43" s="396"/>
-      <c r="Q43" s="396"/>
-      <c r="R43" s="396"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -22144,11 +22144,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="396"/>
-      <c r="O44" s="396"/>
-      <c r="P44" s="396"/>
-      <c r="Q44" s="396"/>
-      <c r="R44" s="396"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -22175,11 +22175,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="396"/>
-      <c r="O45" s="396"/>
-      <c r="P45" s="396"/>
-      <c r="Q45" s="396"/>
-      <c r="R45" s="396"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -22199,11 +22199,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="396"/>
-      <c r="O46" s="396"/>
-      <c r="P46" s="396"/>
-      <c r="Q46" s="396"/>
-      <c r="R46" s="396"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -22318,20 +22318,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="420">
+      <c r="E51" s="371">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="420"/>
-      <c r="G51" s="420"/>
-      <c r="H51" s="420"/>
-      <c r="J51" s="420">
+      <c r="F51" s="371"/>
+      <c r="G51" s="371"/>
+      <c r="H51" s="371"/>
+      <c r="J51" s="371">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="420"/>
-      <c r="L51" s="420"/>
-      <c r="M51" s="420"/>
+      <c r="K51" s="371"/>
+      <c r="L51" s="371"/>
+      <c r="M51" s="371"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -23826,6 +23826,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="N46:R46"/>
     <mergeCell ref="E40:G40"/>
@@ -23842,57 +23893,6 @@
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23912,8 +23912,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -23942,49 +23942,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="402"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
-      <c r="L1" s="402"/>
-      <c r="M1" s="402"/>
-      <c r="N1" s="402"/>
-      <c r="O1" s="402"/>
-      <c r="P1" s="402"/>
-      <c r="Q1" s="402"/>
-      <c r="R1" s="402"/>
-      <c r="S1" s="402"/>
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="400"/>
+      <c r="S1" s="400"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="403" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="405" t="s">
+      <c r="A2" s="401" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="403" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="406"/>
-      <c r="R2" s="407"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="405"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23995,14 +23995,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="406" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -24026,12 +24026,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="408"/>
+      <c r="H4" s="406"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="410"/>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
+      <c r="J4" s="408"/>
+      <c r="K4" s="408"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="408"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -24107,29 +24107,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="411" t="s">
+      <c r="C7" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="414"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="411" t="s">
+      <c r="D7" s="412"/>
+      <c r="E7" s="410"/>
+      <c r="F7" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="412"/>
+      <c r="G7" s="410"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="411" t="s">
+      <c r="I7" s="409" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="412"/>
+      <c r="J7" s="410"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="411" t="s">
+      <c r="L7" s="409" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="413"/>
+      <c r="M7" s="411"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -24149,10 +24149,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="415" t="s">
+      <c r="D8" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="416"/>
+      <c r="E8" s="414"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -24162,15 +24162,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="431"/>
-      <c r="J8" s="432"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="388"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="421" t="s">
+      <c r="L8" s="372" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="423" t="s">
+      <c r="M8" s="374" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -24193,27 +24193,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="417">
+      <c r="C9" s="389">
         <v>40100</v>
       </c>
-      <c r="D9" s="419"/>
-      <c r="E9" s="418"/>
-      <c r="F9" s="417">
+      <c r="D9" s="415"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="389">
         <v>40200</v>
       </c>
-      <c r="G9" s="418"/>
+      <c r="G9" s="390"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="417">
+      <c r="I9" s="389">
         <v>40900</v>
       </c>
-      <c r="J9" s="418"/>
+      <c r="J9" s="390"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="422"/>
-      <c r="M9" s="424"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="375"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -24233,13 +24233,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="375"/>
-      <c r="E10" s="376"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="428"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="377"/>
-      <c r="J10" s="378"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="430"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -24262,13 +24262,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="374"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="426"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
+      <c r="I11" s="431"/>
+      <c r="J11" s="432"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -24300,13 +24300,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="372"/>
+      <c r="D12" s="423"/>
+      <c r="E12" s="424"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="371"/>
-      <c r="J12" s="372"/>
+      <c r="I12" s="423"/>
+      <c r="J12" s="424"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -24335,11 +24335,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="425">
+      <c r="D13" s="381">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="426">
+      <c r="E13" s="382">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -24355,11 +24355,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="425">
+      <c r="I13" s="381">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="426">
+      <c r="J13" s="382">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -24392,13 +24392,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="427"/>
-      <c r="E14" s="428"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="384"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="427"/>
-      <c r="J14" s="428"/>
+      <c r="I14" s="383"/>
+      <c r="J14" s="384"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -24428,11 +24428,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="429">
+      <c r="D15" s="385">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="430"/>
+      <c r="E15" s="386"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -24445,11 +24445,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="429">
+      <c r="I15" s="385">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="430"/>
+      <c r="J15" s="386"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -24516,22 +24516,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="387">
+      <c r="C17" s="379">
         <v>40200</v>
       </c>
-      <c r="D17" s="388"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="387">
+      <c r="D17" s="419"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="379">
         <v>40300</v>
       </c>
-      <c r="G17" s="389"/>
+      <c r="G17" s="380"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="387">
+      <c r="I17" s="379">
         <v>40600</v>
       </c>
-      <c r="J17" s="389"/>
+      <c r="J17" s="380"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -24616,23 +24616,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="381" t="s">
+      <c r="A20" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="382"/>
-      <c r="C20" s="383"/>
+      <c r="B20" s="377"/>
+      <c r="C20" s="378"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="381" t="s">
+      <c r="E20" s="376" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="382"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="383"/>
-      <c r="J20" s="381" t="s">
+      <c r="F20" s="377"/>
+      <c r="G20" s="377"/>
+      <c r="H20" s="378"/>
+      <c r="J20" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="382"/>
-      <c r="L20" s="383"/>
+      <c r="K20" s="377"/>
+      <c r="L20" s="378"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -24654,9 +24654,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="386"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="399"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -24687,9 +24687,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="385"/>
-      <c r="G22" s="386"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="399"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -24720,9 +24720,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="386"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="399"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -24761,9 +24761,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="390"/>
-      <c r="F24" s="391"/>
-      <c r="G24" s="392"/>
+      <c r="E24" s="394"/>
+      <c r="F24" s="395"/>
+      <c r="G24" s="396"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -24794,9 +24794,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="390"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="392"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="396"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -24909,12 +24909,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="381" t="s">
+      <c r="E28" s="376" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="382"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="378"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -24947,9 +24947,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="384"/>
-      <c r="F29" s="385"/>
-      <c r="G29" s="386"/>
+      <c r="E29" s="397"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="399"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -24970,9 +24970,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="385"/>
-      <c r="G30" s="386"/>
+      <c r="E30" s="397"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="399"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -24997,15 +24997,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="393" t="s">
+      <c r="A31" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="395"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="390"/>
-      <c r="F31" s="391"/>
-      <c r="G31" s="392"/>
+      <c r="E31" s="394"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="396"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -25040,9 +25040,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="391"/>
-      <c r="G32" s="392"/>
+      <c r="E32" s="394"/>
+      <c r="F32" s="395"/>
+      <c r="G32" s="396"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -25065,9 +25065,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="391"/>
-      <c r="G33" s="392"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="395"/>
+      <c r="G33" s="396"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -25076,14 +25076,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="397" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="397"/>
-      <c r="P33" s="397"/>
-      <c r="Q33" s="397"/>
-      <c r="R33" s="397"/>
-      <c r="S33" s="397"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -25111,11 +25111,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="396"/>
-      <c r="O34" s="396"/>
-      <c r="P34" s="396"/>
-      <c r="Q34" s="396"/>
-      <c r="R34" s="396"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -25142,11 +25142,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="396"/>
-      <c r="O35" s="396"/>
-      <c r="P35" s="396"/>
-      <c r="Q35" s="396"/>
-      <c r="R35" s="396"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -25154,12 +25154,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="381" t="s">
+      <c r="E36" s="376" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="382"/>
-      <c r="G36" s="382"/>
-      <c r="H36" s="383"/>
+      <c r="F36" s="377"/>
+      <c r="G36" s="377"/>
+      <c r="H36" s="378"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -25173,20 +25173,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="396"/>
-      <c r="O36" s="396"/>
-      <c r="P36" s="396"/>
-      <c r="Q36" s="396"/>
-      <c r="R36" s="396"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="399"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="401"/>
+      <c r="E37" s="391"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="393"/>
       <c r="H37" s="253"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -25201,23 +25201,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="396"/>
-      <c r="O37" s="396"/>
-      <c r="P37" s="396"/>
-      <c r="Q37" s="396"/>
-      <c r="R37" s="396"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="398" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="398"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="399"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="401"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -25229,11 +25229,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="396"/>
-      <c r="O38" s="396"/>
-      <c r="P38" s="396"/>
-      <c r="Q38" s="396"/>
-      <c r="R38" s="396"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25246,9 +25246,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="399"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="401"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -25281,9 +25281,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="399"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="401"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -25314,9 +25314,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="399"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="401"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -25331,14 +25331,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="397" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="397"/>
-      <c r="P41" s="397"/>
-      <c r="Q41" s="397"/>
-      <c r="R41" s="397"/>
-      <c r="S41" s="397"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -25364,11 +25364,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="396"/>
-      <c r="O42" s="396"/>
-      <c r="P42" s="396"/>
-      <c r="Q42" s="396"/>
-      <c r="R42" s="396"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -25391,11 +25391,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="396"/>
-      <c r="O43" s="396"/>
-      <c r="P43" s="396"/>
-      <c r="Q43" s="396"/>
-      <c r="R43" s="396"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -25419,11 +25419,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="396"/>
-      <c r="O44" s="396"/>
-      <c r="P44" s="396"/>
-      <c r="Q44" s="396"/>
-      <c r="R44" s="396"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -25450,11 +25450,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="396"/>
-      <c r="O45" s="396"/>
-      <c r="P45" s="396"/>
-      <c r="Q45" s="396"/>
-      <c r="R45" s="396"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -25474,11 +25474,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="396"/>
-      <c r="O46" s="396"/>
-      <c r="P46" s="396"/>
-      <c r="Q46" s="396"/>
-      <c r="R46" s="396"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -25588,20 +25588,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="420">
+      <c r="E51" s="371">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="420"/>
-      <c r="G51" s="420"/>
-      <c r="H51" s="420"/>
-      <c r="J51" s="420">
+      <c r="F51" s="371"/>
+      <c r="G51" s="371"/>
+      <c r="H51" s="371"/>
+      <c r="J51" s="371">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="420"/>
-      <c r="L51" s="420"/>
-      <c r="M51" s="420"/>
+      <c r="K51" s="371"/>
+      <c r="L51" s="371"/>
+      <c r="M51" s="371"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -27108,57 +27108,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -27175,6 +27124,57 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" verticalDpi="598" r:id="rId1"/>
@@ -27193,8 +27193,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L24" sqref="K24:L24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>

--- a/scripts/Report_Templates/QP_Bistro_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/QP_Bistro_Sales_Report_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2279C7-853C-4FF7-B210-AEE64AE79766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F9B26A-8D69-47F9-B9CD-80332CD6F664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="732" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="732" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MON" sheetId="1" r:id="rId1"/>
@@ -2664,20 +2664,41 @@
     <xf numFmtId="165" fontId="38" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="38" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2688,40 +2709,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2731,24 +2761,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2798,65 +2810,53 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4267,49 +4267,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
-      <c r="J1" s="400"/>
-      <c r="K1" s="400"/>
-      <c r="L1" s="400"/>
-      <c r="M1" s="400"/>
-      <c r="N1" s="400"/>
-      <c r="O1" s="400"/>
-      <c r="P1" s="400"/>
-      <c r="Q1" s="400"/>
-      <c r="R1" s="400"/>
-      <c r="S1" s="400"/>
+      <c r="A1" s="402"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
+      <c r="R1" s="402"/>
+      <c r="S1" s="402"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="401" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="402"/>
-      <c r="P2" s="403" t="s">
+      <c r="A2" s="403" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="405" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="404"/>
-      <c r="R2" s="405"/>
+      <c r="Q2" s="406"/>
+      <c r="R2" s="407"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4320,14 +4320,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="408" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="407"/>
-      <c r="M3" s="407"/>
+      <c r="J3" s="409"/>
+      <c r="K3" s="409"/>
+      <c r="L3" s="409"/>
+      <c r="M3" s="409"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -4351,12 +4351,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="406"/>
+      <c r="H4" s="408"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
-      <c r="L4" s="408"/>
-      <c r="M4" s="408"/>
+      <c r="J4" s="410"/>
+      <c r="K4" s="410"/>
+      <c r="L4" s="410"/>
+      <c r="M4" s="410"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -4432,29 +4432,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="409" t="s">
+      <c r="C7" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="409" t="s">
+      <c r="D7" s="414"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="410"/>
+      <c r="G7" s="412"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="409" t="s">
+      <c r="I7" s="411" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="410"/>
+      <c r="J7" s="412"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="409" t="s">
+      <c r="L7" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="411"/>
+      <c r="M7" s="413"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -4474,10 +4474,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="413" t="s">
+      <c r="D8" s="415" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="414"/>
+      <c r="E8" s="416"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -4487,15 +4487,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="387"/>
-      <c r="J8" s="388"/>
+      <c r="I8" s="431"/>
+      <c r="J8" s="432"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="372" t="s">
+      <c r="L8" s="421" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="374" t="s">
+      <c r="M8" s="423" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -4518,27 +4518,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="389">
+      <c r="C9" s="417">
         <v>40100</v>
       </c>
-      <c r="D9" s="415"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="389">
+      <c r="D9" s="419"/>
+      <c r="E9" s="418"/>
+      <c r="F9" s="417">
         <v>40200</v>
       </c>
-      <c r="G9" s="390"/>
+      <c r="G9" s="418"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="389">
+      <c r="I9" s="417">
         <v>40900</v>
       </c>
-      <c r="J9" s="390"/>
+      <c r="J9" s="418"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="373"/>
-      <c r="M9" s="375"/>
+      <c r="L9" s="422"/>
+      <c r="M9" s="424"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -4558,13 +4558,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="427"/>
-      <c r="E10" s="428"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="376"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="430"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="378"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -4587,13 +4587,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="425"/>
-      <c r="E11" s="426"/>
+      <c r="D11" s="373"/>
+      <c r="E11" s="374"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="431"/>
-      <c r="J11" s="432"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="380"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -4625,13 +4625,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="423"/>
-      <c r="E12" s="424"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="372"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="423"/>
-      <c r="J12" s="424"/>
+      <c r="I12" s="371"/>
+      <c r="J12" s="372"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -4660,11 +4660,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="381">
+      <c r="D13" s="425">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="382">
+      <c r="E13" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4680,11 +4680,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="381">
+      <c r="I13" s="425">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="382">
+      <c r="J13" s="426">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4717,13 +4717,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
+      <c r="D14" s="427"/>
+      <c r="E14" s="428"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="383"/>
-      <c r="J14" s="384"/>
+      <c r="I14" s="427"/>
+      <c r="J14" s="428"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4753,11 +4753,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="385">
+      <c r="D15" s="429">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="386"/>
+      <c r="E15" s="430"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4770,11 +4770,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="385">
+      <c r="I15" s="429">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="386"/>
+      <c r="J15" s="430"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4842,22 +4842,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="379">
+      <c r="C17" s="387">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="379">
+      <c r="D17" s="388"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="387">
         <v>40300</v>
       </c>
-      <c r="G17" s="380"/>
+      <c r="G17" s="389"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="379">
+      <c r="I17" s="387">
         <v>40600</v>
       </c>
-      <c r="J17" s="380"/>
+      <c r="J17" s="389"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4942,23 +4942,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="376" t="s">
+      <c r="A20" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="377"/>
-      <c r="C20" s="378"/>
+      <c r="B20" s="382"/>
+      <c r="C20" s="383"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="376" t="s">
+      <c r="E20" s="381" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="377"/>
-      <c r="G20" s="377"/>
-      <c r="H20" s="378"/>
-      <c r="J20" s="376" t="s">
+      <c r="F20" s="382"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="383"/>
+      <c r="J20" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="377"/>
-      <c r="L20" s="378"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="383"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4978,9 +4978,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="399"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="386"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -5011,9 +5011,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="397"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="399"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="386"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -5044,9 +5044,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="399"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="386"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -5085,9 +5085,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="397"/>
-      <c r="F24" s="398"/>
-      <c r="G24" s="399"/>
+      <c r="E24" s="384"/>
+      <c r="F24" s="385"/>
+      <c r="G24" s="386"/>
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -5118,9 +5118,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="396"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="392"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -5230,12 +5230,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="376" t="s">
+      <c r="E28" s="381" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="378"/>
+      <c r="F28" s="382"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="383"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -5268,9 +5268,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="399"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="386"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -5291,9 +5291,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="399"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="386"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -5318,15 +5318,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="394"/>
+      <c r="C31" s="395"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="395"/>
-      <c r="G31" s="396"/>
+      <c r="E31" s="390"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="392"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -5361,9 +5361,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="395"/>
-      <c r="G32" s="396"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="392"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -5386,9 +5386,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="395"/>
-      <c r="G33" s="396"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="391"/>
+      <c r="G33" s="392"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -5397,14 +5397,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="397" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="397"/>
+      <c r="P33" s="397"/>
+      <c r="Q33" s="397"/>
+      <c r="R33" s="397"/>
+      <c r="S33" s="397"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -5432,11 +5432,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="394"/>
-      <c r="O34" s="395"/>
-      <c r="P34" s="395"/>
-      <c r="Q34" s="395"/>
-      <c r="R34" s="396"/>
+      <c r="N34" s="390"/>
+      <c r="O34" s="391"/>
+      <c r="P34" s="391"/>
+      <c r="Q34" s="391"/>
+      <c r="R34" s="392"/>
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -5463,11 +5463,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="396"/>
+      <c r="O35" s="396"/>
+      <c r="P35" s="396"/>
+      <c r="Q35" s="396"/>
+      <c r="R35" s="396"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -5475,12 +5475,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="376" t="s">
+      <c r="E36" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="377"/>
-      <c r="G36" s="377"/>
-      <c r="H36" s="378"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="383"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -5494,20 +5494,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="396"/>
+      <c r="O36" s="396"/>
+      <c r="P36" s="396"/>
+      <c r="Q36" s="396"/>
+      <c r="R36" s="396"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="400"/>
+      <c r="G37" s="401"/>
       <c r="H37" s="74"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -5522,23 +5522,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="396"/>
+      <c r="O37" s="396"/>
+      <c r="P37" s="396"/>
+      <c r="Q37" s="396"/>
+      <c r="R37" s="396"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="398"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="397"/>
-      <c r="F38" s="398"/>
-      <c r="G38" s="399"/>
+      <c r="E38" s="384"/>
+      <c r="F38" s="385"/>
+      <c r="G38" s="386"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -5550,11 +5550,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="396"/>
+      <c r="O38" s="396"/>
+      <c r="P38" s="396"/>
+      <c r="Q38" s="396"/>
+      <c r="R38" s="396"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5567,9 +5567,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="399"/>
+      <c r="F39" s="400"/>
+      <c r="G39" s="401"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -5602,9 +5602,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="399"/>
+      <c r="F40" s="400"/>
+      <c r="G40" s="401"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -5635,9 +5635,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="399"/>
+      <c r="F41" s="400"/>
+      <c r="G41" s="401"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5652,14 +5652,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="397"/>
+      <c r="P41" s="397"/>
+      <c r="Q41" s="397"/>
+      <c r="R41" s="397"/>
+      <c r="S41" s="397"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -5685,11 +5685,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="396"/>
+      <c r="O42" s="396"/>
+      <c r="P42" s="396"/>
+      <c r="Q42" s="396"/>
+      <c r="R42" s="396"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -5712,11 +5712,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="396"/>
+      <c r="O43" s="396"/>
+      <c r="P43" s="396"/>
+      <c r="Q43" s="396"/>
+      <c r="R43" s="396"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -5740,11 +5740,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="396"/>
+      <c r="O44" s="396"/>
+      <c r="P44" s="396"/>
+      <c r="Q44" s="396"/>
+      <c r="R44" s="396"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -5771,11 +5771,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="396"/>
+      <c r="O45" s="396"/>
+      <c r="P45" s="396"/>
+      <c r="Q45" s="396"/>
+      <c r="R45" s="396"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -5795,11 +5795,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="396"/>
+      <c r="O46" s="396"/>
+      <c r="P46" s="396"/>
+      <c r="Q46" s="396"/>
+      <c r="R46" s="396"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -5916,20 +5916,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="371">
+      <c r="E51" s="420">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="371"/>
-      <c r="G51" s="371"/>
-      <c r="H51" s="371"/>
-      <c r="J51" s="371">
+      <c r="F51" s="420"/>
+      <c r="G51" s="420"/>
+      <c r="H51" s="420"/>
+      <c r="J51" s="420">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="371"/>
-      <c r="L51" s="371"/>
-      <c r="M51" s="371"/>
+      <c r="K51" s="420"/>
+      <c r="L51" s="420"/>
+      <c r="M51" s="420"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7296,25 +7296,38 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="N46:R46"/>
     <mergeCell ref="N41:S41"/>
     <mergeCell ref="N42:R42"/>
@@ -7331,38 +7344,25 @@
     <mergeCell ref="N38:R38"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7415,49 +7415,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
-      <c r="J1" s="400"/>
-      <c r="K1" s="400"/>
-      <c r="L1" s="400"/>
-      <c r="M1" s="400"/>
-      <c r="N1" s="400"/>
-      <c r="O1" s="400"/>
-      <c r="P1" s="400"/>
-      <c r="Q1" s="400"/>
-      <c r="R1" s="400"/>
-      <c r="S1" s="400"/>
+      <c r="A1" s="402"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
+      <c r="R1" s="402"/>
+      <c r="S1" s="402"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="401" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="402"/>
-      <c r="P2" s="403" t="s">
+      <c r="A2" s="403" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="405" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="404"/>
-      <c r="R2" s="405"/>
+      <c r="Q2" s="406"/>
+      <c r="R2" s="407"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7468,14 +7468,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="408" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="407"/>
-      <c r="M3" s="407"/>
+      <c r="J3" s="409"/>
+      <c r="K3" s="409"/>
+      <c r="L3" s="409"/>
+      <c r="M3" s="409"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -7499,12 +7499,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="406"/>
+      <c r="H4" s="408"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
-      <c r="L4" s="408"/>
-      <c r="M4" s="408"/>
+      <c r="J4" s="410"/>
+      <c r="K4" s="410"/>
+      <c r="L4" s="410"/>
+      <c r="M4" s="410"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -7580,29 +7580,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="409" t="s">
+      <c r="C7" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="409" t="s">
+      <c r="D7" s="414"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="410"/>
+      <c r="G7" s="412"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="409" t="s">
+      <c r="I7" s="411" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="410"/>
+      <c r="J7" s="412"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="409" t="s">
+      <c r="L7" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="411"/>
+      <c r="M7" s="413"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -7622,10 +7622,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="413" t="s">
+      <c r="D8" s="415" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="414"/>
+      <c r="E8" s="416"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -7635,15 +7635,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="387"/>
-      <c r="J8" s="388"/>
+      <c r="I8" s="431"/>
+      <c r="J8" s="432"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="372" t="s">
+      <c r="L8" s="421" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="374" t="s">
+      <c r="M8" s="423" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -7666,27 +7666,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="389">
+      <c r="C9" s="417">
         <v>40100</v>
       </c>
-      <c r="D9" s="415"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="389">
+      <c r="D9" s="419"/>
+      <c r="E9" s="418"/>
+      <c r="F9" s="417">
         <v>40200</v>
       </c>
-      <c r="G9" s="390"/>
+      <c r="G9" s="418"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="389">
+      <c r="I9" s="417">
         <v>40900</v>
       </c>
-      <c r="J9" s="390"/>
+      <c r="J9" s="418"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="373"/>
-      <c r="M9" s="375"/>
+      <c r="L9" s="422"/>
+      <c r="M9" s="424"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -7706,13 +7706,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="427"/>
-      <c r="E10" s="428"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="376"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="430"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="378"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -7735,13 +7735,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="425"/>
-      <c r="E11" s="426"/>
+      <c r="D11" s="373"/>
+      <c r="E11" s="374"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="431"/>
-      <c r="J11" s="432"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="380"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -7773,13 +7773,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="423"/>
-      <c r="E12" s="424"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="372"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="423"/>
-      <c r="J12" s="424"/>
+      <c r="I12" s="371"/>
+      <c r="J12" s="372"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -7808,11 +7808,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="381">
+      <c r="D13" s="425">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="382">
+      <c r="E13" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7828,11 +7828,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="381">
+      <c r="I13" s="425">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="382">
+      <c r="J13" s="426">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -7865,13 +7865,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
+      <c r="D14" s="427"/>
+      <c r="E14" s="428"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="383"/>
-      <c r="J14" s="384"/>
+      <c r="I14" s="427"/>
+      <c r="J14" s="428"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -7901,11 +7901,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="385">
+      <c r="D15" s="429">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="386"/>
+      <c r="E15" s="430"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -7918,11 +7918,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="385">
+      <c r="I15" s="429">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="386"/>
+      <c r="J15" s="430"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7990,22 +7990,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="379">
+      <c r="C17" s="387">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="379">
+      <c r="D17" s="388"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="387">
         <v>40300</v>
       </c>
-      <c r="G17" s="380"/>
+      <c r="G17" s="389"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="379">
+      <c r="I17" s="387">
         <v>40600</v>
       </c>
-      <c r="J17" s="380"/>
+      <c r="J17" s="389"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -8090,23 +8090,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="376" t="s">
+      <c r="A20" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="377"/>
-      <c r="C20" s="378"/>
+      <c r="B20" s="382"/>
+      <c r="C20" s="383"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="376" t="s">
+      <c r="E20" s="381" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="377"/>
-      <c r="G20" s="377"/>
-      <c r="H20" s="378"/>
-      <c r="J20" s="376" t="s">
+      <c r="F20" s="382"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="383"/>
+      <c r="J20" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="377"/>
-      <c r="L20" s="378"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="383"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -8123,9 +8123,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="399"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="386"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -8156,9 +8156,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="397"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="399"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="386"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -8189,9 +8189,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="399"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="386"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -8230,9 +8230,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="394"/>
-      <c r="F24" s="395"/>
-      <c r="G24" s="396"/>
+      <c r="E24" s="390"/>
+      <c r="F24" s="391"/>
+      <c r="G24" s="392"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -8263,9 +8263,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="396"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="392"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -8378,12 +8378,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="376" t="s">
+      <c r="E28" s="381" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="378"/>
+      <c r="F28" s="382"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="383"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -8416,9 +8416,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="399"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="386"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -8439,9 +8439,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="399"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="386"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -8466,15 +8466,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="394"/>
+      <c r="C31" s="395"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="395"/>
-      <c r="G31" s="396"/>
+      <c r="E31" s="390"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="392"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -8509,9 +8509,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="395"/>
-      <c r="G32" s="396"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="392"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -8534,9 +8534,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="395"/>
-      <c r="G33" s="396"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="391"/>
+      <c r="G33" s="392"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -8545,14 +8545,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="397" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="397"/>
+      <c r="P33" s="397"/>
+      <c r="Q33" s="397"/>
+      <c r="R33" s="397"/>
+      <c r="S33" s="397"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -8623,12 +8623,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="376" t="s">
+      <c r="E36" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="377"/>
-      <c r="G36" s="377"/>
-      <c r="H36" s="378"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="383"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -8642,20 +8642,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="396"/>
+      <c r="O36" s="396"/>
+      <c r="P36" s="396"/>
+      <c r="Q36" s="396"/>
+      <c r="R36" s="396"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="400"/>
+      <c r="G37" s="401"/>
       <c r="H37" s="74"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -8670,23 +8670,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="396"/>
+      <c r="O37" s="396"/>
+      <c r="P37" s="396"/>
+      <c r="Q37" s="396"/>
+      <c r="R37" s="396"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="398"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="400"/>
+      <c r="G38" s="401"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -8698,11 +8698,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="396"/>
+      <c r="O38" s="396"/>
+      <c r="P38" s="396"/>
+      <c r="Q38" s="396"/>
+      <c r="R38" s="396"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8715,9 +8715,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="399"/>
+      <c r="F39" s="400"/>
+      <c r="G39" s="401"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -8750,9 +8750,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="399"/>
+      <c r="F40" s="400"/>
+      <c r="G40" s="401"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -8783,9 +8783,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="399"/>
+      <c r="F41" s="400"/>
+      <c r="G41" s="401"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -8800,14 +8800,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="397"/>
+      <c r="P41" s="397"/>
+      <c r="Q41" s="397"/>
+      <c r="R41" s="397"/>
+      <c r="S41" s="397"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -8833,11 +8833,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="396"/>
+      <c r="O42" s="396"/>
+      <c r="P42" s="396"/>
+      <c r="Q42" s="396"/>
+      <c r="R42" s="396"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -8860,11 +8860,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="396"/>
+      <c r="O43" s="396"/>
+      <c r="P43" s="396"/>
+      <c r="Q43" s="396"/>
+      <c r="R43" s="396"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -8888,11 +8888,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="396"/>
+      <c r="O44" s="396"/>
+      <c r="P44" s="396"/>
+      <c r="Q44" s="396"/>
+      <c r="R44" s="396"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -8919,11 +8919,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="396"/>
+      <c r="O45" s="396"/>
+      <c r="P45" s="396"/>
+      <c r="Q45" s="396"/>
+      <c r="R45" s="396"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -8943,11 +8943,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="396"/>
+      <c r="O46" s="396"/>
+      <c r="P46" s="396"/>
+      <c r="Q46" s="396"/>
+      <c r="R46" s="396"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -9062,20 +9062,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="371">
+      <c r="E51" s="420">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="371"/>
-      <c r="G51" s="371"/>
-      <c r="H51" s="371"/>
-      <c r="J51" s="371">
+      <c r="F51" s="420"/>
+      <c r="G51" s="420"/>
+      <c r="H51" s="420"/>
+      <c r="J51" s="420">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="371"/>
-      <c r="L51" s="371"/>
-      <c r="M51" s="371"/>
+      <c r="K51" s="420"/>
+      <c r="L51" s="420"/>
+      <c r="M51" s="420"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -10580,6 +10580,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -10596,57 +10647,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10697,49 +10697,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
-      <c r="J1" s="400"/>
-      <c r="K1" s="400"/>
-      <c r="L1" s="400"/>
-      <c r="M1" s="400"/>
-      <c r="N1" s="400"/>
-      <c r="O1" s="400"/>
-      <c r="P1" s="400"/>
-      <c r="Q1" s="400"/>
-      <c r="R1" s="400"/>
-      <c r="S1" s="400"/>
+      <c r="A1" s="402"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
+      <c r="R1" s="402"/>
+      <c r="S1" s="402"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="401" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="402"/>
-      <c r="P2" s="403" t="s">
+      <c r="A2" s="403" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="405" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="404"/>
-      <c r="R2" s="405"/>
+      <c r="Q2" s="406"/>
+      <c r="R2" s="407"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10750,14 +10750,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="408" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="407"/>
-      <c r="M3" s="407"/>
+      <c r="J3" s="409"/>
+      <c r="K3" s="409"/>
+      <c r="L3" s="409"/>
+      <c r="M3" s="409"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -10781,12 +10781,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="406"/>
+      <c r="H4" s="408"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
-      <c r="L4" s="408"/>
-      <c r="M4" s="408"/>
+      <c r="J4" s="410"/>
+      <c r="K4" s="410"/>
+      <c r="L4" s="410"/>
+      <c r="M4" s="410"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -10862,29 +10862,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="409" t="s">
+      <c r="C7" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="409" t="s">
+      <c r="D7" s="414"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="410"/>
+      <c r="G7" s="412"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="409" t="s">
+      <c r="I7" s="411" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="410"/>
+      <c r="J7" s="412"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="409" t="s">
+      <c r="L7" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="411"/>
+      <c r="M7" s="413"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -10904,10 +10904,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="413" t="s">
+      <c r="D8" s="415" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="414"/>
+      <c r="E8" s="416"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -10917,15 +10917,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="387"/>
-      <c r="J8" s="388"/>
+      <c r="I8" s="431"/>
+      <c r="J8" s="432"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="372" t="s">
+      <c r="L8" s="421" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="374" t="s">
+      <c r="M8" s="423" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -10948,27 +10948,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="389">
+      <c r="C9" s="417">
         <v>40100</v>
       </c>
-      <c r="D9" s="415"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="389">
+      <c r="D9" s="419"/>
+      <c r="E9" s="418"/>
+      <c r="F9" s="417">
         <v>40200</v>
       </c>
-      <c r="G9" s="390"/>
+      <c r="G9" s="418"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="389">
+      <c r="I9" s="417">
         <v>40900</v>
       </c>
-      <c r="J9" s="390"/>
+      <c r="J9" s="418"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="373"/>
-      <c r="M9" s="375"/>
+      <c r="L9" s="422"/>
+      <c r="M9" s="424"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -10988,13 +10988,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="427"/>
-      <c r="E10" s="428"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="376"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="430"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="378"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -11017,13 +11017,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="425"/>
-      <c r="E11" s="426"/>
+      <c r="D11" s="373"/>
+      <c r="E11" s="374"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="431"/>
-      <c r="J11" s="432"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="380"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -11055,13 +11055,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="423"/>
-      <c r="E12" s="424"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="372"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="423"/>
-      <c r="J12" s="424"/>
+      <c r="I12" s="371"/>
+      <c r="J12" s="372"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -11090,11 +11090,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="381">
+      <c r="D13" s="425">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="382">
+      <c r="E13" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11110,11 +11110,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="381">
+      <c r="I13" s="425">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="382">
+      <c r="J13" s="426">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -11147,13 +11147,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
+      <c r="D14" s="427"/>
+      <c r="E14" s="428"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="383"/>
-      <c r="J14" s="384"/>
+      <c r="I14" s="427"/>
+      <c r="J14" s="428"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -11183,11 +11183,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="385">
+      <c r="D15" s="429">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="386"/>
+      <c r="E15" s="430"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -11200,11 +11200,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="385">
+      <c r="I15" s="429">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="386"/>
+      <c r="J15" s="430"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -11272,22 +11272,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="379">
+      <c r="C17" s="387">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="379">
+      <c r="D17" s="388"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="387">
         <v>40300</v>
       </c>
-      <c r="G17" s="380"/>
+      <c r="G17" s="389"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="379">
+      <c r="I17" s="387">
         <v>40600</v>
       </c>
-      <c r="J17" s="380"/>
+      <c r="J17" s="389"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -11372,23 +11372,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="376" t="s">
+      <c r="A20" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="377"/>
-      <c r="C20" s="378"/>
+      <c r="B20" s="382"/>
+      <c r="C20" s="383"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="376" t="s">
+      <c r="E20" s="381" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="377"/>
-      <c r="G20" s="377"/>
-      <c r="H20" s="378"/>
-      <c r="J20" s="376" t="s">
+      <c r="F20" s="382"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="383"/>
+      <c r="J20" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="377"/>
-      <c r="L20" s="378"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="383"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -11408,9 +11408,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="399"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="386"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -11441,9 +11441,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="397"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="399"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="386"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -11474,9 +11474,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="399"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="386"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -11515,9 +11515,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="394"/>
-      <c r="F24" s="395"/>
-      <c r="G24" s="396"/>
+      <c r="E24" s="390"/>
+      <c r="F24" s="391"/>
+      <c r="G24" s="392"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -11548,9 +11548,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="396"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="392"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -11663,12 +11663,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="376" t="s">
+      <c r="E28" s="381" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="378"/>
+      <c r="F28" s="382"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="383"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -11701,9 +11701,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="399"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="386"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -11724,9 +11724,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="399"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="386"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -11751,15 +11751,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="394"/>
+      <c r="C31" s="395"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="395"/>
-      <c r="G31" s="396"/>
+      <c r="E31" s="390"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="392"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -11794,9 +11794,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="395"/>
-      <c r="G32" s="396"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="392"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -11819,9 +11819,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="395"/>
-      <c r="G33" s="396"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="391"/>
+      <c r="G33" s="392"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -11830,14 +11830,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="397" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="397"/>
+      <c r="P33" s="397"/>
+      <c r="Q33" s="397"/>
+      <c r="R33" s="397"/>
+      <c r="S33" s="397"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -11865,11 +11865,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="396"/>
+      <c r="O34" s="396"/>
+      <c r="P34" s="396"/>
+      <c r="Q34" s="396"/>
+      <c r="R34" s="396"/>
       <c r="S34" s="55"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -11896,11 +11896,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="396"/>
+      <c r="O35" s="396"/>
+      <c r="P35" s="396"/>
+      <c r="Q35" s="396"/>
+      <c r="R35" s="396"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -11908,12 +11908,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="376" t="s">
+      <c r="E36" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="377"/>
-      <c r="G36" s="377"/>
-      <c r="H36" s="378"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="383"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -11927,20 +11927,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="396"/>
+      <c r="O36" s="396"/>
+      <c r="P36" s="396"/>
+      <c r="Q36" s="396"/>
+      <c r="R36" s="396"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="400"/>
+      <c r="G37" s="401"/>
       <c r="H37" s="74"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -11955,23 +11955,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="396"/>
+      <c r="O37" s="396"/>
+      <c r="P37" s="396"/>
+      <c r="Q37" s="396"/>
+      <c r="R37" s="396"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="398"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="400"/>
+      <c r="G38" s="401"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -11983,11 +11983,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="396"/>
+      <c r="O38" s="396"/>
+      <c r="P38" s="396"/>
+      <c r="Q38" s="396"/>
+      <c r="R38" s="396"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12000,9 +12000,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="399"/>
+      <c r="F39" s="400"/>
+      <c r="G39" s="401"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -12035,9 +12035,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="399"/>
+      <c r="F40" s="400"/>
+      <c r="G40" s="401"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -12068,9 +12068,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="399"/>
+      <c r="F41" s="400"/>
+      <c r="G41" s="401"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -12085,14 +12085,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="397"/>
+      <c r="P41" s="397"/>
+      <c r="Q41" s="397"/>
+      <c r="R41" s="397"/>
+      <c r="S41" s="397"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -12118,11 +12118,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="396"/>
+      <c r="O42" s="396"/>
+      <c r="P42" s="396"/>
+      <c r="Q42" s="396"/>
+      <c r="R42" s="396"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -12145,11 +12145,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="396"/>
+      <c r="O43" s="396"/>
+      <c r="P43" s="396"/>
+      <c r="Q43" s="396"/>
+      <c r="R43" s="396"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -12173,11 +12173,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="396"/>
+      <c r="O44" s="396"/>
+      <c r="P44" s="396"/>
+      <c r="Q44" s="396"/>
+      <c r="R44" s="396"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -12204,11 +12204,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="396"/>
+      <c r="O45" s="396"/>
+      <c r="P45" s="396"/>
+      <c r="Q45" s="396"/>
+      <c r="R45" s="396"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -12228,11 +12228,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="396"/>
+      <c r="O46" s="396"/>
+      <c r="P46" s="396"/>
+      <c r="Q46" s="396"/>
+      <c r="R46" s="396"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -12346,20 +12346,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="371">
+      <c r="E51" s="420">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="371"/>
-      <c r="G51" s="371"/>
-      <c r="H51" s="371"/>
-      <c r="J51" s="371">
+      <c r="F51" s="420"/>
+      <c r="G51" s="420"/>
+      <c r="H51" s="420"/>
+      <c r="J51" s="420">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="371"/>
-      <c r="L51" s="371"/>
-      <c r="M51" s="371"/>
+      <c r="K51" s="420"/>
+      <c r="L51" s="420"/>
+      <c r="M51" s="420"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -13849,60 +13849,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -13916,6 +13862,60 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13965,49 +13965,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
-      <c r="J1" s="400"/>
-      <c r="K1" s="400"/>
-      <c r="L1" s="400"/>
-      <c r="M1" s="400"/>
-      <c r="N1" s="400"/>
-      <c r="O1" s="400"/>
-      <c r="P1" s="400"/>
-      <c r="Q1" s="400"/>
-      <c r="R1" s="400"/>
-      <c r="S1" s="400"/>
+      <c r="A1" s="402"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
+      <c r="R1" s="402"/>
+      <c r="S1" s="402"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="401" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="402"/>
-      <c r="P2" s="403" t="s">
+      <c r="A2" s="403" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="405" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="404"/>
-      <c r="R2" s="405"/>
+      <c r="Q2" s="406"/>
+      <c r="R2" s="407"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14018,14 +14018,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="408" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="407"/>
-      <c r="M3" s="407"/>
+      <c r="J3" s="409"/>
+      <c r="K3" s="409"/>
+      <c r="L3" s="409"/>
+      <c r="M3" s="409"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -14049,12 +14049,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="406"/>
+      <c r="H4" s="408"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
-      <c r="L4" s="408"/>
-      <c r="M4" s="408"/>
+      <c r="J4" s="410"/>
+      <c r="K4" s="410"/>
+      <c r="L4" s="410"/>
+      <c r="M4" s="410"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -14130,29 +14130,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="409" t="s">
+      <c r="C7" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="409" t="s">
+      <c r="D7" s="414"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="410"/>
+      <c r="G7" s="412"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="409" t="s">
+      <c r="I7" s="411" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="410"/>
+      <c r="J7" s="412"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="409" t="s">
+      <c r="L7" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="411"/>
+      <c r="M7" s="413"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -14172,10 +14172,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="413" t="s">
+      <c r="D8" s="415" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="414"/>
+      <c r="E8" s="416"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -14185,15 +14185,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="387"/>
-      <c r="J8" s="388"/>
+      <c r="I8" s="431"/>
+      <c r="J8" s="432"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="372" t="s">
+      <c r="L8" s="421" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="374" t="s">
+      <c r="M8" s="423" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -14216,27 +14216,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="389">
+      <c r="C9" s="417">
         <v>40100</v>
       </c>
-      <c r="D9" s="415"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="389">
+      <c r="D9" s="419"/>
+      <c r="E9" s="418"/>
+      <c r="F9" s="417">
         <v>40200</v>
       </c>
-      <c r="G9" s="390"/>
+      <c r="G9" s="418"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="389">
+      <c r="I9" s="417">
         <v>40900</v>
       </c>
-      <c r="J9" s="390"/>
+      <c r="J9" s="418"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="373"/>
-      <c r="M9" s="375"/>
+      <c r="L9" s="422"/>
+      <c r="M9" s="424"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -14256,13 +14256,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="427"/>
-      <c r="E10" s="428"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="376"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="430"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="378"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -14285,13 +14285,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="425"/>
-      <c r="E11" s="426"/>
+      <c r="D11" s="373"/>
+      <c r="E11" s="374"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="431"/>
-      <c r="J11" s="432"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="380"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -14323,13 +14323,13 @@
       </c>
       <c r="B12" s="313"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="425"/>
-      <c r="E12" s="426"/>
+      <c r="D12" s="373"/>
+      <c r="E12" s="374"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="423"/>
-      <c r="J12" s="424"/>
+      <c r="I12" s="371"/>
+      <c r="J12" s="372"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -14358,11 +14358,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="381">
+      <c r="D13" s="425">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="382">
+      <c r="E13" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14378,11 +14378,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="381">
+      <c r="I13" s="425">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="382">
+      <c r="J13" s="426">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -14415,13 +14415,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
+      <c r="D14" s="427"/>
+      <c r="E14" s="428"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="383"/>
-      <c r="J14" s="384"/>
+      <c r="I14" s="427"/>
+      <c r="J14" s="428"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -14451,11 +14451,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="385">
+      <c r="D15" s="429">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="386"/>
+      <c r="E15" s="430"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -14468,11 +14468,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="385">
+      <c r="I15" s="429">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="386"/>
+      <c r="J15" s="430"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -14540,22 +14540,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="379">
+      <c r="C17" s="387">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="379">
+      <c r="D17" s="388"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="387">
         <v>40300</v>
       </c>
-      <c r="G17" s="380"/>
+      <c r="G17" s="389"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="379">
+      <c r="I17" s="387">
         <v>40600</v>
       </c>
-      <c r="J17" s="380"/>
+      <c r="J17" s="389"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -14640,23 +14640,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="376" t="s">
+      <c r="A20" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="377"/>
-      <c r="C20" s="378"/>
+      <c r="B20" s="382"/>
+      <c r="C20" s="383"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="376" t="s">
+      <c r="E20" s="381" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="377"/>
-      <c r="G20" s="377"/>
-      <c r="H20" s="378"/>
-      <c r="J20" s="376" t="s">
+      <c r="F20" s="382"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="383"/>
+      <c r="J20" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="377"/>
-      <c r="L20" s="378"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="383"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -14676,9 +14676,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="399"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="386"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -14709,9 +14709,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="397"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="399"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="386"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -14742,9 +14742,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="399"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="386"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -14783,9 +14783,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="394"/>
-      <c r="F24" s="395"/>
-      <c r="G24" s="396"/>
+      <c r="E24" s="390"/>
+      <c r="F24" s="391"/>
+      <c r="G24" s="392"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -14816,9 +14816,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="396"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="392"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -14932,12 +14932,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="376" t="s">
+      <c r="E28" s="381" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="378"/>
+      <c r="F28" s="382"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="383"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -14970,9 +14970,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="399"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="386"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -14993,9 +14993,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="399"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="386"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -15020,15 +15020,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="394"/>
+      <c r="C31" s="395"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="395"/>
-      <c r="G31" s="396"/>
+      <c r="E31" s="390"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="392"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -15063,9 +15063,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="395"/>
-      <c r="G32" s="396"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="392"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -15088,9 +15088,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="395"/>
-      <c r="G33" s="396"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="391"/>
+      <c r="G33" s="392"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -15099,14 +15099,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="397" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="397"/>
+      <c r="P33" s="397"/>
+      <c r="Q33" s="397"/>
+      <c r="R33" s="397"/>
+      <c r="S33" s="397"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -15160,11 +15160,11 @@
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="396"/>
+      <c r="O35" s="396"/>
+      <c r="P35" s="396"/>
+      <c r="Q35" s="396"/>
+      <c r="R35" s="396"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -15172,12 +15172,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="49"/>
-      <c r="E36" s="376" t="s">
+      <c r="E36" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="377"/>
-      <c r="G36" s="377"/>
-      <c r="H36" s="378"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="383"/>
       <c r="I36" s="30"/>
       <c r="J36" s="51" t="s">
         <v>40</v>
@@ -15188,11 +15188,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="396"/>
+      <c r="O36" s="396"/>
+      <c r="P36" s="396"/>
+      <c r="Q36" s="396"/>
+      <c r="R36" s="396"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -15200,9 +15200,9 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="400"/>
+      <c r="G37" s="401"/>
       <c r="H37" s="253"/>
       <c r="I37" s="54"/>
       <c r="J37" s="43" t="s">
@@ -15217,22 +15217,22 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="396"/>
+      <c r="O37" s="396"/>
+      <c r="P37" s="396"/>
+      <c r="Q37" s="396"/>
+      <c r="R37" s="396"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="398"/>
       <c r="C38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="400"/>
+      <c r="G38" s="401"/>
       <c r="H38" s="74"/>
       <c r="I38" s="26"/>
       <c r="J38" s="43" t="s">
@@ -15247,11 +15247,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="25"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="396"/>
+      <c r="O38" s="396"/>
+      <c r="P38" s="396"/>
+      <c r="Q38" s="396"/>
+      <c r="R38" s="396"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -15264,9 +15264,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="399"/>
+      <c r="F39" s="400"/>
+      <c r="G39" s="401"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -15278,11 +15278,11 @@
         <v>0</v>
       </c>
       <c r="M39" s="56"/>
-      <c r="N39" s="416"/>
-      <c r="O39" s="416"/>
-      <c r="P39" s="416"/>
-      <c r="Q39" s="416"/>
-      <c r="R39" s="416"/>
+      <c r="N39" s="396"/>
+      <c r="O39" s="396"/>
+      <c r="P39" s="396"/>
+      <c r="Q39" s="396"/>
+      <c r="R39" s="396"/>
       <c r="S39" s="77"/>
     </row>
     <row r="40" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15295,9 +15295,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="399"/>
+      <c r="F40" s="400"/>
+      <c r="G40" s="401"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -15327,9 +15327,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="399"/>
+      <c r="F41" s="400"/>
+      <c r="G41" s="401"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -15378,14 +15378,14 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="417" t="s">
+      <c r="N42" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="O42" s="417"/>
-      <c r="P42" s="417"/>
-      <c r="Q42" s="417"/>
-      <c r="R42" s="417"/>
-      <c r="S42" s="417"/>
+      <c r="O42" s="397"/>
+      <c r="P42" s="397"/>
+      <c r="Q42" s="397"/>
+      <c r="R42" s="397"/>
+      <c r="S42" s="397"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
     </row>
@@ -15407,11 +15407,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="396"/>
+      <c r="O43" s="396"/>
+      <c r="P43" s="396"/>
+      <c r="Q43" s="396"/>
+      <c r="R43" s="396"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -15437,11 +15437,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="396"/>
+      <c r="O44" s="396"/>
+      <c r="P44" s="396"/>
+      <c r="Q44" s="396"/>
+      <c r="R44" s="396"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -15468,11 +15468,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="396"/>
+      <c r="O45" s="396"/>
+      <c r="P45" s="396"/>
+      <c r="Q45" s="396"/>
+      <c r="R45" s="396"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -15496,11 +15496,11 @@
         <v>0</v>
       </c>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="396"/>
+      <c r="O46" s="396"/>
+      <c r="P46" s="396"/>
+      <c r="Q46" s="396"/>
+      <c r="R46" s="396"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -15523,11 +15523,11 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="M47" s="25"/>
-      <c r="N47" s="416"/>
-      <c r="O47" s="416"/>
-      <c r="P47" s="416"/>
-      <c r="Q47" s="416"/>
-      <c r="R47" s="416"/>
+      <c r="N47" s="396"/>
+      <c r="O47" s="396"/>
+      <c r="P47" s="396"/>
+      <c r="Q47" s="396"/>
+      <c r="R47" s="396"/>
       <c r="S47" s="77"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -15609,13 +15609,13 @@
       </c>
       <c r="B51" s="68"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="371">
+      <c r="E51" s="420">
         <f>+J52</f>
         <v>0</v>
       </c>
-      <c r="F51" s="371"/>
-      <c r="G51" s="371"/>
-      <c r="H51" s="371"/>
+      <c r="F51" s="420"/>
+      <c r="G51" s="420"/>
+      <c r="H51" s="420"/>
       <c r="I51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -15631,13 +15631,13 @@
       <c r="F52" s="235"/>
       <c r="G52" s="235"/>
       <c r="H52" s="188"/>
-      <c r="J52" s="371">
+      <c r="J52" s="420">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K52" s="371"/>
-      <c r="L52" s="371"/>
-      <c r="M52" s="371"/>
+      <c r="K52" s="420"/>
+      <c r="L52" s="420"/>
+      <c r="M52" s="420"/>
       <c r="S52" s="69"/>
     </row>
     <row r="53" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -17218,6 +17218,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J52:M52"/>
     <mergeCell ref="C7:E7"/>
@@ -17234,57 +17285,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="portrait" verticalDpi="598" r:id="rId1"/>
@@ -17305,7 +17305,7 @@
   </sheetPr>
   <dimension ref="A1:W127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -17335,49 +17335,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
-      <c r="J1" s="400"/>
-      <c r="K1" s="400"/>
-      <c r="L1" s="400"/>
-      <c r="M1" s="400"/>
-      <c r="N1" s="400"/>
-      <c r="O1" s="400"/>
-      <c r="P1" s="400"/>
-      <c r="Q1" s="400"/>
-      <c r="R1" s="400"/>
-      <c r="S1" s="400"/>
+      <c r="A1" s="402"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
+      <c r="R1" s="402"/>
+      <c r="S1" s="402"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="401" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="402"/>
-      <c r="P2" s="403" t="s">
+      <c r="A2" s="403" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="405" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="404"/>
-      <c r="R2" s="405"/>
+      <c r="Q2" s="406"/>
+      <c r="R2" s="407"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17388,14 +17388,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="408" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="407"/>
-      <c r="M3" s="407"/>
+      <c r="J3" s="409"/>
+      <c r="K3" s="409"/>
+      <c r="L3" s="409"/>
+      <c r="M3" s="409"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -17419,12 +17419,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="406"/>
+      <c r="H4" s="408"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
-      <c r="L4" s="408"/>
-      <c r="M4" s="408"/>
+      <c r="J4" s="410"/>
+      <c r="K4" s="410"/>
+      <c r="L4" s="410"/>
+      <c r="M4" s="410"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -17500,29 +17500,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="409" t="s">
+      <c r="C7" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="409" t="s">
+      <c r="D7" s="414"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="410"/>
+      <c r="G7" s="412"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="409" t="s">
+      <c r="I7" s="411" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="410"/>
+      <c r="J7" s="412"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="409" t="s">
+      <c r="L7" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="411"/>
+      <c r="M7" s="413"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -17542,10 +17542,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="413" t="s">
+      <c r="D8" s="415" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="414"/>
+      <c r="E8" s="416"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -17555,15 +17555,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="387"/>
-      <c r="J8" s="388"/>
+      <c r="I8" s="431"/>
+      <c r="J8" s="432"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="372" t="s">
+      <c r="L8" s="421" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="374" t="s">
+      <c r="M8" s="423" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -17586,27 +17586,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="389">
+      <c r="C9" s="417">
         <v>40100</v>
       </c>
-      <c r="D9" s="415"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="389">
+      <c r="D9" s="419"/>
+      <c r="E9" s="418"/>
+      <c r="F9" s="417">
         <v>40200</v>
       </c>
-      <c r="G9" s="390"/>
+      <c r="G9" s="418"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="389">
+      <c r="I9" s="417">
         <v>40900</v>
       </c>
-      <c r="J9" s="390"/>
+      <c r="J9" s="418"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="373"/>
-      <c r="M9" s="375"/>
+      <c r="L9" s="422"/>
+      <c r="M9" s="424"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -17626,13 +17626,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="427"/>
-      <c r="E10" s="428"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="376"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="430"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="378"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -17655,13 +17655,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="425"/>
-      <c r="E11" s="426"/>
+      <c r="D11" s="373"/>
+      <c r="E11" s="374"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="431"/>
-      <c r="J11" s="432"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="380"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -17693,13 +17693,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="423"/>
-      <c r="E12" s="424"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="372"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="423"/>
-      <c r="J12" s="424"/>
+      <c r="I12" s="371"/>
+      <c r="J12" s="372"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -17728,11 +17728,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="381">
+      <c r="D13" s="425">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="382">
+      <c r="E13" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17748,11 +17748,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="381">
+      <c r="I13" s="425">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="382">
+      <c r="J13" s="426">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -17785,13 +17785,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
+      <c r="D14" s="427"/>
+      <c r="E14" s="428"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="383"/>
-      <c r="J14" s="384"/>
+      <c r="I14" s="427"/>
+      <c r="J14" s="428"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -17821,11 +17821,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="385">
+      <c r="D15" s="429">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="386"/>
+      <c r="E15" s="430"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -17838,11 +17838,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="385">
+      <c r="I15" s="429">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="386"/>
+      <c r="J15" s="430"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -17910,22 +17910,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="379">
+      <c r="C17" s="387">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="379">
+      <c r="D17" s="388"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="387">
         <v>40300</v>
       </c>
-      <c r="G17" s="380"/>
+      <c r="G17" s="389"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="379">
+      <c r="I17" s="387">
         <v>40600</v>
       </c>
-      <c r="J17" s="380"/>
+      <c r="J17" s="389"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -18010,23 +18010,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="376" t="s">
+      <c r="A20" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="377"/>
-      <c r="C20" s="378"/>
+      <c r="B20" s="382"/>
+      <c r="C20" s="383"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="376" t="s">
+      <c r="E20" s="381" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="377"/>
-      <c r="G20" s="377"/>
-      <c r="H20" s="378"/>
-      <c r="J20" s="376" t="s">
+      <c r="F20" s="382"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="383"/>
+      <c r="J20" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="377"/>
-      <c r="L20" s="378"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="383"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -18046,9 +18046,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="399"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="386"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -18079,9 +18079,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="397"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="399"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="386"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -18112,9 +18112,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="399"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="386"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -18153,9 +18153,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="397"/>
-      <c r="F24" s="398"/>
-      <c r="G24" s="399"/>
+      <c r="E24" s="384"/>
+      <c r="F24" s="385"/>
+      <c r="G24" s="386"/>
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -18186,9 +18186,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="396"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="392"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -18301,12 +18301,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="376" t="s">
+      <c r="E28" s="381" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="378"/>
+      <c r="F28" s="382"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="383"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -18339,9 +18339,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="399"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="386"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -18362,9 +18362,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="399"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="386"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -18389,15 +18389,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="394"/>
+      <c r="C31" s="395"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="395"/>
-      <c r="G31" s="396"/>
+      <c r="E31" s="390"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="392"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -18432,9 +18432,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="395"/>
-      <c r="G32" s="396"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="392"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -18457,9 +18457,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="395"/>
-      <c r="G33" s="396"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="391"/>
+      <c r="G33" s="392"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -18468,14 +18468,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="397" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="397"/>
+      <c r="P33" s="397"/>
+      <c r="Q33" s="397"/>
+      <c r="R33" s="397"/>
+      <c r="S33" s="397"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -18534,11 +18534,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="396"/>
+      <c r="O35" s="396"/>
+      <c r="P35" s="396"/>
+      <c r="Q35" s="396"/>
+      <c r="R35" s="396"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -18546,12 +18546,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="376" t="s">
+      <c r="E36" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="377"/>
-      <c r="G36" s="377"/>
-      <c r="H36" s="378"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="383"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -18565,22 +18565,22 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="396"/>
+      <c r="O36" s="396"/>
+      <c r="P36" s="396"/>
+      <c r="Q36" s="396"/>
+      <c r="R36" s="396"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="397" t="s">
+      <c r="E37" s="384" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="398"/>
-      <c r="G37" s="399"/>
+      <c r="F37" s="385"/>
+      <c r="G37" s="386"/>
       <c r="H37" s="253"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -18595,23 +18595,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="396"/>
+      <c r="O37" s="396"/>
+      <c r="P37" s="396"/>
+      <c r="Q37" s="396"/>
+      <c r="R37" s="396"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="398"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="400"/>
+      <c r="G38" s="401"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -18623,11 +18623,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="396"/>
+      <c r="O38" s="396"/>
+      <c r="P38" s="396"/>
+      <c r="Q38" s="396"/>
+      <c r="R38" s="396"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18640,9 +18640,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="399"/>
+      <c r="F39" s="400"/>
+      <c r="G39" s="401"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -18675,9 +18675,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="399"/>
+      <c r="F40" s="400"/>
+      <c r="G40" s="401"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -18708,9 +18708,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="399"/>
+      <c r="F41" s="400"/>
+      <c r="G41" s="401"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -18725,14 +18725,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="397"/>
+      <c r="P41" s="397"/>
+      <c r="Q41" s="397"/>
+      <c r="R41" s="397"/>
+      <c r="S41" s="397"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -18758,11 +18758,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="396"/>
+      <c r="O42" s="396"/>
+      <c r="P42" s="396"/>
+      <c r="Q42" s="396"/>
+      <c r="R42" s="396"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -18785,11 +18785,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="396"/>
+      <c r="O43" s="396"/>
+      <c r="P43" s="396"/>
+      <c r="Q43" s="396"/>
+      <c r="R43" s="396"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -18813,11 +18813,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="396"/>
+      <c r="O44" s="396"/>
+      <c r="P44" s="396"/>
+      <c r="Q44" s="396"/>
+      <c r="R44" s="396"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -18845,11 +18845,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="396"/>
+      <c r="O45" s="396"/>
+      <c r="P45" s="396"/>
+      <c r="Q45" s="396"/>
+      <c r="R45" s="396"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -18869,11 +18869,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="396"/>
+      <c r="O46" s="396"/>
+      <c r="P46" s="396"/>
+      <c r="Q46" s="396"/>
+      <c r="R46" s="396"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -18988,20 +18988,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="371">
+      <c r="E51" s="420">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="371"/>
-      <c r="G51" s="371"/>
-      <c r="H51" s="371"/>
-      <c r="J51" s="371">
+      <c r="F51" s="420"/>
+      <c r="G51" s="420"/>
+      <c r="H51" s="420"/>
+      <c r="J51" s="420">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="371"/>
-      <c r="L51" s="371"/>
-      <c r="M51" s="371"/>
+      <c r="K51" s="420"/>
+      <c r="L51" s="420"/>
+      <c r="M51" s="420"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -20544,6 +20544,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -20560,57 +20611,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20663,49 +20663,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
-      <c r="J1" s="400"/>
-      <c r="K1" s="400"/>
-      <c r="L1" s="400"/>
-      <c r="M1" s="400"/>
-      <c r="N1" s="400"/>
-      <c r="O1" s="400"/>
-      <c r="P1" s="400"/>
-      <c r="Q1" s="400"/>
-      <c r="R1" s="400"/>
-      <c r="S1" s="400"/>
+      <c r="A1" s="402"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
+      <c r="R1" s="402"/>
+      <c r="S1" s="402"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="401" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="402"/>
-      <c r="P2" s="403" t="s">
+      <c r="A2" s="403" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="405" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="404"/>
-      <c r="R2" s="405"/>
+      <c r="Q2" s="406"/>
+      <c r="R2" s="407"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20716,14 +20716,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="408" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="407"/>
-      <c r="M3" s="407"/>
+      <c r="J3" s="409"/>
+      <c r="K3" s="409"/>
+      <c r="L3" s="409"/>
+      <c r="M3" s="409"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -20747,12 +20747,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="406"/>
+      <c r="H4" s="408"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
-      <c r="L4" s="408"/>
-      <c r="M4" s="408"/>
+      <c r="J4" s="410"/>
+      <c r="K4" s="410"/>
+      <c r="L4" s="410"/>
+      <c r="M4" s="410"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -20828,29 +20828,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="409" t="s">
+      <c r="C7" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="409" t="s">
+      <c r="D7" s="414"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="410"/>
+      <c r="G7" s="412"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="409" t="s">
+      <c r="I7" s="411" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="410"/>
+      <c r="J7" s="412"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="409" t="s">
+      <c r="L7" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="411"/>
+      <c r="M7" s="413"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -20870,10 +20870,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="413" t="s">
+      <c r="D8" s="415" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="414"/>
+      <c r="E8" s="416"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -20883,15 +20883,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="387"/>
-      <c r="J8" s="388"/>
+      <c r="I8" s="431"/>
+      <c r="J8" s="432"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="372" t="s">
+      <c r="L8" s="421" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="374" t="s">
+      <c r="M8" s="423" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -20914,27 +20914,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="389">
+      <c r="C9" s="417">
         <v>40100</v>
       </c>
-      <c r="D9" s="415"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="389">
+      <c r="D9" s="419"/>
+      <c r="E9" s="418"/>
+      <c r="F9" s="417">
         <v>40200</v>
       </c>
-      <c r="G9" s="390"/>
+      <c r="G9" s="418"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="389">
+      <c r="I9" s="417">
         <v>40900</v>
       </c>
-      <c r="J9" s="390"/>
+      <c r="J9" s="418"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="373"/>
-      <c r="M9" s="375"/>
+      <c r="L9" s="422"/>
+      <c r="M9" s="424"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -20954,13 +20954,13 @@
       </c>
       <c r="B10" s="270"/>
       <c r="C10" s="271"/>
-      <c r="D10" s="429"/>
-      <c r="E10" s="430"/>
+      <c r="D10" s="377"/>
+      <c r="E10" s="378"/>
       <c r="F10" s="271"/>
       <c r="G10" s="271"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="430"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="378"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -20983,13 +20983,13 @@
       </c>
       <c r="B11" s="272"/>
       <c r="C11" s="273"/>
-      <c r="D11" s="431"/>
-      <c r="E11" s="432"/>
+      <c r="D11" s="379"/>
+      <c r="E11" s="380"/>
       <c r="F11" s="273"/>
       <c r="G11" s="273"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="431"/>
-      <c r="J11" s="432"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="380"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -21021,13 +21021,13 @@
       </c>
       <c r="B12" s="272"/>
       <c r="C12" s="273"/>
-      <c r="D12" s="431"/>
-      <c r="E12" s="432"/>
+      <c r="D12" s="379"/>
+      <c r="E12" s="380"/>
       <c r="F12" s="269"/>
       <c r="G12" s="273"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="423"/>
-      <c r="J12" s="424"/>
+      <c r="I12" s="371"/>
+      <c r="J12" s="372"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -21056,11 +21056,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="381">
+      <c r="D13" s="425">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="382">
+      <c r="E13" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21076,11 +21076,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="381">
+      <c r="I13" s="425">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="382">
+      <c r="J13" s="426">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -21113,13 +21113,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
+      <c r="D14" s="427"/>
+      <c r="E14" s="428"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="383"/>
-      <c r="J14" s="384"/>
+      <c r="I14" s="427"/>
+      <c r="J14" s="428"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -21149,11 +21149,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="385">
+      <c r="D15" s="429">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="386"/>
+      <c r="E15" s="430"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -21166,11 +21166,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="385">
+      <c r="I15" s="429">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="386"/>
+      <c r="J15" s="430"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -21238,22 +21238,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="379">
+      <c r="C17" s="387">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="379">
+      <c r="D17" s="388"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="387">
         <v>40300</v>
       </c>
-      <c r="G17" s="380"/>
+      <c r="G17" s="389"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="379">
+      <c r="I17" s="387">
         <v>40600</v>
       </c>
-      <c r="J17" s="380"/>
+      <c r="J17" s="389"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -21338,23 +21338,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="376" t="s">
+      <c r="A20" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="377"/>
-      <c r="C20" s="378"/>
+      <c r="B20" s="382"/>
+      <c r="C20" s="383"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="376" t="s">
+      <c r="E20" s="381" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="377"/>
-      <c r="G20" s="377"/>
-      <c r="H20" s="378"/>
-      <c r="J20" s="376" t="s">
+      <c r="F20" s="382"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="383"/>
+      <c r="J20" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="377"/>
-      <c r="L20" s="378"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="383"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -21376,9 +21376,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="399"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="386"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -21409,9 +21409,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="397"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="399"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="386"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -21442,9 +21442,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="399"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="386"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -21483,9 +21483,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="394"/>
-      <c r="F24" s="395"/>
-      <c r="G24" s="396"/>
+      <c r="E24" s="390"/>
+      <c r="F24" s="391"/>
+      <c r="G24" s="392"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -21516,9 +21516,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="396"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="392"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -21632,12 +21632,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="376" t="s">
+      <c r="E28" s="381" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="378"/>
+      <c r="F28" s="382"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="383"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -21672,9 +21672,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="399"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="386"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -21695,9 +21695,9 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="399"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="386"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -21722,15 +21722,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="394"/>
+      <c r="C31" s="395"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="395"/>
-      <c r="G31" s="396"/>
+      <c r="E31" s="390"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="392"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -21765,9 +21765,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="395"/>
-      <c r="G32" s="396"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="392"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -21790,9 +21790,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="395"/>
-      <c r="G33" s="396"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="391"/>
+      <c r="G33" s="392"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -21801,14 +21801,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="397" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="397"/>
+      <c r="P33" s="397"/>
+      <c r="Q33" s="397"/>
+      <c r="R33" s="397"/>
+      <c r="S33" s="397"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -21836,11 +21836,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="396"/>
+      <c r="O34" s="396"/>
+      <c r="P34" s="396"/>
+      <c r="Q34" s="396"/>
+      <c r="R34" s="396"/>
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -21867,11 +21867,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="396"/>
+      <c r="O35" s="396"/>
+      <c r="P35" s="396"/>
+      <c r="Q35" s="396"/>
+      <c r="R35" s="396"/>
       <c r="S35" s="77"/>
       <c r="W35" s="206"/>
     </row>
@@ -21880,12 +21880,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="376" t="s">
+      <c r="E36" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="377"/>
-      <c r="G36" s="377"/>
-      <c r="H36" s="378"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="383"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -21899,20 +21899,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="396"/>
+      <c r="O36" s="396"/>
+      <c r="P36" s="396"/>
+      <c r="Q36" s="396"/>
+      <c r="R36" s="396"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="400"/>
+      <c r="G37" s="401"/>
       <c r="H37" s="253"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -21927,23 +21927,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="396"/>
+      <c r="O37" s="396"/>
+      <c r="P37" s="396"/>
+      <c r="Q37" s="396"/>
+      <c r="R37" s="396"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="398"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="400"/>
+      <c r="G38" s="401"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -21955,11 +21955,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="396"/>
+      <c r="O38" s="396"/>
+      <c r="P38" s="396"/>
+      <c r="Q38" s="396"/>
+      <c r="R38" s="396"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21972,9 +21972,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="399"/>
+      <c r="F39" s="400"/>
+      <c r="G39" s="401"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -22004,9 +22004,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="399"/>
+      <c r="F40" s="400"/>
+      <c r="G40" s="401"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -22037,9 +22037,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="399"/>
+      <c r="F41" s="400"/>
+      <c r="G41" s="401"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -22054,14 +22054,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="397"/>
+      <c r="P41" s="397"/>
+      <c r="Q41" s="397"/>
+      <c r="R41" s="397"/>
+      <c r="S41" s="397"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -22087,11 +22087,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="396"/>
+      <c r="O42" s="396"/>
+      <c r="P42" s="396"/>
+      <c r="Q42" s="396"/>
+      <c r="R42" s="396"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -22114,11 +22114,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="396"/>
+      <c r="O43" s="396"/>
+      <c r="P43" s="396"/>
+      <c r="Q43" s="396"/>
+      <c r="R43" s="396"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -22144,11 +22144,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="396"/>
+      <c r="O44" s="396"/>
+      <c r="P44" s="396"/>
+      <c r="Q44" s="396"/>
+      <c r="R44" s="396"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -22175,11 +22175,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="396"/>
+      <c r="O45" s="396"/>
+      <c r="P45" s="396"/>
+      <c r="Q45" s="396"/>
+      <c r="R45" s="396"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -22199,11 +22199,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="396"/>
+      <c r="O46" s="396"/>
+      <c r="P46" s="396"/>
+      <c r="Q46" s="396"/>
+      <c r="R46" s="396"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -22318,20 +22318,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="371">
+      <c r="E51" s="420">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="371"/>
-      <c r="G51" s="371"/>
-      <c r="H51" s="371"/>
-      <c r="J51" s="371">
+      <c r="F51" s="420"/>
+      <c r="G51" s="420"/>
+      <c r="H51" s="420"/>
+      <c r="J51" s="420">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="371"/>
-      <c r="L51" s="371"/>
-      <c r="M51" s="371"/>
+      <c r="K51" s="420"/>
+      <c r="L51" s="420"/>
+      <c r="M51" s="420"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -23826,6 +23826,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -23842,57 +23893,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="N38:R38"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23942,49 +23942,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
-      <c r="J1" s="400"/>
-      <c r="K1" s="400"/>
-      <c r="L1" s="400"/>
-      <c r="M1" s="400"/>
-      <c r="N1" s="400"/>
-      <c r="O1" s="400"/>
-      <c r="P1" s="400"/>
-      <c r="Q1" s="400"/>
-      <c r="R1" s="400"/>
-      <c r="S1" s="400"/>
+      <c r="A1" s="402"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
+      <c r="R1" s="402"/>
+      <c r="S1" s="402"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="401" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="402"/>
-      <c r="P2" s="403" t="s">
+      <c r="A2" s="403" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="405" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="404"/>
-      <c r="R2" s="405"/>
+      <c r="Q2" s="406"/>
+      <c r="R2" s="407"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23995,14 +23995,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="408" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="407"/>
-      <c r="M3" s="407"/>
+      <c r="J3" s="409"/>
+      <c r="K3" s="409"/>
+      <c r="L3" s="409"/>
+      <c r="M3" s="409"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -24026,12 +24026,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="406"/>
+      <c r="H4" s="408"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
-      <c r="L4" s="408"/>
-      <c r="M4" s="408"/>
+      <c r="J4" s="410"/>
+      <c r="K4" s="410"/>
+      <c r="L4" s="410"/>
+      <c r="M4" s="410"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -24107,29 +24107,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="409" t="s">
+      <c r="C7" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="409" t="s">
+      <c r="D7" s="414"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="410"/>
+      <c r="G7" s="412"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="409" t="s">
+      <c r="I7" s="411" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="410"/>
+      <c r="J7" s="412"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="409" t="s">
+      <c r="L7" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="411"/>
+      <c r="M7" s="413"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -24149,10 +24149,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="413" t="s">
+      <c r="D8" s="415" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="414"/>
+      <c r="E8" s="416"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -24162,15 +24162,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="387"/>
-      <c r="J8" s="388"/>
+      <c r="I8" s="431"/>
+      <c r="J8" s="432"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="372" t="s">
+      <c r="L8" s="421" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="374" t="s">
+      <c r="M8" s="423" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -24193,27 +24193,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="389">
+      <c r="C9" s="417">
         <v>40100</v>
       </c>
-      <c r="D9" s="415"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="389">
+      <c r="D9" s="419"/>
+      <c r="E9" s="418"/>
+      <c r="F9" s="417">
         <v>40200</v>
       </c>
-      <c r="G9" s="390"/>
+      <c r="G9" s="418"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="389">
+      <c r="I9" s="417">
         <v>40900</v>
       </c>
-      <c r="J9" s="390"/>
+      <c r="J9" s="418"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="373"/>
-      <c r="M9" s="375"/>
+      <c r="L9" s="422"/>
+      <c r="M9" s="424"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -24233,13 +24233,13 @@
       </c>
       <c r="B10" s="311"/>
       <c r="C10" s="312"/>
-      <c r="D10" s="427"/>
-      <c r="E10" s="428"/>
+      <c r="D10" s="375"/>
+      <c r="E10" s="376"/>
       <c r="F10" s="312"/>
       <c r="G10" s="312"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="430"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="378"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -24262,13 +24262,13 @@
       </c>
       <c r="B11" s="313"/>
       <c r="C11" s="314"/>
-      <c r="D11" s="425"/>
-      <c r="E11" s="426"/>
+      <c r="D11" s="373"/>
+      <c r="E11" s="374"/>
       <c r="F11" s="314"/>
       <c r="G11" s="314"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="431"/>
-      <c r="J11" s="432"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="380"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -24300,13 +24300,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="423"/>
-      <c r="E12" s="424"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="372"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="423"/>
-      <c r="J12" s="424"/>
+      <c r="I12" s="371"/>
+      <c r="J12" s="372"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -24335,11 +24335,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="381">
+      <c r="D13" s="425">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="382">
+      <c r="E13" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -24355,11 +24355,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="381">
+      <c r="I13" s="425">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="382">
+      <c r="J13" s="426">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -24392,13 +24392,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="383"/>
-      <c r="E14" s="384"/>
+      <c r="D14" s="427"/>
+      <c r="E14" s="428"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="383"/>
-      <c r="J14" s="384"/>
+      <c r="I14" s="427"/>
+      <c r="J14" s="428"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -24428,11 +24428,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="385">
+      <c r="D15" s="429">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="386"/>
+      <c r="E15" s="430"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -24445,11 +24445,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="385">
+      <c r="I15" s="429">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="386"/>
+      <c r="J15" s="430"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -24516,22 +24516,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="379">
+      <c r="C17" s="387">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="379">
+      <c r="D17" s="388"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="387">
         <v>40300</v>
       </c>
-      <c r="G17" s="380"/>
+      <c r="G17" s="389"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="379">
+      <c r="I17" s="387">
         <v>40600</v>
       </c>
-      <c r="J17" s="380"/>
+      <c r="J17" s="389"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -24616,23 +24616,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="376" t="s">
+      <c r="A20" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="377"/>
-      <c r="C20" s="378"/>
+      <c r="B20" s="382"/>
+      <c r="C20" s="383"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="376" t="s">
+      <c r="E20" s="381" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="377"/>
-      <c r="G20" s="377"/>
-      <c r="H20" s="378"/>
-      <c r="J20" s="376" t="s">
+      <c r="F20" s="382"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="383"/>
+      <c r="J20" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="377"/>
-      <c r="L20" s="378"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="383"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -24654,9 +24654,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="399"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="386"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -24687,9 +24687,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="397"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="399"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="386"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -24720,9 +24720,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="399"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="385"/>
+      <c r="G23" s="386"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -24761,9 +24761,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="394"/>
-      <c r="F24" s="395"/>
-      <c r="G24" s="396"/>
+      <c r="E24" s="390"/>
+      <c r="F24" s="391"/>
+      <c r="G24" s="392"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -24794,9 +24794,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="396"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="392"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -24909,12 +24909,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="376" t="s">
+      <c r="E28" s="381" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="378"/>
+      <c r="F28" s="382"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="383"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -24947,9 +24947,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="399"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="386"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -24970,9 +24970,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="399"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="386"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -24997,15 +24997,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="394"/>
+      <c r="C31" s="395"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="395"/>
-      <c r="G31" s="396"/>
+      <c r="E31" s="390"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="392"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -25040,9 +25040,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="395"/>
-      <c r="G32" s="396"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="391"/>
+      <c r="G32" s="392"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -25065,9 +25065,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="395"/>
-      <c r="G33" s="396"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="391"/>
+      <c r="G33" s="392"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -25076,14 +25076,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="397" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="397"/>
+      <c r="P33" s="397"/>
+      <c r="Q33" s="397"/>
+      <c r="R33" s="397"/>
+      <c r="S33" s="397"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -25111,11 +25111,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="396"/>
+      <c r="O34" s="396"/>
+      <c r="P34" s="396"/>
+      <c r="Q34" s="396"/>
+      <c r="R34" s="396"/>
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -25142,11 +25142,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="396"/>
+      <c r="O35" s="396"/>
+      <c r="P35" s="396"/>
+      <c r="Q35" s="396"/>
+      <c r="R35" s="396"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -25154,12 +25154,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="376" t="s">
+      <c r="E36" s="381" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="377"/>
-      <c r="G36" s="377"/>
-      <c r="H36" s="378"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="383"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -25173,20 +25173,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="396"/>
+      <c r="O36" s="396"/>
+      <c r="P36" s="396"/>
+      <c r="Q36" s="396"/>
+      <c r="R36" s="396"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="393"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="400"/>
+      <c r="G37" s="401"/>
       <c r="H37" s="253"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -25201,23 +25201,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="396"/>
+      <c r="O37" s="396"/>
+      <c r="P37" s="396"/>
+      <c r="Q37" s="396"/>
+      <c r="R37" s="396"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="398"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="400"/>
+      <c r="G38" s="401"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -25229,11 +25229,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="396"/>
+      <c r="O38" s="396"/>
+      <c r="P38" s="396"/>
+      <c r="Q38" s="396"/>
+      <c r="R38" s="396"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25246,9 +25246,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="399"/>
+      <c r="F39" s="400"/>
+      <c r="G39" s="401"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -25281,9 +25281,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="399"/>
+      <c r="F40" s="400"/>
+      <c r="G40" s="401"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -25314,9 +25314,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="399"/>
+      <c r="F41" s="400"/>
+      <c r="G41" s="401"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -25331,14 +25331,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="397" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="397"/>
+      <c r="P41" s="397"/>
+      <c r="Q41" s="397"/>
+      <c r="R41" s="397"/>
+      <c r="S41" s="397"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -25364,11 +25364,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="396"/>
+      <c r="O42" s="396"/>
+      <c r="P42" s="396"/>
+      <c r="Q42" s="396"/>
+      <c r="R42" s="396"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -25391,11 +25391,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="396"/>
+      <c r="O43" s="396"/>
+      <c r="P43" s="396"/>
+      <c r="Q43" s="396"/>
+      <c r="R43" s="396"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -25419,11 +25419,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="396"/>
+      <c r="O44" s="396"/>
+      <c r="P44" s="396"/>
+      <c r="Q44" s="396"/>
+      <c r="R44" s="396"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -25450,11 +25450,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="396"/>
+      <c r="O45" s="396"/>
+      <c r="P45" s="396"/>
+      <c r="Q45" s="396"/>
+      <c r="R45" s="396"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -25474,11 +25474,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="396"/>
+      <c r="O46" s="396"/>
+      <c r="P46" s="396"/>
+      <c r="Q46" s="396"/>
+      <c r="R46" s="396"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -25588,20 +25588,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="371">
+      <c r="E51" s="420">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="371"/>
-      <c r="G51" s="371"/>
-      <c r="H51" s="371"/>
-      <c r="J51" s="371">
+      <c r="F51" s="420"/>
+      <c r="G51" s="420"/>
+      <c r="H51" s="420"/>
+      <c r="J51" s="420">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="371"/>
-      <c r="L51" s="371"/>
-      <c r="M51" s="371"/>
+      <c r="K51" s="420"/>
+      <c r="L51" s="420"/>
+      <c r="M51" s="420"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -27108,6 +27108,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -27124,57 +27175,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" verticalDpi="598" r:id="rId1"/>
@@ -27193,8 +27193,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -27271,28 +27271,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="110">
-        <f>B4+1</f>
-        <v>1</v>
+        <f>TUE!J3</f>
+        <v>0</v>
       </c>
       <c r="D4" s="291">
-        <f t="shared" ref="D4:H4" si="0">C4+1</f>
-        <v>2</v>
+        <f>WED!J3</f>
+        <v>0</v>
       </c>
       <c r="E4" s="291">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>THU!J3</f>
+        <v>0</v>
       </c>
       <c r="F4" s="291">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>FRI!J3</f>
+        <v>0</v>
       </c>
       <c r="G4" s="291">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SAT!J3</f>
+        <v>0</v>
       </c>
       <c r="H4" s="290">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUN!J3</f>
+        <v>0</v>
       </c>
       <c r="I4" s="109" t="s">
         <v>72</v>
@@ -27311,27 +27311,27 @@
         <v>0</v>
       </c>
       <c r="D5" s="289">
-        <f t="shared" ref="D5:H5" si="1">SUM(D10:D12)+D7+D8+D9</f>
+        <f t="shared" ref="D5:H5" si="0">SUM(D10:D12)+D7+D8+D9</f>
         <v>0</v>
       </c>
       <c r="E5" s="289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="211">
-        <f t="shared" ref="I5:I10" si="2">SUM(B5:H5)</f>
+        <f t="shared" ref="I5:I10" si="1">SUM(B5:H5)</f>
         <v>0</v>
       </c>
     </row>
@@ -27348,11 +27348,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="288">
-        <f t="shared" ref="D6:G6" si="3">SUM(D10:D12)</f>
+        <f t="shared" ref="D6:G6" si="2">SUM(D10:D12)</f>
         <v>0</v>
       </c>
       <c r="E6" s="288">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="288">
@@ -27360,7 +27360,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="288">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="288">
@@ -27368,7 +27368,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="211">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -27398,7 +27398,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="257">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -27428,7 +27428,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="257">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="287">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -27495,7 +27495,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="213">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -27776,11 +27776,11 @@
         <v>0</v>
       </c>
       <c r="F19" s="162">
-        <f t="shared" ref="F19:G19" si="4">SUM(F16:F18)</f>
+        <f t="shared" ref="F19:G19" si="3">SUM(F16:F18)</f>
         <v>0</v>
       </c>
       <c r="G19" s="162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" s="163">
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="293">
-        <f t="shared" ref="I22:I28" si="5">SUM(B22:H22)</f>
+        <f t="shared" ref="I22:I28" si="4">SUM(B22:H22)</f>
         <v>0</v>
       </c>
     </row>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="293">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="293">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L24" s="228"/>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="293">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="293">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="294">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="293">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -28109,27 +28109,27 @@
         <v>0</v>
       </c>
       <c r="C29" s="162">
-        <f t="shared" ref="C29:H29" si="6">SUM(C21:C28)</f>
+        <f t="shared" ref="C29:H29" si="5">SUM(C21:C28)</f>
         <v>0</v>
       </c>
       <c r="D29" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E29" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F29" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G29" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H29" s="163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I29" s="164">
@@ -28176,27 +28176,27 @@
         <v>0</v>
       </c>
       <c r="C31" s="137">
-        <f t="shared" ref="C31:H31" si="7">C29-C30</f>
+        <f t="shared" ref="C31:H31" si="6">C29-C30</f>
         <v>0</v>
       </c>
       <c r="D31" s="137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E31" s="137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F31" s="137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G31" s="137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H31" s="138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I31" s="139">
@@ -28224,27 +28224,27 @@
         <v>0</v>
       </c>
       <c r="C33" s="146">
-        <f t="shared" ref="C33:H33" si="8">IF(C11=0,0,C17/C11)</f>
+        <f t="shared" ref="C33:H33" si="7">IF(C11=0,0,C17/C11)</f>
         <v>0</v>
       </c>
       <c r="D33" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E33" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F33" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G33" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H33" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I33" s="147" t="e">
@@ -28261,27 +28261,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C34" s="149" t="e">
-        <f t="shared" ref="C34:H34" si="9">C18/C12</f>
+        <f t="shared" ref="C34:H34" si="8">C18/C12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D34" s="149" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="149" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="149" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="149" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="149" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="149" t="e">
@@ -28294,31 +28294,31 @@
         <v>88</v>
       </c>
       <c r="B35" s="149" t="e">
-        <f t="shared" ref="B35:H35" si="10">(B18+B17)/B6</f>
+        <f t="shared" ref="B35:H35" si="9">(B18+B17)/B6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="149" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="149" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="149" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="149" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="149" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="149" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="165" t="e">
@@ -28419,7 +28419,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="208" t="e">
-        <f t="shared" ref="D41:D42" si="11">+(B41-C41)/C41</f>
+        <f t="shared" ref="D41:D42" si="10">+(B41-C41)/C41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="153"/>
@@ -28440,7 +28440,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="208" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="153"/>

--- a/scripts/Report_Templates/QP_Bistro_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/QP_Bistro_Sales_Report_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98C653D-0BC3-438B-9916-1D14C9051194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF7D115-BB8E-46A9-8DC1-B32D2452D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="732" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,12 +640,19 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1830,270 +1837,270 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="8" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="16" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2104,67 +2111,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2173,534 +2180,626 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="28" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="28" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="8" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="33" fillId="8" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="8" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="33" fillId="8" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="8" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="33" fillId="8" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="40" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="40" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="41" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="41" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="44" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="44" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="8" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="8" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="8" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="8" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="38" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="38" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="39" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="39" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="39" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="41" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2709,177 +2808,85 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="36" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="36" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="36" fillId="7" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="35" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="35" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="35" fillId="7" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4261,49 +4268,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="397"/>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397"/>
-      <c r="S1" s="397"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
-      <c r="M2" s="398"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="399"/>
-      <c r="P2" s="400" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="402"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4314,14 +4321,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -4345,12 +4352,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="403"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="405"/>
-      <c r="K4" s="405"/>
-      <c r="L4" s="405"/>
-      <c r="M4" s="405"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -4426,29 +4433,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="406" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="409"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="406" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="407"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="406" t="s">
+      <c r="I7" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="407"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="406" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="408"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -4468,10 +4475,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -4481,15 +4488,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="384"/>
-      <c r="J8" s="385"/>
+      <c r="I8" s="428"/>
+      <c r="J8" s="429"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="369" t="s">
+      <c r="L8" s="418" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="371" t="s">
+      <c r="M8" s="420" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -4512,27 +4519,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="386">
+      <c r="C9" s="414">
         <v>40100</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="387"/>
-      <c r="F9" s="386">
+      <c r="D9" s="416"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="414">
         <v>40200</v>
       </c>
-      <c r="G9" s="387"/>
+      <c r="G9" s="415"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="386">
+      <c r="I9" s="414">
         <v>40900</v>
       </c>
-      <c r="J9" s="387"/>
+      <c r="J9" s="415"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="370"/>
-      <c r="M9" s="372"/>
+      <c r="L9" s="419"/>
+      <c r="M9" s="421"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -4552,13 +4559,13 @@
       </c>
       <c r="B10" s="308"/>
       <c r="C10" s="309"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="425"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="373"/>
       <c r="F10" s="309"/>
       <c r="G10" s="309"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="426"/>
-      <c r="J10" s="427"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="375"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -4581,13 +4588,13 @@
       </c>
       <c r="B11" s="310"/>
       <c r="C11" s="311"/>
-      <c r="D11" s="422"/>
-      <c r="E11" s="423"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="371"/>
       <c r="F11" s="311"/>
       <c r="G11" s="311"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="428"/>
-      <c r="J11" s="429"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="377"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -4619,13 +4626,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="421"/>
+      <c r="D12" s="368"/>
+      <c r="E12" s="369"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="421"/>
+      <c r="I12" s="368"/>
+      <c r="J12" s="369"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -4654,11 +4661,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="378">
+      <c r="D13" s="422">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="379">
+      <c r="E13" s="423">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4674,11 +4681,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="378">
+      <c r="I13" s="422">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="379">
+      <c r="J13" s="423">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4711,13 +4718,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="425"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="381"/>
+      <c r="I14" s="424"/>
+      <c r="J14" s="425"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4747,11 +4754,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="382">
+      <c r="D15" s="426">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="383"/>
+      <c r="E15" s="427"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4764,11 +4771,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="382">
+      <c r="I15" s="426">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="383"/>
+      <c r="J15" s="427"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4836,22 +4843,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="376">
+      <c r="C17" s="384">
         <v>40200</v>
       </c>
-      <c r="D17" s="416"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="376">
+      <c r="D17" s="385"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="384">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="386"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="376">
+      <c r="I17" s="384">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="386"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4936,23 +4943,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="378" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="380"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="373" t="s">
+      <c r="E20" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="375"/>
-      <c r="J20" s="373" t="s">
+      <c r="F20" s="379"/>
+      <c r="G20" s="379"/>
+      <c r="H20" s="380"/>
+      <c r="J20" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="374"/>
-      <c r="L20" s="375"/>
+      <c r="K20" s="379"/>
+      <c r="L20" s="380"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4972,9 +4979,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="396"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="383"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -5005,9 +5012,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="395"/>
-      <c r="G22" s="396"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="383"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -5038,9 +5045,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="396"/>
+      <c r="E23" s="381"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="383"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -5079,9 +5086,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="394"/>
-      <c r="F24" s="395"/>
-      <c r="G24" s="396"/>
+      <c r="E24" s="381"/>
+      <c r="F24" s="382"/>
+      <c r="G24" s="383"/>
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -5112,9 +5119,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="391"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="393"/>
+      <c r="E25" s="387"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="389"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -5224,12 +5231,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="373" t="s">
+      <c r="E28" s="378" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="375"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="380"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -5262,9 +5269,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="396"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="383"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -5285,9 +5292,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="395"/>
-      <c r="G30" s="396"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="383"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -5312,15 +5319,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="417" t="s">
+      <c r="A31" s="390" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="418"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="392"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="391"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="393"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="388"/>
+      <c r="G31" s="389"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -5355,9 +5362,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="391"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="393"/>
+      <c r="E32" s="387"/>
+      <c r="F32" s="388"/>
+      <c r="G32" s="389"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -5380,9 +5387,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="391"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="393"/>
+      <c r="E33" s="387"/>
+      <c r="F33" s="388"/>
+      <c r="G33" s="389"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -5391,14 +5398,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="414" t="s">
+      <c r="N33" s="394" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="414"/>
-      <c r="P33" s="414"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="414"/>
-      <c r="S33" s="414"/>
+      <c r="O33" s="394"/>
+      <c r="P33" s="394"/>
+      <c r="Q33" s="394"/>
+      <c r="R33" s="394"/>
+      <c r="S33" s="394"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -5426,11 +5433,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="391"/>
-      <c r="O34" s="392"/>
-      <c r="P34" s="392"/>
-      <c r="Q34" s="392"/>
-      <c r="R34" s="393"/>
+      <c r="N34" s="387"/>
+      <c r="O34" s="388"/>
+      <c r="P34" s="388"/>
+      <c r="Q34" s="388"/>
+      <c r="R34" s="389"/>
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -5457,11 +5464,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="413"/>
-      <c r="O35" s="413"/>
-      <c r="P35" s="413"/>
-      <c r="Q35" s="413"/>
-      <c r="R35" s="413"/>
+      <c r="N35" s="393"/>
+      <c r="O35" s="393"/>
+      <c r="P35" s="393"/>
+      <c r="Q35" s="393"/>
+      <c r="R35" s="393"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -5469,12 +5476,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="373" t="s">
+      <c r="E36" s="378" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="374"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="375"/>
+      <c r="F36" s="379"/>
+      <c r="G36" s="379"/>
+      <c r="H36" s="380"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -5488,20 +5495,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="413"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="413"/>
-      <c r="Q36" s="413"/>
-      <c r="R36" s="413"/>
+      <c r="N36" s="393"/>
+      <c r="O36" s="393"/>
+      <c r="P36" s="393"/>
+      <c r="Q36" s="393"/>
+      <c r="R36" s="393"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="388"/>
-      <c r="F37" s="389"/>
-      <c r="G37" s="390"/>
+      <c r="E37" s="396"/>
+      <c r="F37" s="397"/>
+      <c r="G37" s="398"/>
       <c r="H37" s="74"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -5516,23 +5523,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="413"/>
-      <c r="O37" s="413"/>
-      <c r="P37" s="413"/>
-      <c r="Q37" s="413"/>
-      <c r="R37" s="413"/>
+      <c r="N37" s="393"/>
+      <c r="O37" s="393"/>
+      <c r="P37" s="393"/>
+      <c r="Q37" s="393"/>
+      <c r="R37" s="393"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="415" t="s">
+      <c r="A38" s="395" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="415"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="394"/>
-      <c r="F38" s="395"/>
-      <c r="G38" s="396"/>
+      <c r="E38" s="381"/>
+      <c r="F38" s="382"/>
+      <c r="G38" s="383"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -5544,11 +5551,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="413"/>
-      <c r="O38" s="413"/>
-      <c r="P38" s="413"/>
-      <c r="Q38" s="413"/>
-      <c r="R38" s="413"/>
+      <c r="N38" s="393"/>
+      <c r="O38" s="393"/>
+      <c r="P38" s="393"/>
+      <c r="Q38" s="393"/>
+      <c r="R38" s="393"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5561,9 +5568,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="388"/>
-      <c r="F39" s="389"/>
-      <c r="G39" s="390"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -5596,9 +5603,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="388"/>
-      <c r="F40" s="389"/>
-      <c r="G40" s="390"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -5629,9 +5636,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="388"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="390"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5646,14 +5653,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="414" t="s">
+      <c r="N41" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="414"/>
-      <c r="P41" s="414"/>
-      <c r="Q41" s="414"/>
-      <c r="R41" s="414"/>
-      <c r="S41" s="414"/>
+      <c r="O41" s="394"/>
+      <c r="P41" s="394"/>
+      <c r="Q41" s="394"/>
+      <c r="R41" s="394"/>
+      <c r="S41" s="394"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -5679,11 +5686,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="413"/>
-      <c r="O42" s="413"/>
-      <c r="P42" s="413"/>
-      <c r="Q42" s="413"/>
-      <c r="R42" s="413"/>
+      <c r="N42" s="393"/>
+      <c r="O42" s="393"/>
+      <c r="P42" s="393"/>
+      <c r="Q42" s="393"/>
+      <c r="R42" s="393"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -5706,11 +5713,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="413"/>
-      <c r="O43" s="413"/>
-      <c r="P43" s="413"/>
-      <c r="Q43" s="413"/>
-      <c r="R43" s="413"/>
+      <c r="N43" s="393"/>
+      <c r="O43" s="393"/>
+      <c r="P43" s="393"/>
+      <c r="Q43" s="393"/>
+      <c r="R43" s="393"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -5734,11 +5741,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="413"/>
-      <c r="O44" s="413"/>
-      <c r="P44" s="413"/>
-      <c r="Q44" s="413"/>
-      <c r="R44" s="413"/>
+      <c r="N44" s="393"/>
+      <c r="O44" s="393"/>
+      <c r="P44" s="393"/>
+      <c r="Q44" s="393"/>
+      <c r="R44" s="393"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -5765,11 +5772,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="413"/>
-      <c r="O45" s="413"/>
-      <c r="P45" s="413"/>
-      <c r="Q45" s="413"/>
-      <c r="R45" s="413"/>
+      <c r="N45" s="393"/>
+      <c r="O45" s="393"/>
+      <c r="P45" s="393"/>
+      <c r="Q45" s="393"/>
+      <c r="R45" s="393"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -5789,11 +5796,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="413"/>
-      <c r="O46" s="413"/>
-      <c r="P46" s="413"/>
-      <c r="Q46" s="413"/>
-      <c r="R46" s="413"/>
+      <c r="N46" s="393"/>
+      <c r="O46" s="393"/>
+      <c r="P46" s="393"/>
+      <c r="Q46" s="393"/>
+      <c r="R46" s="393"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -5910,20 +5917,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="368">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="368"/>
-      <c r="G51" s="368"/>
-      <c r="H51" s="368"/>
-      <c r="J51" s="368">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="368"/>
-      <c r="L51" s="368"/>
-      <c r="M51" s="368"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7290,25 +7297,38 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="N46:R46"/>
     <mergeCell ref="N41:S41"/>
     <mergeCell ref="N42:R42"/>
@@ -7325,40 +7345,27 @@
     <mergeCell ref="N38:R38"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="43" orientation="portrait" verticalDpi="598" r:id="rId1"/>
   <headerFooter>
@@ -7409,49 +7416,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="397"/>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397"/>
-      <c r="S1" s="397"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
-      <c r="M2" s="398"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="399"/>
-      <c r="P2" s="400" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="402"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7462,14 +7469,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -7493,12 +7500,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="403"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="405"/>
-      <c r="K4" s="405"/>
-      <c r="L4" s="405"/>
-      <c r="M4" s="405"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -7574,29 +7581,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="406" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="409"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="406" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="407"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="406" t="s">
+      <c r="I7" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="407"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="406" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="408"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -7616,10 +7623,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -7629,15 +7636,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="384"/>
-      <c r="J8" s="385"/>
+      <c r="I8" s="428"/>
+      <c r="J8" s="429"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="369" t="s">
+      <c r="L8" s="418" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="371" t="s">
+      <c r="M8" s="420" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -7660,27 +7667,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="386">
+      <c r="C9" s="414">
         <v>40100</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="387"/>
-      <c r="F9" s="386">
+      <c r="D9" s="416"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="414">
         <v>40200</v>
       </c>
-      <c r="G9" s="387"/>
+      <c r="G9" s="415"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="386">
+      <c r="I9" s="414">
         <v>40900</v>
       </c>
-      <c r="J9" s="387"/>
+      <c r="J9" s="415"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="370"/>
-      <c r="M9" s="372"/>
+      <c r="L9" s="419"/>
+      <c r="M9" s="421"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -7700,13 +7707,13 @@
       </c>
       <c r="B10" s="308"/>
       <c r="C10" s="309"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="425"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="373"/>
       <c r="F10" s="309"/>
       <c r="G10" s="309"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="426"/>
-      <c r="J10" s="427"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="375"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -7729,13 +7736,13 @@
       </c>
       <c r="B11" s="310"/>
       <c r="C11" s="311"/>
-      <c r="D11" s="422"/>
-      <c r="E11" s="423"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="371"/>
       <c r="F11" s="311"/>
       <c r="G11" s="311"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="428"/>
-      <c r="J11" s="429"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="377"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -7767,13 +7774,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="421"/>
+      <c r="D12" s="368"/>
+      <c r="E12" s="369"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="421"/>
+      <c r="I12" s="368"/>
+      <c r="J12" s="369"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -7802,11 +7809,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="378">
+      <c r="D13" s="422">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="379">
+      <c r="E13" s="423">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7822,11 +7829,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="378">
+      <c r="I13" s="422">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="379">
+      <c r="J13" s="423">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -7859,13 +7866,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="425"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="381"/>
+      <c r="I14" s="424"/>
+      <c r="J14" s="425"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -7895,11 +7902,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="382">
+      <c r="D15" s="426">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="383"/>
+      <c r="E15" s="427"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -7912,11 +7919,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="382">
+      <c r="I15" s="426">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="383"/>
+      <c r="J15" s="427"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7984,22 +7991,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="376">
+      <c r="C17" s="384">
         <v>40200</v>
       </c>
-      <c r="D17" s="416"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="376">
+      <c r="D17" s="385"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="384">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="386"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="376">
+      <c r="I17" s="384">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="386"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -8084,23 +8091,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="378" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="380"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="373" t="s">
+      <c r="E20" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="375"/>
-      <c r="J20" s="373" t="s">
+      <c r="F20" s="379"/>
+      <c r="G20" s="379"/>
+      <c r="H20" s="380"/>
+      <c r="J20" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="374"/>
-      <c r="L20" s="375"/>
+      <c r="K20" s="379"/>
+      <c r="L20" s="380"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -8117,9 +8124,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="396"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="383"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -8150,9 +8157,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="395"/>
-      <c r="G22" s="396"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="383"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -8183,9 +8190,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="396"/>
+      <c r="E23" s="381"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="383"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -8224,9 +8231,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="391"/>
-      <c r="F24" s="392"/>
-      <c r="G24" s="393"/>
+      <c r="E24" s="387"/>
+      <c r="F24" s="388"/>
+      <c r="G24" s="389"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -8257,9 +8264,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="391"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="393"/>
+      <c r="E25" s="387"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="389"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -8372,12 +8379,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="373" t="s">
+      <c r="E28" s="378" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="375"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="380"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -8410,9 +8417,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="396"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="383"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -8433,9 +8440,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="395"/>
-      <c r="G30" s="396"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="383"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -8460,15 +8467,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="417" t="s">
+      <c r="A31" s="390" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="418"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="392"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="391"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="393"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="388"/>
+      <c r="G31" s="389"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -8503,9 +8510,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="391"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="393"/>
+      <c r="E32" s="387"/>
+      <c r="F32" s="388"/>
+      <c r="G32" s="389"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -8528,9 +8535,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="391"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="393"/>
+      <c r="E33" s="387"/>
+      <c r="F33" s="388"/>
+      <c r="G33" s="389"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -8539,14 +8546,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="414" t="s">
+      <c r="N33" s="394" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="414"/>
-      <c r="P33" s="414"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="414"/>
-      <c r="S33" s="414"/>
+      <c r="O33" s="394"/>
+      <c r="P33" s="394"/>
+      <c r="Q33" s="394"/>
+      <c r="R33" s="394"/>
+      <c r="S33" s="394"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -8617,12 +8624,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="373" t="s">
+      <c r="E36" s="378" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="374"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="375"/>
+      <c r="F36" s="379"/>
+      <c r="G36" s="379"/>
+      <c r="H36" s="380"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -8636,20 +8643,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="413"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="413"/>
-      <c r="Q36" s="413"/>
-      <c r="R36" s="413"/>
+      <c r="N36" s="393"/>
+      <c r="O36" s="393"/>
+      <c r="P36" s="393"/>
+      <c r="Q36" s="393"/>
+      <c r="R36" s="393"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="388"/>
-      <c r="F37" s="389"/>
-      <c r="G37" s="390"/>
+      <c r="E37" s="396"/>
+      <c r="F37" s="397"/>
+      <c r="G37" s="398"/>
       <c r="H37" s="74"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -8664,23 +8671,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="413"/>
-      <c r="O37" s="413"/>
-      <c r="P37" s="413"/>
-      <c r="Q37" s="413"/>
-      <c r="R37" s="413"/>
+      <c r="N37" s="393"/>
+      <c r="O37" s="393"/>
+      <c r="P37" s="393"/>
+      <c r="Q37" s="393"/>
+      <c r="R37" s="393"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="415" t="s">
+      <c r="A38" s="395" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="415"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="388"/>
-      <c r="F38" s="389"/>
-      <c r="G38" s="390"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -8692,11 +8699,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="413"/>
-      <c r="O38" s="413"/>
-      <c r="P38" s="413"/>
-      <c r="Q38" s="413"/>
-      <c r="R38" s="413"/>
+      <c r="N38" s="393"/>
+      <c r="O38" s="393"/>
+      <c r="P38" s="393"/>
+      <c r="Q38" s="393"/>
+      <c r="R38" s="393"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8709,9 +8716,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="388"/>
-      <c r="F39" s="389"/>
-      <c r="G39" s="390"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -8744,9 +8751,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="388"/>
-      <c r="F40" s="389"/>
-      <c r="G40" s="390"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -8777,9 +8784,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="388"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="390"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -8794,14 +8801,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="414" t="s">
+      <c r="N41" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="414"/>
-      <c r="P41" s="414"/>
-      <c r="Q41" s="414"/>
-      <c r="R41" s="414"/>
-      <c r="S41" s="414"/>
+      <c r="O41" s="394"/>
+      <c r="P41" s="394"/>
+      <c r="Q41" s="394"/>
+      <c r="R41" s="394"/>
+      <c r="S41" s="394"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -8827,11 +8834,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="413"/>
-      <c r="O42" s="413"/>
-      <c r="P42" s="413"/>
-      <c r="Q42" s="413"/>
-      <c r="R42" s="413"/>
+      <c r="N42" s="393"/>
+      <c r="O42" s="393"/>
+      <c r="P42" s="393"/>
+      <c r="Q42" s="393"/>
+      <c r="R42" s="393"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -8854,11 +8861,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="413"/>
-      <c r="O43" s="413"/>
-      <c r="P43" s="413"/>
-      <c r="Q43" s="413"/>
-      <c r="R43" s="413"/>
+      <c r="N43" s="393"/>
+      <c r="O43" s="393"/>
+      <c r="P43" s="393"/>
+      <c r="Q43" s="393"/>
+      <c r="R43" s="393"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -8882,11 +8889,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="413"/>
-      <c r="O44" s="413"/>
-      <c r="P44" s="413"/>
-      <c r="Q44" s="413"/>
-      <c r="R44" s="413"/>
+      <c r="N44" s="393"/>
+      <c r="O44" s="393"/>
+      <c r="P44" s="393"/>
+      <c r="Q44" s="393"/>
+      <c r="R44" s="393"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -8913,11 +8920,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="413"/>
-      <c r="O45" s="413"/>
-      <c r="P45" s="413"/>
-      <c r="Q45" s="413"/>
-      <c r="R45" s="413"/>
+      <c r="N45" s="393"/>
+      <c r="O45" s="393"/>
+      <c r="P45" s="393"/>
+      <c r="Q45" s="393"/>
+      <c r="R45" s="393"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -8937,11 +8944,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="413"/>
-      <c r="O46" s="413"/>
-      <c r="P46" s="413"/>
-      <c r="Q46" s="413"/>
-      <c r="R46" s="413"/>
+      <c r="N46" s="393"/>
+      <c r="O46" s="393"/>
+      <c r="P46" s="393"/>
+      <c r="Q46" s="393"/>
+      <c r="R46" s="393"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -9056,20 +9063,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="368">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="368"/>
-      <c r="G51" s="368"/>
-      <c r="H51" s="368"/>
-      <c r="J51" s="368">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="368"/>
-      <c r="L51" s="368"/>
-      <c r="M51" s="368"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -10574,6 +10581,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -10590,59 +10648,8 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="44" orientation="portrait" verticalDpi="598" r:id="rId1"/>
   <headerFooter>
@@ -10691,49 +10698,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="397"/>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397"/>
-      <c r="S1" s="397"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
-      <c r="M2" s="398"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="399"/>
-      <c r="P2" s="400" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="402"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10744,14 +10751,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -10775,12 +10782,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="403"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="405"/>
-      <c r="K4" s="405"/>
-      <c r="L4" s="405"/>
-      <c r="M4" s="405"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -10856,29 +10863,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="406" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="409"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="406" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="407"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="406" t="s">
+      <c r="I7" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="407"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="406" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="408"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -10898,10 +10905,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -10911,15 +10918,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="384"/>
-      <c r="J8" s="385"/>
+      <c r="I8" s="428"/>
+      <c r="J8" s="429"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="369" t="s">
+      <c r="L8" s="418" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="371" t="s">
+      <c r="M8" s="420" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -10942,27 +10949,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="386">
+      <c r="C9" s="414">
         <v>40100</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="387"/>
-      <c r="F9" s="386">
+      <c r="D9" s="416"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="414">
         <v>40200</v>
       </c>
-      <c r="G9" s="387"/>
+      <c r="G9" s="415"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="386">
+      <c r="I9" s="414">
         <v>40900</v>
       </c>
-      <c r="J9" s="387"/>
+      <c r="J9" s="415"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="370"/>
-      <c r="M9" s="372"/>
+      <c r="L9" s="419"/>
+      <c r="M9" s="421"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -10982,13 +10989,13 @@
       </c>
       <c r="B10" s="308"/>
       <c r="C10" s="309"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="425"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="373"/>
       <c r="F10" s="309"/>
       <c r="G10" s="309"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="426"/>
-      <c r="J10" s="427"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="375"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -11011,13 +11018,13 @@
       </c>
       <c r="B11" s="310"/>
       <c r="C11" s="311"/>
-      <c r="D11" s="422"/>
-      <c r="E11" s="423"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="371"/>
       <c r="F11" s="311"/>
       <c r="G11" s="311"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="428"/>
-      <c r="J11" s="429"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="377"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -11049,13 +11056,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="421"/>
+      <c r="D12" s="368"/>
+      <c r="E12" s="369"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="421"/>
+      <c r="I12" s="368"/>
+      <c r="J12" s="369"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -11084,11 +11091,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="378">
+      <c r="D13" s="422">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="379">
+      <c r="E13" s="423">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11104,11 +11111,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="378">
+      <c r="I13" s="422">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="379">
+      <c r="J13" s="423">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -11141,13 +11148,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="425"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="381"/>
+      <c r="I14" s="424"/>
+      <c r="J14" s="425"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -11177,11 +11184,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="382">
+      <c r="D15" s="426">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="383"/>
+      <c r="E15" s="427"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -11194,11 +11201,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="382">
+      <c r="I15" s="426">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="383"/>
+      <c r="J15" s="427"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -11266,22 +11273,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="376">
+      <c r="C17" s="384">
         <v>40200</v>
       </c>
-      <c r="D17" s="416"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="376">
+      <c r="D17" s="385"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="384">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="386"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="376">
+      <c r="I17" s="384">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="386"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -11366,23 +11373,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="378" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="380"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="373" t="s">
+      <c r="E20" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="375"/>
-      <c r="J20" s="373" t="s">
+      <c r="F20" s="379"/>
+      <c r="G20" s="379"/>
+      <c r="H20" s="380"/>
+      <c r="J20" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="374"/>
-      <c r="L20" s="375"/>
+      <c r="K20" s="379"/>
+      <c r="L20" s="380"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -11402,9 +11409,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="396"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="383"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -11435,9 +11442,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="395"/>
-      <c r="G22" s="396"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="383"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -11468,9 +11475,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="396"/>
+      <c r="E23" s="381"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="383"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -11509,9 +11516,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="391"/>
-      <c r="F24" s="392"/>
-      <c r="G24" s="393"/>
+      <c r="E24" s="387"/>
+      <c r="F24" s="388"/>
+      <c r="G24" s="389"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -11542,9 +11549,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="391"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="393"/>
+      <c r="E25" s="387"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="389"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -11657,12 +11664,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="373" t="s">
+      <c r="E28" s="378" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="375"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="380"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -11695,9 +11702,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="396"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="383"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -11718,9 +11725,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="395"/>
-      <c r="G30" s="396"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="383"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -11745,15 +11752,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="417" t="s">
+      <c r="A31" s="390" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="418"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="392"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="391"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="393"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="388"/>
+      <c r="G31" s="389"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -11788,9 +11795,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="391"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="393"/>
+      <c r="E32" s="387"/>
+      <c r="F32" s="388"/>
+      <c r="G32" s="389"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -11813,9 +11820,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="391"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="393"/>
+      <c r="E33" s="387"/>
+      <c r="F33" s="388"/>
+      <c r="G33" s="389"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -11824,14 +11831,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="414" t="s">
+      <c r="N33" s="394" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="414"/>
-      <c r="P33" s="414"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="414"/>
-      <c r="S33" s="414"/>
+      <c r="O33" s="394"/>
+      <c r="P33" s="394"/>
+      <c r="Q33" s="394"/>
+      <c r="R33" s="394"/>
+      <c r="S33" s="394"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -11859,11 +11866,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="413"/>
-      <c r="O34" s="413"/>
-      <c r="P34" s="413"/>
-      <c r="Q34" s="413"/>
-      <c r="R34" s="413"/>
+      <c r="N34" s="393"/>
+      <c r="O34" s="393"/>
+      <c r="P34" s="393"/>
+      <c r="Q34" s="393"/>
+      <c r="R34" s="393"/>
       <c r="S34" s="55"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -11890,11 +11897,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="413"/>
-      <c r="O35" s="413"/>
-      <c r="P35" s="413"/>
-      <c r="Q35" s="413"/>
-      <c r="R35" s="413"/>
+      <c r="N35" s="393"/>
+      <c r="O35" s="393"/>
+      <c r="P35" s="393"/>
+      <c r="Q35" s="393"/>
+      <c r="R35" s="393"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -11902,12 +11909,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="373" t="s">
+      <c r="E36" s="378" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="374"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="375"/>
+      <c r="F36" s="379"/>
+      <c r="G36" s="379"/>
+      <c r="H36" s="380"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -11921,20 +11928,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="413"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="413"/>
-      <c r="Q36" s="413"/>
-      <c r="R36" s="413"/>
+      <c r="N36" s="393"/>
+      <c r="O36" s="393"/>
+      <c r="P36" s="393"/>
+      <c r="Q36" s="393"/>
+      <c r="R36" s="393"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="388"/>
-      <c r="F37" s="389"/>
-      <c r="G37" s="390"/>
+      <c r="E37" s="396"/>
+      <c r="F37" s="397"/>
+      <c r="G37" s="398"/>
       <c r="H37" s="74"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -11949,23 +11956,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="413"/>
-      <c r="O37" s="413"/>
-      <c r="P37" s="413"/>
-      <c r="Q37" s="413"/>
-      <c r="R37" s="413"/>
+      <c r="N37" s="393"/>
+      <c r="O37" s="393"/>
+      <c r="P37" s="393"/>
+      <c r="Q37" s="393"/>
+      <c r="R37" s="393"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="415" t="s">
+      <c r="A38" s="395" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="415"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="388"/>
-      <c r="F38" s="389"/>
-      <c r="G38" s="390"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -11977,11 +11984,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="413"/>
-      <c r="O38" s="413"/>
-      <c r="P38" s="413"/>
-      <c r="Q38" s="413"/>
-      <c r="R38" s="413"/>
+      <c r="N38" s="393"/>
+      <c r="O38" s="393"/>
+      <c r="P38" s="393"/>
+      <c r="Q38" s="393"/>
+      <c r="R38" s="393"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11994,9 +12001,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="388"/>
-      <c r="F39" s="389"/>
-      <c r="G39" s="390"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -12029,9 +12036,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="388"/>
-      <c r="F40" s="389"/>
-      <c r="G40" s="390"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -12062,9 +12069,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="388"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="390"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -12079,14 +12086,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="414" t="s">
+      <c r="N41" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="414"/>
-      <c r="P41" s="414"/>
-      <c r="Q41" s="414"/>
-      <c r="R41" s="414"/>
-      <c r="S41" s="414"/>
+      <c r="O41" s="394"/>
+      <c r="P41" s="394"/>
+      <c r="Q41" s="394"/>
+      <c r="R41" s="394"/>
+      <c r="S41" s="394"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -12112,11 +12119,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="413"/>
-      <c r="O42" s="413"/>
-      <c r="P42" s="413"/>
-      <c r="Q42" s="413"/>
-      <c r="R42" s="413"/>
+      <c r="N42" s="393"/>
+      <c r="O42" s="393"/>
+      <c r="P42" s="393"/>
+      <c r="Q42" s="393"/>
+      <c r="R42" s="393"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -12139,11 +12146,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="413"/>
-      <c r="O43" s="413"/>
-      <c r="P43" s="413"/>
-      <c r="Q43" s="413"/>
-      <c r="R43" s="413"/>
+      <c r="N43" s="393"/>
+      <c r="O43" s="393"/>
+      <c r="P43" s="393"/>
+      <c r="Q43" s="393"/>
+      <c r="R43" s="393"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -12167,11 +12174,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="413"/>
-      <c r="O44" s="413"/>
-      <c r="P44" s="413"/>
-      <c r="Q44" s="413"/>
-      <c r="R44" s="413"/>
+      <c r="N44" s="393"/>
+      <c r="O44" s="393"/>
+      <c r="P44" s="393"/>
+      <c r="Q44" s="393"/>
+      <c r="R44" s="393"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -12198,11 +12205,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="413"/>
-      <c r="O45" s="413"/>
-      <c r="P45" s="413"/>
-      <c r="Q45" s="413"/>
-      <c r="R45" s="413"/>
+      <c r="N45" s="393"/>
+      <c r="O45" s="393"/>
+      <c r="P45" s="393"/>
+      <c r="Q45" s="393"/>
+      <c r="R45" s="393"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -12222,11 +12229,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="413"/>
-      <c r="O46" s="413"/>
-      <c r="P46" s="413"/>
-      <c r="Q46" s="413"/>
-      <c r="R46" s="413"/>
+      <c r="N46" s="393"/>
+      <c r="O46" s="393"/>
+      <c r="P46" s="393"/>
+      <c r="Q46" s="393"/>
+      <c r="R46" s="393"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -12340,20 +12347,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="368">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="368"/>
-      <c r="G51" s="368"/>
-      <c r="H51" s="368"/>
-      <c r="J51" s="368">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="368"/>
-      <c r="L51" s="368"/>
-      <c r="M51" s="368"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -13843,60 +13850,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -13910,8 +13863,62 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
   </mergeCells>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="portrait" verticalDpi="598" r:id="rId1"/>
   <headerFooter>
@@ -13959,49 +13966,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="397"/>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397"/>
-      <c r="S1" s="397"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
-      <c r="M2" s="398"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="399"/>
-      <c r="P2" s="400" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="402"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14012,14 +14019,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -14043,12 +14050,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="403"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="405"/>
-      <c r="K4" s="405"/>
-      <c r="L4" s="405"/>
-      <c r="M4" s="405"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -14124,29 +14131,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="406" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="409"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="406" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="407"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="406" t="s">
+      <c r="I7" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="407"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="406" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="408"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -14166,10 +14173,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -14179,15 +14186,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="384"/>
-      <c r="J8" s="385"/>
+      <c r="I8" s="428"/>
+      <c r="J8" s="429"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="369" t="s">
+      <c r="L8" s="418" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="371" t="s">
+      <c r="M8" s="420" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -14210,27 +14217,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="386">
+      <c r="C9" s="414">
         <v>40100</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="387"/>
-      <c r="F9" s="386">
+      <c r="D9" s="416"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="414">
         <v>40200</v>
       </c>
-      <c r="G9" s="387"/>
+      <c r="G9" s="415"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="386">
+      <c r="I9" s="414">
         <v>40900</v>
       </c>
-      <c r="J9" s="387"/>
+      <c r="J9" s="415"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="370"/>
-      <c r="M9" s="372"/>
+      <c r="L9" s="419"/>
+      <c r="M9" s="421"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -14250,13 +14257,13 @@
       </c>
       <c r="B10" s="308"/>
       <c r="C10" s="309"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="425"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="373"/>
       <c r="F10" s="309"/>
       <c r="G10" s="309"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="426"/>
-      <c r="J10" s="427"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="375"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -14279,13 +14286,13 @@
       </c>
       <c r="B11" s="310"/>
       <c r="C11" s="311"/>
-      <c r="D11" s="422"/>
-      <c r="E11" s="423"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="371"/>
       <c r="F11" s="311"/>
       <c r="G11" s="311"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="428"/>
-      <c r="J11" s="429"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="377"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -14317,13 +14324,13 @@
       </c>
       <c r="B12" s="310"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="422"/>
-      <c r="E12" s="423"/>
+      <c r="D12" s="370"/>
+      <c r="E12" s="371"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="421"/>
+      <c r="I12" s="368"/>
+      <c r="J12" s="369"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -14352,11 +14359,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="378">
+      <c r="D13" s="422">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="379">
+      <c r="E13" s="423">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14372,11 +14379,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="378">
+      <c r="I13" s="422">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="379">
+      <c r="J13" s="423">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -14409,13 +14416,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="425"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="381"/>
+      <c r="I14" s="424"/>
+      <c r="J14" s="425"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -14445,11 +14452,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="382">
+      <c r="D15" s="426">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="383"/>
+      <c r="E15" s="427"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -14462,11 +14469,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="382">
+      <c r="I15" s="426">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="383"/>
+      <c r="J15" s="427"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -14534,22 +14541,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="376">
+      <c r="C17" s="384">
         <v>40200</v>
       </c>
-      <c r="D17" s="416"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="376">
+      <c r="D17" s="385"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="384">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="386"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="376">
+      <c r="I17" s="384">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="386"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -14634,23 +14641,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="378" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="380"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="373" t="s">
+      <c r="E20" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="375"/>
-      <c r="J20" s="373" t="s">
+      <c r="F20" s="379"/>
+      <c r="G20" s="379"/>
+      <c r="H20" s="380"/>
+      <c r="J20" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="374"/>
-      <c r="L20" s="375"/>
+      <c r="K20" s="379"/>
+      <c r="L20" s="380"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -14670,9 +14677,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="396"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="383"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -14703,9 +14710,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="395"/>
-      <c r="G22" s="396"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="383"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -14736,9 +14743,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="396"/>
+      <c r="E23" s="381"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="383"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -14777,9 +14784,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="391"/>
-      <c r="F24" s="392"/>
-      <c r="G24" s="393"/>
+      <c r="E24" s="387"/>
+      <c r="F24" s="388"/>
+      <c r="G24" s="389"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -14810,9 +14817,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="391"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="393"/>
+      <c r="E25" s="387"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="389"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -14926,12 +14933,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="373" t="s">
+      <c r="E28" s="378" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="375"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="380"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -14964,9 +14971,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="396"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="383"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -14987,9 +14994,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="395"/>
-      <c r="G30" s="396"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="383"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -15014,15 +15021,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="417" t="s">
+      <c r="A31" s="390" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="418"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="392"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="391"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="393"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="388"/>
+      <c r="G31" s="389"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -15057,9 +15064,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="391"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="393"/>
+      <c r="E32" s="387"/>
+      <c r="F32" s="388"/>
+      <c r="G32" s="389"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -15082,9 +15089,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="391"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="393"/>
+      <c r="E33" s="387"/>
+      <c r="F33" s="388"/>
+      <c r="G33" s="389"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -15093,14 +15100,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="414" t="s">
+      <c r="N33" s="394" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="414"/>
-      <c r="P33" s="414"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="414"/>
-      <c r="S33" s="414"/>
+      <c r="O33" s="394"/>
+      <c r="P33" s="394"/>
+      <c r="Q33" s="394"/>
+      <c r="R33" s="394"/>
+      <c r="S33" s="394"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -15154,11 +15161,11 @@
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="413"/>
-      <c r="O35" s="413"/>
-      <c r="P35" s="413"/>
-      <c r="Q35" s="413"/>
-      <c r="R35" s="413"/>
+      <c r="N35" s="393"/>
+      <c r="O35" s="393"/>
+      <c r="P35" s="393"/>
+      <c r="Q35" s="393"/>
+      <c r="R35" s="393"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -15166,12 +15173,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="49"/>
-      <c r="E36" s="373" t="s">
+      <c r="E36" s="378" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="374"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="375"/>
+      <c r="F36" s="379"/>
+      <c r="G36" s="379"/>
+      <c r="H36" s="380"/>
       <c r="I36" s="30"/>
       <c r="J36" s="51" t="s">
         <v>40</v>
@@ -15182,11 +15189,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="413"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="413"/>
-      <c r="Q36" s="413"/>
-      <c r="R36" s="413"/>
+      <c r="N36" s="393"/>
+      <c r="O36" s="393"/>
+      <c r="P36" s="393"/>
+      <c r="Q36" s="393"/>
+      <c r="R36" s="393"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -15194,9 +15201,9 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="388"/>
-      <c r="F37" s="389"/>
-      <c r="G37" s="390"/>
+      <c r="E37" s="396"/>
+      <c r="F37" s="397"/>
+      <c r="G37" s="398"/>
       <c r="H37" s="253"/>
       <c r="I37" s="54"/>
       <c r="J37" s="43" t="s">
@@ -15211,22 +15218,22 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="413"/>
-      <c r="O37" s="413"/>
-      <c r="P37" s="413"/>
-      <c r="Q37" s="413"/>
-      <c r="R37" s="413"/>
+      <c r="N37" s="393"/>
+      <c r="O37" s="393"/>
+      <c r="P37" s="393"/>
+      <c r="Q37" s="393"/>
+      <c r="R37" s="393"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="415" t="s">
+      <c r="A38" s="395" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="415"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="2"/>
-      <c r="E38" s="388"/>
-      <c r="F38" s="389"/>
-      <c r="G38" s="390"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="26"/>
       <c r="J38" s="43" t="s">
@@ -15241,11 +15248,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="25"/>
-      <c r="N38" s="413"/>
-      <c r="O38" s="413"/>
-      <c r="P38" s="413"/>
-      <c r="Q38" s="413"/>
-      <c r="R38" s="413"/>
+      <c r="N38" s="393"/>
+      <c r="O38" s="393"/>
+      <c r="P38" s="393"/>
+      <c r="Q38" s="393"/>
+      <c r="R38" s="393"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -15258,9 +15265,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="388"/>
-      <c r="F39" s="389"/>
-      <c r="G39" s="390"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -15272,11 +15279,11 @@
         <v>0</v>
       </c>
       <c r="M39" s="56"/>
-      <c r="N39" s="413"/>
-      <c r="O39" s="413"/>
-      <c r="P39" s="413"/>
-      <c r="Q39" s="413"/>
-      <c r="R39" s="413"/>
+      <c r="N39" s="393"/>
+      <c r="O39" s="393"/>
+      <c r="P39" s="393"/>
+      <c r="Q39" s="393"/>
+      <c r="R39" s="393"/>
       <c r="S39" s="77"/>
     </row>
     <row r="40" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15289,9 +15296,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="388"/>
-      <c r="F40" s="389"/>
-      <c r="G40" s="390"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -15321,9 +15328,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="388"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="390"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -15372,14 +15379,14 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="414" t="s">
+      <c r="N42" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="O42" s="414"/>
-      <c r="P42" s="414"/>
-      <c r="Q42" s="414"/>
-      <c r="R42" s="414"/>
-      <c r="S42" s="414"/>
+      <c r="O42" s="394"/>
+      <c r="P42" s="394"/>
+      <c r="Q42" s="394"/>
+      <c r="R42" s="394"/>
+      <c r="S42" s="394"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
     </row>
@@ -15401,11 +15408,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="413"/>
-      <c r="O43" s="413"/>
-      <c r="P43" s="413"/>
-      <c r="Q43" s="413"/>
-      <c r="R43" s="413"/>
+      <c r="N43" s="393"/>
+      <c r="O43" s="393"/>
+      <c r="P43" s="393"/>
+      <c r="Q43" s="393"/>
+      <c r="R43" s="393"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -15431,11 +15438,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="413"/>
-      <c r="O44" s="413"/>
-      <c r="P44" s="413"/>
-      <c r="Q44" s="413"/>
-      <c r="R44" s="413"/>
+      <c r="N44" s="393"/>
+      <c r="O44" s="393"/>
+      <c r="P44" s="393"/>
+      <c r="Q44" s="393"/>
+      <c r="R44" s="393"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -15462,11 +15469,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="413"/>
-      <c r="O45" s="413"/>
-      <c r="P45" s="413"/>
-      <c r="Q45" s="413"/>
-      <c r="R45" s="413"/>
+      <c r="N45" s="393"/>
+      <c r="O45" s="393"/>
+      <c r="P45" s="393"/>
+      <c r="Q45" s="393"/>
+      <c r="R45" s="393"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -15490,11 +15497,11 @@
         <v>0</v>
       </c>
       <c r="M46" s="25"/>
-      <c r="N46" s="413"/>
-      <c r="O46" s="413"/>
-      <c r="P46" s="413"/>
-      <c r="Q46" s="413"/>
-      <c r="R46" s="413"/>
+      <c r="N46" s="393"/>
+      <c r="O46" s="393"/>
+      <c r="P46" s="393"/>
+      <c r="Q46" s="393"/>
+      <c r="R46" s="393"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -15517,11 +15524,11 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="M47" s="25"/>
-      <c r="N47" s="413"/>
-      <c r="O47" s="413"/>
-      <c r="P47" s="413"/>
-      <c r="Q47" s="413"/>
-      <c r="R47" s="413"/>
+      <c r="N47" s="393"/>
+      <c r="O47" s="393"/>
+      <c r="P47" s="393"/>
+      <c r="Q47" s="393"/>
+      <c r="R47" s="393"/>
       <c r="S47" s="77"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -15603,13 +15610,13 @@
       </c>
       <c r="B51" s="68"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="368">
+      <c r="E51" s="417">
         <f>+J52</f>
         <v>0</v>
       </c>
-      <c r="F51" s="368"/>
-      <c r="G51" s="368"/>
-      <c r="H51" s="368"/>
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
       <c r="I51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -15625,13 +15632,13 @@
       <c r="F52" s="235"/>
       <c r="G52" s="235"/>
       <c r="H52" s="188"/>
-      <c r="J52" s="368">
+      <c r="J52" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K52" s="368"/>
-      <c r="L52" s="368"/>
-      <c r="M52" s="368"/>
+      <c r="K52" s="417"/>
+      <c r="L52" s="417"/>
+      <c r="M52" s="417"/>
       <c r="S52" s="69"/>
     </row>
     <row r="53" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -17212,6 +17219,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J52:M52"/>
     <mergeCell ref="C7:E7"/>
@@ -17228,57 +17286,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="portrait" verticalDpi="598" r:id="rId1"/>
@@ -17329,49 +17336,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="397"/>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397"/>
-      <c r="S1" s="397"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
-      <c r="M2" s="398"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="399"/>
-      <c r="P2" s="400" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="402"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17382,14 +17389,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -17413,12 +17420,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="403"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="405"/>
-      <c r="K4" s="405"/>
-      <c r="L4" s="405"/>
-      <c r="M4" s="405"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -17494,29 +17501,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="406" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="409"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="406" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="407"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="406" t="s">
+      <c r="I7" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="407"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="406" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="408"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -17536,10 +17543,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -17549,15 +17556,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="384"/>
-      <c r="J8" s="385"/>
+      <c r="I8" s="428"/>
+      <c r="J8" s="429"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="369" t="s">
+      <c r="L8" s="418" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="371" t="s">
+      <c r="M8" s="420" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -17580,27 +17587,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="386">
+      <c r="C9" s="414">
         <v>40100</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="387"/>
-      <c r="F9" s="386">
+      <c r="D9" s="416"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="414">
         <v>40200</v>
       </c>
-      <c r="G9" s="387"/>
+      <c r="G9" s="415"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="386">
+      <c r="I9" s="414">
         <v>40900</v>
       </c>
-      <c r="J9" s="387"/>
+      <c r="J9" s="415"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="370"/>
-      <c r="M9" s="372"/>
+      <c r="L9" s="419"/>
+      <c r="M9" s="421"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -17620,13 +17627,13 @@
       </c>
       <c r="B10" s="308"/>
       <c r="C10" s="309"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="425"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="373"/>
       <c r="F10" s="309"/>
       <c r="G10" s="309"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="426"/>
-      <c r="J10" s="427"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="375"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -17649,13 +17656,13 @@
       </c>
       <c r="B11" s="310"/>
       <c r="C11" s="311"/>
-      <c r="D11" s="422"/>
-      <c r="E11" s="423"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="371"/>
       <c r="F11" s="311"/>
       <c r="G11" s="311"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="428"/>
-      <c r="J11" s="429"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="377"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -17687,13 +17694,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="421"/>
+      <c r="D12" s="368"/>
+      <c r="E12" s="369"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="421"/>
+      <c r="I12" s="368"/>
+      <c r="J12" s="369"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -17722,11 +17729,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="378">
+      <c r="D13" s="422">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="379">
+      <c r="E13" s="423">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17742,11 +17749,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="378">
+      <c r="I13" s="422">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="379">
+      <c r="J13" s="423">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -17779,13 +17786,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="425"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="381"/>
+      <c r="I14" s="424"/>
+      <c r="J14" s="425"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -17815,11 +17822,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="382">
+      <c r="D15" s="426">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="383"/>
+      <c r="E15" s="427"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -17832,11 +17839,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="382">
+      <c r="I15" s="426">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="383"/>
+      <c r="J15" s="427"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -17904,22 +17911,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="376">
+      <c r="C17" s="384">
         <v>40200</v>
       </c>
-      <c r="D17" s="416"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="376">
+      <c r="D17" s="385"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="384">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="386"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="376">
+      <c r="I17" s="384">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="386"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -18004,23 +18011,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="378" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="380"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="373" t="s">
+      <c r="E20" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="375"/>
-      <c r="J20" s="373" t="s">
+      <c r="F20" s="379"/>
+      <c r="G20" s="379"/>
+      <c r="H20" s="380"/>
+      <c r="J20" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="374"/>
-      <c r="L20" s="375"/>
+      <c r="K20" s="379"/>
+      <c r="L20" s="380"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -18040,9 +18047,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="396"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="383"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -18073,9 +18080,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="395"/>
-      <c r="G22" s="396"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="383"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -18106,9 +18113,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="396"/>
+      <c r="E23" s="381"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="383"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -18147,9 +18154,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="394"/>
-      <c r="F24" s="395"/>
-      <c r="G24" s="396"/>
+      <c r="E24" s="381"/>
+      <c r="F24" s="382"/>
+      <c r="G24" s="383"/>
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -18180,9 +18187,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="391"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="393"/>
+      <c r="E25" s="387"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="389"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -18295,12 +18302,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="373" t="s">
+      <c r="E28" s="378" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="375"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="380"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -18333,9 +18340,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="396"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="383"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -18356,9 +18363,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="395"/>
-      <c r="G30" s="396"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="383"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -18383,15 +18390,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="417" t="s">
+      <c r="A31" s="390" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="418"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="392"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="391"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="393"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="388"/>
+      <c r="G31" s="389"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -18426,9 +18433,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="391"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="393"/>
+      <c r="E32" s="387"/>
+      <c r="F32" s="388"/>
+      <c r="G32" s="389"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -18451,9 +18458,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="391"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="393"/>
+      <c r="E33" s="387"/>
+      <c r="F33" s="388"/>
+      <c r="G33" s="389"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -18462,14 +18469,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="414" t="s">
+      <c r="N33" s="394" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="414"/>
-      <c r="P33" s="414"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="414"/>
-      <c r="S33" s="414"/>
+      <c r="O33" s="394"/>
+      <c r="P33" s="394"/>
+      <c r="Q33" s="394"/>
+      <c r="R33" s="394"/>
+      <c r="S33" s="394"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -18528,11 +18535,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="413"/>
-      <c r="O35" s="413"/>
-      <c r="P35" s="413"/>
-      <c r="Q35" s="413"/>
-      <c r="R35" s="413"/>
+      <c r="N35" s="393"/>
+      <c r="O35" s="393"/>
+      <c r="P35" s="393"/>
+      <c r="Q35" s="393"/>
+      <c r="R35" s="393"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -18540,12 +18547,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="373" t="s">
+      <c r="E36" s="378" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="374"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="375"/>
+      <c r="F36" s="379"/>
+      <c r="G36" s="379"/>
+      <c r="H36" s="380"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -18559,22 +18566,22 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="413"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="413"/>
-      <c r="Q36" s="413"/>
-      <c r="R36" s="413"/>
+      <c r="N36" s="393"/>
+      <c r="O36" s="393"/>
+      <c r="P36" s="393"/>
+      <c r="Q36" s="393"/>
+      <c r="R36" s="393"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="394" t="s">
+      <c r="E37" s="381" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="395"/>
-      <c r="G37" s="396"/>
+      <c r="F37" s="382"/>
+      <c r="G37" s="383"/>
       <c r="H37" s="253"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -18589,23 +18596,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="413"/>
-      <c r="O37" s="413"/>
-      <c r="P37" s="413"/>
-      <c r="Q37" s="413"/>
-      <c r="R37" s="413"/>
+      <c r="N37" s="393"/>
+      <c r="O37" s="393"/>
+      <c r="P37" s="393"/>
+      <c r="Q37" s="393"/>
+      <c r="R37" s="393"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="415" t="s">
+      <c r="A38" s="395" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="415"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="388"/>
-      <c r="F38" s="389"/>
-      <c r="G38" s="390"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -18617,11 +18624,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="413"/>
-      <c r="O38" s="413"/>
-      <c r="P38" s="413"/>
-      <c r="Q38" s="413"/>
-      <c r="R38" s="413"/>
+      <c r="N38" s="393"/>
+      <c r="O38" s="393"/>
+      <c r="P38" s="393"/>
+      <c r="Q38" s="393"/>
+      <c r="R38" s="393"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18634,9 +18641,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="388"/>
-      <c r="F39" s="389"/>
-      <c r="G39" s="390"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -18669,9 +18676,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="388"/>
-      <c r="F40" s="389"/>
-      <c r="G40" s="390"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -18702,9 +18709,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="388"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="390"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -18719,14 +18726,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="414" t="s">
+      <c r="N41" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="414"/>
-      <c r="P41" s="414"/>
-      <c r="Q41" s="414"/>
-      <c r="R41" s="414"/>
-      <c r="S41" s="414"/>
+      <c r="O41" s="394"/>
+      <c r="P41" s="394"/>
+      <c r="Q41" s="394"/>
+      <c r="R41" s="394"/>
+      <c r="S41" s="394"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -18752,11 +18759,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="413"/>
-      <c r="O42" s="413"/>
-      <c r="P42" s="413"/>
-      <c r="Q42" s="413"/>
-      <c r="R42" s="413"/>
+      <c r="N42" s="393"/>
+      <c r="O42" s="393"/>
+      <c r="P42" s="393"/>
+      <c r="Q42" s="393"/>
+      <c r="R42" s="393"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -18779,11 +18786,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="413"/>
-      <c r="O43" s="413"/>
-      <c r="P43" s="413"/>
-      <c r="Q43" s="413"/>
-      <c r="R43" s="413"/>
+      <c r="N43" s="393"/>
+      <c r="O43" s="393"/>
+      <c r="P43" s="393"/>
+      <c r="Q43" s="393"/>
+      <c r="R43" s="393"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -18807,11 +18814,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="413"/>
-      <c r="O44" s="413"/>
-      <c r="P44" s="413"/>
-      <c r="Q44" s="413"/>
-      <c r="R44" s="413"/>
+      <c r="N44" s="393"/>
+      <c r="O44" s="393"/>
+      <c r="P44" s="393"/>
+      <c r="Q44" s="393"/>
+      <c r="R44" s="393"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -18839,11 +18846,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="413"/>
-      <c r="O45" s="413"/>
-      <c r="P45" s="413"/>
-      <c r="Q45" s="413"/>
-      <c r="R45" s="413"/>
+      <c r="N45" s="393"/>
+      <c r="O45" s="393"/>
+      <c r="P45" s="393"/>
+      <c r="Q45" s="393"/>
+      <c r="R45" s="393"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -18863,11 +18870,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="413"/>
-      <c r="O46" s="413"/>
-      <c r="P46" s="413"/>
-      <c r="Q46" s="413"/>
-      <c r="R46" s="413"/>
+      <c r="N46" s="393"/>
+      <c r="O46" s="393"/>
+      <c r="P46" s="393"/>
+      <c r="Q46" s="393"/>
+      <c r="R46" s="393"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -18982,20 +18989,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="368">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="368"/>
-      <c r="G51" s="368"/>
-      <c r="H51" s="368"/>
-      <c r="J51" s="368">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="368"/>
-      <c r="L51" s="368"/>
-      <c r="M51" s="368"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -20538,6 +20545,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -20554,59 +20612,8 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="44" orientation="portrait" verticalDpi="598" r:id="rId1"/>
   <headerFooter>
@@ -20657,49 +20664,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="397"/>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397"/>
-      <c r="S1" s="397"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
-      <c r="M2" s="398"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="399"/>
-      <c r="P2" s="400" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="402"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20710,14 +20717,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -20741,12 +20748,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="403"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="405"/>
-      <c r="K4" s="405"/>
-      <c r="L4" s="405"/>
-      <c r="M4" s="405"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -20822,29 +20829,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="406" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="409"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="406" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="407"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="406" t="s">
+      <c r="I7" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="407"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="406" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="408"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -20864,10 +20871,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -20877,15 +20884,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="384"/>
-      <c r="J8" s="385"/>
+      <c r="I8" s="428"/>
+      <c r="J8" s="429"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="369" t="s">
+      <c r="L8" s="418" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="371" t="s">
+      <c r="M8" s="420" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -20908,27 +20915,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="386">
+      <c r="C9" s="414">
         <v>40100</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="387"/>
-      <c r="F9" s="386">
+      <c r="D9" s="416"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="414">
         <v>40200</v>
       </c>
-      <c r="G9" s="387"/>
+      <c r="G9" s="415"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="386">
+      <c r="I9" s="414">
         <v>40900</v>
       </c>
-      <c r="J9" s="387"/>
+      <c r="J9" s="415"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="370"/>
-      <c r="M9" s="372"/>
+      <c r="L9" s="419"/>
+      <c r="M9" s="421"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -20948,13 +20955,13 @@
       </c>
       <c r="B10" s="270"/>
       <c r="C10" s="271"/>
-      <c r="D10" s="426"/>
-      <c r="E10" s="427"/>
+      <c r="D10" s="374"/>
+      <c r="E10" s="375"/>
       <c r="F10" s="271"/>
       <c r="G10" s="271"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="426"/>
-      <c r="J10" s="427"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="375"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -20977,13 +20984,13 @@
       </c>
       <c r="B11" s="272"/>
       <c r="C11" s="273"/>
-      <c r="D11" s="428"/>
-      <c r="E11" s="429"/>
+      <c r="D11" s="376"/>
+      <c r="E11" s="377"/>
       <c r="F11" s="273"/>
       <c r="G11" s="273"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="428"/>
-      <c r="J11" s="429"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="377"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -21015,13 +21022,13 @@
       </c>
       <c r="B12" s="272"/>
       <c r="C12" s="273"/>
-      <c r="D12" s="428"/>
-      <c r="E12" s="429"/>
+      <c r="D12" s="376"/>
+      <c r="E12" s="377"/>
       <c r="F12" s="269"/>
       <c r="G12" s="273"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="421"/>
+      <c r="I12" s="368"/>
+      <c r="J12" s="369"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -21050,11 +21057,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="378">
+      <c r="D13" s="422">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="379">
+      <c r="E13" s="423">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21070,11 +21077,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="378">
+      <c r="I13" s="422">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="379">
+      <c r="J13" s="423">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -21107,13 +21114,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="425"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="381"/>
+      <c r="I14" s="424"/>
+      <c r="J14" s="425"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -21143,11 +21150,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="382">
+      <c r="D15" s="426">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="383"/>
+      <c r="E15" s="427"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -21160,11 +21167,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="382">
+      <c r="I15" s="426">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="383"/>
+      <c r="J15" s="427"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -21232,22 +21239,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="376">
+      <c r="C17" s="384">
         <v>40200</v>
       </c>
-      <c r="D17" s="416"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="376">
+      <c r="D17" s="385"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="384">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="386"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="376">
+      <c r="I17" s="384">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="386"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -21332,23 +21339,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="378" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="380"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="373" t="s">
+      <c r="E20" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="375"/>
-      <c r="J20" s="373" t="s">
+      <c r="F20" s="379"/>
+      <c r="G20" s="379"/>
+      <c r="H20" s="380"/>
+      <c r="J20" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="374"/>
-      <c r="L20" s="375"/>
+      <c r="K20" s="379"/>
+      <c r="L20" s="380"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -21370,9 +21377,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="396"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="383"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -21403,9 +21410,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="395"/>
-      <c r="G22" s="396"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="383"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -21436,9 +21443,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="396"/>
+      <c r="E23" s="381"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="383"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -21477,9 +21484,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="391"/>
-      <c r="F24" s="392"/>
-      <c r="G24" s="393"/>
+      <c r="E24" s="387"/>
+      <c r="F24" s="388"/>
+      <c r="G24" s="389"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -21510,9 +21517,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="391"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="393"/>
+      <c r="E25" s="387"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="389"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -21626,12 +21633,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="373" t="s">
+      <c r="E28" s="378" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="375"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="380"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -21666,9 +21673,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="396"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="383"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -21689,9 +21696,9 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="395"/>
-      <c r="G30" s="396"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="383"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -21716,15 +21723,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="417" t="s">
+      <c r="A31" s="390" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="418"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="392"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="391"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="393"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="388"/>
+      <c r="G31" s="389"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -21759,9 +21766,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="391"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="393"/>
+      <c r="E32" s="387"/>
+      <c r="F32" s="388"/>
+      <c r="G32" s="389"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -21784,9 +21791,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="391"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="393"/>
+      <c r="E33" s="387"/>
+      <c r="F33" s="388"/>
+      <c r="G33" s="389"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -21795,14 +21802,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="414" t="s">
+      <c r="N33" s="394" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="414"/>
-      <c r="P33" s="414"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="414"/>
-      <c r="S33" s="414"/>
+      <c r="O33" s="394"/>
+      <c r="P33" s="394"/>
+      <c r="Q33" s="394"/>
+      <c r="R33" s="394"/>
+      <c r="S33" s="394"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -21830,11 +21837,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="413"/>
-      <c r="O34" s="413"/>
-      <c r="P34" s="413"/>
-      <c r="Q34" s="413"/>
-      <c r="R34" s="413"/>
+      <c r="N34" s="393"/>
+      <c r="O34" s="393"/>
+      <c r="P34" s="393"/>
+      <c r="Q34" s="393"/>
+      <c r="R34" s="393"/>
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -21861,11 +21868,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="413"/>
-      <c r="O35" s="413"/>
-      <c r="P35" s="413"/>
-      <c r="Q35" s="413"/>
-      <c r="R35" s="413"/>
+      <c r="N35" s="393"/>
+      <c r="O35" s="393"/>
+      <c r="P35" s="393"/>
+      <c r="Q35" s="393"/>
+      <c r="R35" s="393"/>
       <c r="S35" s="77"/>
       <c r="W35" s="206"/>
     </row>
@@ -21874,12 +21881,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="373" t="s">
+      <c r="E36" s="378" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="374"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="375"/>
+      <c r="F36" s="379"/>
+      <c r="G36" s="379"/>
+      <c r="H36" s="380"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -21893,20 +21900,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="413"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="413"/>
-      <c r="Q36" s="413"/>
-      <c r="R36" s="413"/>
+      <c r="N36" s="393"/>
+      <c r="O36" s="393"/>
+      <c r="P36" s="393"/>
+      <c r="Q36" s="393"/>
+      <c r="R36" s="393"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="388"/>
-      <c r="F37" s="389"/>
-      <c r="G37" s="390"/>
+      <c r="E37" s="396"/>
+      <c r="F37" s="397"/>
+      <c r="G37" s="398"/>
       <c r="H37" s="253"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -21921,23 +21928,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="413"/>
-      <c r="O37" s="413"/>
-      <c r="P37" s="413"/>
-      <c r="Q37" s="413"/>
-      <c r="R37" s="413"/>
+      <c r="N37" s="393"/>
+      <c r="O37" s="393"/>
+      <c r="P37" s="393"/>
+      <c r="Q37" s="393"/>
+      <c r="R37" s="393"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="415" t="s">
+      <c r="A38" s="395" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="415"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="388"/>
-      <c r="F38" s="389"/>
-      <c r="G38" s="390"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -21949,11 +21956,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="413"/>
-      <c r="O38" s="413"/>
-      <c r="P38" s="413"/>
-      <c r="Q38" s="413"/>
-      <c r="R38" s="413"/>
+      <c r="N38" s="393"/>
+      <c r="O38" s="393"/>
+      <c r="P38" s="393"/>
+      <c r="Q38" s="393"/>
+      <c r="R38" s="393"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21966,9 +21973,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="388"/>
-      <c r="F39" s="389"/>
-      <c r="G39" s="390"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -21998,9 +22005,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="388"/>
-      <c r="F40" s="389"/>
-      <c r="G40" s="390"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -22031,9 +22038,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="388"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="390"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -22048,14 +22055,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="414" t="s">
+      <c r="N41" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="414"/>
-      <c r="P41" s="414"/>
-      <c r="Q41" s="414"/>
-      <c r="R41" s="414"/>
-      <c r="S41" s="414"/>
+      <c r="O41" s="394"/>
+      <c r="P41" s="394"/>
+      <c r="Q41" s="394"/>
+      <c r="R41" s="394"/>
+      <c r="S41" s="394"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -22081,11 +22088,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="413"/>
-      <c r="O42" s="413"/>
-      <c r="P42" s="413"/>
-      <c r="Q42" s="413"/>
-      <c r="R42" s="413"/>
+      <c r="N42" s="393"/>
+      <c r="O42" s="393"/>
+      <c r="P42" s="393"/>
+      <c r="Q42" s="393"/>
+      <c r="R42" s="393"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -22108,11 +22115,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="413"/>
-      <c r="O43" s="413"/>
-      <c r="P43" s="413"/>
-      <c r="Q43" s="413"/>
-      <c r="R43" s="413"/>
+      <c r="N43" s="393"/>
+      <c r="O43" s="393"/>
+      <c r="P43" s="393"/>
+      <c r="Q43" s="393"/>
+      <c r="R43" s="393"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -22138,11 +22145,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="413"/>
-      <c r="O44" s="413"/>
-      <c r="P44" s="413"/>
-      <c r="Q44" s="413"/>
-      <c r="R44" s="413"/>
+      <c r="N44" s="393"/>
+      <c r="O44" s="393"/>
+      <c r="P44" s="393"/>
+      <c r="Q44" s="393"/>
+      <c r="R44" s="393"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -22169,11 +22176,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="413"/>
-      <c r="O45" s="413"/>
-      <c r="P45" s="413"/>
-      <c r="Q45" s="413"/>
-      <c r="R45" s="413"/>
+      <c r="N45" s="393"/>
+      <c r="O45" s="393"/>
+      <c r="P45" s="393"/>
+      <c r="Q45" s="393"/>
+      <c r="R45" s="393"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -22193,11 +22200,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="413"/>
-      <c r="O46" s="413"/>
-      <c r="P46" s="413"/>
-      <c r="Q46" s="413"/>
-      <c r="R46" s="413"/>
+      <c r="N46" s="393"/>
+      <c r="O46" s="393"/>
+      <c r="P46" s="393"/>
+      <c r="Q46" s="393"/>
+      <c r="R46" s="393"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -22312,20 +22319,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="368">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="368"/>
-      <c r="G51" s="368"/>
-      <c r="H51" s="368"/>
-      <c r="J51" s="368">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="368"/>
-      <c r="L51" s="368"/>
-      <c r="M51" s="368"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -23820,6 +23827,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -23836,59 +23894,8 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="N38:R38"/>
   </mergeCells>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" verticalDpi="598" r:id="rId1"/>
   <headerFooter>
@@ -23936,49 +23943,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="397"/>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397"/>
-      <c r="S1" s="397"/>
+      <c r="A1" s="399"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="399"/>
+      <c r="S1" s="399"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
-      <c r="M2" s="398"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="399"/>
-      <c r="P2" s="400" t="s">
+      <c r="A2" s="400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="402"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23989,14 +23996,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="405" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="105" t="s">
@@ -24020,12 +24027,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="403"/>
+      <c r="H4" s="405"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="405"/>
-      <c r="K4" s="405"/>
-      <c r="L4" s="405"/>
-      <c r="M4" s="405"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="407"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -24101,29 +24108,29 @@
       <c r="B7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="406" t="s">
+      <c r="C7" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="409"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="406" t="s">
+      <c r="D7" s="411"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="407"/>
+      <c r="G7" s="409"/>
       <c r="H7" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="406" t="s">
+      <c r="I7" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="407"/>
+      <c r="J7" s="409"/>
       <c r="K7" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="406" t="s">
+      <c r="L7" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="408"/>
+      <c r="M7" s="410"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -24143,10 +24150,10 @@
       <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="248" t="s">
         <v>13</v>
       </c>
@@ -24156,15 +24163,15 @@
       <c r="H8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="384"/>
-      <c r="J8" s="385"/>
+      <c r="I8" s="428"/>
+      <c r="J8" s="429"/>
       <c r="K8" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="369" t="s">
+      <c r="L8" s="418" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="371" t="s">
+      <c r="M8" s="420" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -24187,27 +24194,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="386">
+      <c r="C9" s="414">
         <v>40100</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="387"/>
-      <c r="F9" s="386">
+      <c r="D9" s="416"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="414">
         <v>40200</v>
       </c>
-      <c r="G9" s="387"/>
+      <c r="G9" s="415"/>
       <c r="H9" s="247">
         <v>40300</v>
       </c>
-      <c r="I9" s="386">
+      <c r="I9" s="414">
         <v>40900</v>
       </c>
-      <c r="J9" s="387"/>
+      <c r="J9" s="415"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="370"/>
-      <c r="M9" s="372"/>
+      <c r="L9" s="419"/>
+      <c r="M9" s="421"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -24227,13 +24234,13 @@
       </c>
       <c r="B10" s="308"/>
       <c r="C10" s="309"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="425"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="373"/>
       <c r="F10" s="309"/>
       <c r="G10" s="309"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="426"/>
-      <c r="J10" s="427"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="375"/>
       <c r="K10" s="268"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -24256,13 +24263,13 @@
       </c>
       <c r="B11" s="310"/>
       <c r="C11" s="311"/>
-      <c r="D11" s="422"/>
-      <c r="E11" s="423"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="371"/>
       <c r="F11" s="311"/>
       <c r="G11" s="311"/>
       <c r="H11" s="273"/>
-      <c r="I11" s="428"/>
-      <c r="J11" s="429"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="377"/>
       <c r="K11" s="266"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -24294,13 +24301,13 @@
       </c>
       <c r="B12" s="274"/>
       <c r="C12" s="269"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="421"/>
+      <c r="D12" s="368"/>
+      <c r="E12" s="369"/>
       <c r="F12" s="269"/>
       <c r="G12" s="269"/>
       <c r="H12" s="269"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="421"/>
+      <c r="I12" s="368"/>
+      <c r="J12" s="369"/>
       <c r="K12" s="267"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -24329,11 +24336,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="378">
+      <c r="D13" s="422">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="379">
+      <c r="E13" s="423">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -24349,11 +24356,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="378">
+      <c r="I13" s="422">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="379">
+      <c r="J13" s="423">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -24386,13 +24393,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="425"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="381"/>
+      <c r="I14" s="424"/>
+      <c r="J14" s="425"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -24422,11 +24429,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="382">
+      <c r="D15" s="426">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="383"/>
+      <c r="E15" s="427"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -24439,11 +24446,11 @@
         <f>H13*0</f>
         <v>0</v>
       </c>
-      <c r="I15" s="382">
+      <c r="I15" s="426">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="383"/>
+      <c r="J15" s="427"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -24510,22 +24517,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="376">
+      <c r="C17" s="384">
         <v>40200</v>
       </c>
-      <c r="D17" s="416"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="376">
+      <c r="D17" s="385"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="384">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="386"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="376">
+      <c r="I17" s="384">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="386"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -24610,23 +24617,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="378" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="380"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="373" t="s">
+      <c r="E20" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="375"/>
-      <c r="J20" s="373" t="s">
+      <c r="F20" s="379"/>
+      <c r="G20" s="379"/>
+      <c r="H20" s="380"/>
+      <c r="J20" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="374"/>
-      <c r="L20" s="375"/>
+      <c r="K20" s="379"/>
+      <c r="L20" s="380"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -24648,9 +24655,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="396"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="383"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -24681,9 +24688,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="395"/>
-      <c r="G22" s="396"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="383"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -24714,9 +24721,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="396"/>
+      <c r="E23" s="381"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="383"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -24755,9 +24762,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="391"/>
-      <c r="F24" s="392"/>
-      <c r="G24" s="393"/>
+      <c r="E24" s="387"/>
+      <c r="F24" s="388"/>
+      <c r="G24" s="389"/>
       <c r="H24" s="77"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -24788,9 +24795,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="391"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="393"/>
+      <c r="E25" s="387"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="389"/>
       <c r="H25" s="77"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -24903,12 +24910,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="373" t="s">
+      <c r="E28" s="378" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="375"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="380"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -24941,9 +24948,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="396"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="383"/>
       <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -24964,9 +24971,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="395"/>
-      <c r="G30" s="396"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="383"/>
       <c r="H30" s="55"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -24991,15 +24998,15 @@
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="417" t="s">
+      <c r="A31" s="390" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="418"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="392"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="391"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="393"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="388"/>
+      <c r="G31" s="389"/>
       <c r="H31" s="77"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -25034,9 +25041,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="391"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="393"/>
+      <c r="E32" s="387"/>
+      <c r="F32" s="388"/>
+      <c r="G32" s="389"/>
       <c r="H32" s="77"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -25059,9 +25066,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="391"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="393"/>
+      <c r="E33" s="387"/>
+      <c r="F33" s="388"/>
+      <c r="G33" s="389"/>
       <c r="H33" s="77"/>
       <c r="I33" s="30"/>
       <c r="J33" s="249" t="s">
@@ -25070,14 +25077,14 @@
       <c r="K33" s="250"/>
       <c r="L33" s="251"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="414" t="s">
+      <c r="N33" s="394" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="414"/>
-      <c r="P33" s="414"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="414"/>
-      <c r="S33" s="414"/>
+      <c r="O33" s="394"/>
+      <c r="P33" s="394"/>
+      <c r="Q33" s="394"/>
+      <c r="R33" s="394"/>
+      <c r="S33" s="394"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -25105,11 +25112,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="413"/>
-      <c r="O34" s="413"/>
-      <c r="P34" s="413"/>
-      <c r="Q34" s="413"/>
-      <c r="R34" s="413"/>
+      <c r="N34" s="393"/>
+      <c r="O34" s="393"/>
+      <c r="P34" s="393"/>
+      <c r="Q34" s="393"/>
+      <c r="R34" s="393"/>
       <c r="S34" s="77"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -25136,11 +25143,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="413"/>
-      <c r="O35" s="413"/>
-      <c r="P35" s="413"/>
-      <c r="Q35" s="413"/>
-      <c r="R35" s="413"/>
+      <c r="N35" s="393"/>
+      <c r="O35" s="393"/>
+      <c r="P35" s="393"/>
+      <c r="Q35" s="393"/>
+      <c r="R35" s="393"/>
       <c r="S35" s="77"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -25148,12 +25155,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="99"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="373" t="s">
+      <c r="E36" s="378" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="374"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="375"/>
+      <c r="F36" s="379"/>
+      <c r="G36" s="379"/>
+      <c r="H36" s="380"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -25167,20 +25174,20 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="413"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="413"/>
-      <c r="Q36" s="413"/>
-      <c r="R36" s="413"/>
+      <c r="N36" s="393"/>
+      <c r="O36" s="393"/>
+      <c r="P36" s="393"/>
+      <c r="Q36" s="393"/>
+      <c r="R36" s="393"/>
       <c r="S36" s="77"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="388"/>
-      <c r="F37" s="389"/>
-      <c r="G37" s="390"/>
+      <c r="E37" s="396"/>
+      <c r="F37" s="397"/>
+      <c r="G37" s="398"/>
       <c r="H37" s="253"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -25195,23 +25202,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="413"/>
-      <c r="O37" s="413"/>
-      <c r="P37" s="413"/>
-      <c r="Q37" s="413"/>
-      <c r="R37" s="413"/>
+      <c r="N37" s="393"/>
+      <c r="O37" s="393"/>
+      <c r="P37" s="393"/>
+      <c r="Q37" s="393"/>
+      <c r="R37" s="393"/>
       <c r="S37" s="77"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="415" t="s">
+      <c r="A38" s="395" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="415"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="388"/>
-      <c r="F38" s="389"/>
-      <c r="G38" s="390"/>
+      <c r="E38" s="396"/>
+      <c r="F38" s="397"/>
+      <c r="G38" s="398"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -25223,11 +25230,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="413"/>
-      <c r="O38" s="413"/>
-      <c r="P38" s="413"/>
-      <c r="Q38" s="413"/>
-      <c r="R38" s="413"/>
+      <c r="N38" s="393"/>
+      <c r="O38" s="393"/>
+      <c r="P38" s="393"/>
+      <c r="Q38" s="393"/>
+      <c r="R38" s="393"/>
       <c r="S38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25240,9 +25247,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="388"/>
-      <c r="F39" s="389"/>
-      <c r="G39" s="390"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="397"/>
+      <c r="G39" s="398"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -25275,9 +25282,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="388"/>
-      <c r="F40" s="389"/>
-      <c r="G40" s="390"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="397"/>
+      <c r="G40" s="398"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -25308,9 +25315,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="388"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="390"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="397"/>
+      <c r="G41" s="398"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -25325,14 +25332,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="414" t="s">
+      <c r="N41" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="414"/>
-      <c r="P41" s="414"/>
-      <c r="Q41" s="414"/>
-      <c r="R41" s="414"/>
-      <c r="S41" s="414"/>
+      <c r="O41" s="394"/>
+      <c r="P41" s="394"/>
+      <c r="Q41" s="394"/>
+      <c r="R41" s="394"/>
+      <c r="S41" s="394"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
@@ -25358,11 +25365,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="413"/>
-      <c r="O42" s="413"/>
-      <c r="P42" s="413"/>
-      <c r="Q42" s="413"/>
-      <c r="R42" s="413"/>
+      <c r="N42" s="393"/>
+      <c r="O42" s="393"/>
+      <c r="P42" s="393"/>
+      <c r="Q42" s="393"/>
+      <c r="R42" s="393"/>
       <c r="S42" s="77"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -25385,11 +25392,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="413"/>
-      <c r="O43" s="413"/>
-      <c r="P43" s="413"/>
-      <c r="Q43" s="413"/>
-      <c r="R43" s="413"/>
+      <c r="N43" s="393"/>
+      <c r="O43" s="393"/>
+      <c r="P43" s="393"/>
+      <c r="Q43" s="393"/>
+      <c r="R43" s="393"/>
       <c r="S43" s="77"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -25413,11 +25420,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="413"/>
-      <c r="O44" s="413"/>
-      <c r="P44" s="413"/>
-      <c r="Q44" s="413"/>
-      <c r="R44" s="413"/>
+      <c r="N44" s="393"/>
+      <c r="O44" s="393"/>
+      <c r="P44" s="393"/>
+      <c r="Q44" s="393"/>
+      <c r="R44" s="393"/>
       <c r="S44" s="77"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -25444,11 +25451,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="413"/>
-      <c r="O45" s="413"/>
-      <c r="P45" s="413"/>
-      <c r="Q45" s="413"/>
-      <c r="R45" s="413"/>
+      <c r="N45" s="393"/>
+      <c r="O45" s="393"/>
+      <c r="P45" s="393"/>
+      <c r="Q45" s="393"/>
+      <c r="R45" s="393"/>
       <c r="S45" s="77"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -25468,11 +25475,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="413"/>
-      <c r="O46" s="413"/>
-      <c r="P46" s="413"/>
-      <c r="Q46" s="413"/>
-      <c r="R46" s="413"/>
+      <c r="N46" s="393"/>
+      <c r="O46" s="393"/>
+      <c r="P46" s="393"/>
+      <c r="Q46" s="393"/>
+      <c r="R46" s="393"/>
       <c r="S46" s="77"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -25582,20 +25589,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="368">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="368"/>
-      <c r="G51" s="368"/>
-      <c r="H51" s="368"/>
-      <c r="J51" s="368">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="368"/>
-      <c r="L51" s="368"/>
-      <c r="M51" s="368"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -27102,6 +27109,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -27118,57 +27176,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" verticalDpi="598" r:id="rId1"/>
@@ -27188,7 +27195,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -27371,24 +27378,31 @@
         <v>124</v>
       </c>
       <c r="B7" s="259">
+        <f>MON!$B$49</f>
         <v>0</v>
       </c>
       <c r="C7" s="259">
+        <f>TUE!$B$49</f>
         <v>0</v>
       </c>
       <c r="D7" s="259">
+        <f>WED!$B$49</f>
         <v>0</v>
       </c>
       <c r="E7" s="259">
+        <f>THU!$B$49</f>
         <v>0</v>
       </c>
       <c r="F7" s="259">
+        <f>FRI!$B$49</f>
         <v>0</v>
       </c>
       <c r="G7" s="259">
+        <f>SAT!$B$49</f>
         <v>0</v>
       </c>
       <c r="H7" s="259">
+        <f>SUN!$B$49</f>
         <v>0</v>
       </c>
       <c r="I7" s="257">
@@ -27401,24 +27415,31 @@
         <v>125</v>
       </c>
       <c r="B8" s="259">
+        <f>MON!$B$50</f>
         <v>0</v>
       </c>
       <c r="C8" s="259">
+        <f>TUE!$B$50</f>
         <v>0</v>
       </c>
       <c r="D8" s="259">
+        <f>WED!$B$50</f>
         <v>0</v>
       </c>
       <c r="E8" s="259">
+        <f>THU!$B$50</f>
         <v>0</v>
       </c>
       <c r="F8" s="259">
+        <f>FRI!$B$50</f>
         <v>0</v>
       </c>
       <c r="G8" s="259">
+        <f>SAT!$B$50</f>
         <v>0</v>
       </c>
       <c r="H8" s="259">
+        <f>SUN!$B$50</f>
         <v>0</v>
       </c>
       <c r="I8" s="257">
@@ -27450,7 +27471,7 @@
         <f>FRI!$H$44</f>
         <v>0</v>
       </c>
-      <c r="G9" s="440">
+      <c r="G9" s="284">
         <f>SAT!$H$44</f>
         <v>0</v>
       </c>
@@ -27589,25 +27610,32 @@
       <c r="A14" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="217">
+      <c r="B14" s="440">
+        <f>MON!$C$49</f>
         <v>0</v>
       </c>
       <c r="C14" s="217">
+        <f>TUE!$C$49</f>
         <v>0</v>
       </c>
       <c r="D14" s="217">
+        <f>WED!$C$49</f>
         <v>0</v>
       </c>
       <c r="E14" s="217">
+        <f>THU!$C$49</f>
         <v>0</v>
       </c>
       <c r="F14" s="217">
+        <f>FRI!$C$49</f>
         <v>0</v>
       </c>
       <c r="G14" s="217">
+        <f>SAT!$C$49</f>
         <v>0</v>
       </c>
       <c r="H14" s="217">
+        <f>SUN!$C$49</f>
         <v>0</v>
       </c>
       <c r="I14" s="171">
@@ -27619,25 +27647,32 @@
       <c r="A15" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="217">
+      <c r="B15" s="440">
+        <f>MON!$C$50</f>
         <v>0</v>
       </c>
       <c r="C15" s="217">
+        <f>TUE!$C$50</f>
         <v>0</v>
       </c>
       <c r="D15" s="217">
+        <f>WED!$C$50</f>
         <v>0</v>
       </c>
       <c r="E15" s="217">
+        <f>THU!$C$50</f>
         <v>0</v>
       </c>
       <c r="F15" s="217">
+        <f>FRI!$C$50</f>
         <v>0</v>
       </c>
       <c r="G15" s="217">
+        <f>SAT!$C$50</f>
         <v>0</v>
       </c>
       <c r="H15" s="217">
+        <f>SUN!$C$50</f>
         <v>0</v>
       </c>
       <c r="I15" s="171">
